--- a/persistenceModelSummaries.xlsx
+++ b/persistenceModelSummaries.xlsx
@@ -8,12 +8,13 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\nclancy1\Desktop\persistence\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="8_{026DAD03-9E9E-408B-B62B-C1A032E127E9}" xr6:coauthVersionLast="36" xr6:coauthVersionMax="36" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{66655ECD-F00C-4B9E-A330-B7A190B095EC}" xr6:coauthVersionLast="36" xr6:coauthVersionMax="36" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="28780" windowHeight="11880" xr2:uid="{5449A4E9-FD86-4181-A72B-A8CD9429038C}"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="28780" windowHeight="11880" activeTab="1" xr2:uid="{5449A4E9-FD86-4181-A72B-A8CD9429038C}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
+    <sheet name="Sheet2" sheetId="2" r:id="rId2"/>
   </sheets>
   <calcPr calcId="191029"/>
   <extLst>
@@ -25,7 +26,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="72" uniqueCount="26">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="109" uniqueCount="53">
   <si>
     <t>Basin</t>
   </si>
@@ -99,17 +100,98 @@
     <t>0.26*</t>
   </si>
   <si>
-    <t>*p=0.083</t>
-  </si>
-  <si>
     <t>-------------------------------no model convergence-------------------------------</t>
+  </si>
+  <si>
+    <t>Native Species</t>
+  </si>
+  <si>
+    <t>Introduced Species</t>
+  </si>
+  <si>
+    <t>Species</t>
+  </si>
+  <si>
+    <t>Brassy Minnow</t>
+  </si>
+  <si>
+    <t>Colorado Sculpin</t>
+  </si>
+  <si>
+    <t>Flathead Chub</t>
+  </si>
+  <si>
+    <t>Fathead Minnow</t>
+  </si>
+  <si>
+    <t>-0.33*</t>
+  </si>
+  <si>
+    <t>*p&lt;0.10</t>
+  </si>
+  <si>
+    <t>Flannelmouth Sucker</t>
+  </si>
+  <si>
+    <t>Lake Chub</t>
+  </si>
+  <si>
+    <t>Longnose Dace</t>
+  </si>
+  <si>
+    <t>Longnose Sucker</t>
+  </si>
+  <si>
+    <t>Mountain Sucker</t>
+  </si>
+  <si>
+    <t>Plains Minnow</t>
+  </si>
+  <si>
+    <t>Plains Sucker</t>
+  </si>
+  <si>
+    <t>Speckled Dace</t>
+  </si>
+  <si>
+    <t>White Sucker</t>
+  </si>
+  <si>
+    <t>-0.35</t>
+  </si>
+  <si>
+    <t>0.05*</t>
+  </si>
+  <si>
+    <t>-1.36*</t>
+  </si>
+  <si>
+    <t>0.59*</t>
+  </si>
+  <si>
+    <t>-1.11*</t>
+  </si>
+  <si>
+    <t>--</t>
+  </si>
+  <si>
+    <t>Black Bullhead</t>
+  </si>
+  <si>
+    <t>Brook Trout</t>
+  </si>
+  <si>
+    <t>Redside Shiner</t>
+  </si>
+  <si>
+    <t>Spatial Intercept RMSPE</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <fonts count="8" x14ac:knownFonts="1">
+  <fonts count="9" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -162,6 +244,13 @@
       <name val="Arial"/>
       <family val="2"/>
     </font>
+    <font>
+      <b/>
+      <sz val="8"/>
+      <color theme="1"/>
+      <name val="Arial"/>
+      <family val="2"/>
+    </font>
   </fonts>
   <fills count="4">
     <fill>
@@ -183,7 +272,7 @@
       </patternFill>
     </fill>
   </fills>
-  <borders count="12">
+  <borders count="13">
     <border>
       <left/>
       <right/>
@@ -310,11 +399,22 @@
       </bottom>
       <diagonal/>
     </border>
+    <border>
+      <left style="dotted">
+        <color indexed="64"/>
+      </left>
+      <right/>
+      <top/>
+      <bottom style="medium">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
   </borders>
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="71">
+  <cellXfs count="96">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
     <xf numFmtId="0" fontId="1" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
@@ -388,6 +488,9 @@
       <alignment horizontal="center"/>
     </xf>
     <xf numFmtId="0" fontId="5" fillId="3" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="3" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
     <xf numFmtId="0" fontId="4" fillId="2" borderId="0" xfId="0" quotePrefix="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
@@ -438,6 +541,70 @@
     <xf numFmtId="0" fontId="1" fillId="3" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="0" xfId="0" applyFill="1"/>
+    <xf numFmtId="0" fontId="1" fillId="2" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="2" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="2" borderId="0" xfId="0" quotePrefix="1" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="2" borderId="0" xfId="0" quotePrefix="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="2" fontId="1" fillId="2" borderId="3" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="2" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="2" fontId="3" fillId="2" borderId="3" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="2" fontId="1" fillId="2" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="2" fontId="1" fillId="2" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="2" fontId="3" fillId="2" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="2" borderId="0" xfId="0" quotePrefix="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="2" fontId="3" fillId="2" borderId="0" xfId="0" quotePrefix="1" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="2" fontId="1" fillId="2" borderId="2" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="2" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="2" fontId="3" fillId="2" borderId="2" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="2" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="2" fontId="0" fillId="2" borderId="0" xfId="0" applyNumberFormat="1" applyFill="1"/>
+    <xf numFmtId="0" fontId="1" fillId="2" borderId="12" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="12" xfId="0" applyFill="1" applyBorder="1"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
@@ -752,628 +919,1170 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{EA6E7ADE-132E-4744-82A9-9CF107F05154}">
-  <dimension ref="A1:L21"/>
+  <dimension ref="B2:M21"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A7" workbookViewId="0">
-      <selection activeCell="P9" sqref="P9"/>
+    <sheetView topLeftCell="A13" workbookViewId="0">
+      <selection activeCell="E21" sqref="E21"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="11.5" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="2" width="8.7265625" style="1"/>
-    <col min="3" max="3" width="10.453125" style="1" bestFit="1" customWidth="1"/>
-    <col min="4" max="4" width="12.1796875" style="1" bestFit="1" customWidth="1"/>
-    <col min="5" max="5" width="6.1796875" style="1" customWidth="1"/>
-    <col min="6" max="6" width="5.08984375" style="1" bestFit="1" customWidth="1"/>
-    <col min="7" max="7" width="6.26953125" style="1" bestFit="1" customWidth="1"/>
-    <col min="8" max="8" width="6.81640625" style="1" bestFit="1" customWidth="1"/>
-    <col min="9" max="9" width="5.6328125" style="1" bestFit="1" customWidth="1"/>
-    <col min="10" max="10" width="7.90625" style="1" bestFit="1" customWidth="1"/>
-    <col min="11" max="11" width="6.08984375" style="35" bestFit="1" customWidth="1"/>
-    <col min="12" max="12" width="5" style="35" bestFit="1" customWidth="1"/>
-    <col min="13" max="16384" width="8.7265625" style="1"/>
+    <col min="1" max="3" width="8.7265625" style="1"/>
+    <col min="4" max="4" width="10.453125" style="1" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="12.1796875" style="1" bestFit="1" customWidth="1"/>
+    <col min="6" max="6" width="6.1796875" style="1" customWidth="1"/>
+    <col min="7" max="7" width="5.08984375" style="1" bestFit="1" customWidth="1"/>
+    <col min="8" max="8" width="6.26953125" style="1" bestFit="1" customWidth="1"/>
+    <col min="9" max="9" width="6.81640625" style="1" bestFit="1" customWidth="1"/>
+    <col min="10" max="10" width="5.6328125" style="1" bestFit="1" customWidth="1"/>
+    <col min="11" max="11" width="7.90625" style="1" bestFit="1" customWidth="1"/>
+    <col min="12" max="12" width="6.08984375" style="35" bestFit="1" customWidth="1"/>
+    <col min="13" max="13" width="5" style="35" bestFit="1" customWidth="1"/>
+    <col min="14" max="16384" width="8.7265625" style="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:12" ht="14.5" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A1" s="8" t="s">
+    <row r="2" spans="2:13" ht="14.5" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="B2" s="8" t="s">
         <v>0</v>
       </c>
-      <c r="B1" s="8" t="s">
+      <c r="C2" s="8" t="s">
         <v>2</v>
       </c>
-      <c r="C1" s="8" t="s">
+      <c r="D2" s="8" t="s">
         <v>14</v>
       </c>
-      <c r="D1" s="8" t="s">
+      <c r="E2" s="8" t="s">
         <v>4</v>
       </c>
-      <c r="E1" s="2" t="s">
+      <c r="F2" s="2" t="s">
         <v>18</v>
       </c>
-      <c r="F1" s="2"/>
-      <c r="G1" s="2"/>
-      <c r="H1" s="2"/>
-      <c r="I1" s="2"/>
-      <c r="J1" s="2"/>
-      <c r="K1" s="64" t="s">
+      <c r="G2" s="2"/>
+      <c r="H2" s="2"/>
+      <c r="I2" s="2"/>
+      <c r="J2" s="2"/>
+      <c r="K2" s="2"/>
+      <c r="L2" s="65" t="s">
         <v>11</v>
       </c>
-      <c r="L1" s="66" t="s">
+      <c r="M2" s="67" t="s">
         <v>22</v>
       </c>
     </row>
-    <row r="2" spans="1:12" s="3" customFormat="1" ht="12" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A2" s="9"/>
-      <c r="B2" s="9"/>
-      <c r="C2" s="9"/>
-      <c r="D2" s="9"/>
-      <c r="E2" s="7" t="s">
+    <row r="3" spans="2:13" s="3" customFormat="1" ht="12" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="B3" s="9"/>
+      <c r="C3" s="9"/>
+      <c r="D3" s="9"/>
+      <c r="E3" s="9"/>
+      <c r="F3" s="7" t="s">
         <v>6</v>
       </c>
-      <c r="F2" s="7" t="s">
+      <c r="G3" s="7" t="s">
         <v>7</v>
       </c>
-      <c r="G2" s="7" t="s">
+      <c r="H3" s="7" t="s">
         <v>8</v>
       </c>
-      <c r="H2" s="7" t="s">
+      <c r="I3" s="7" t="s">
         <v>9</v>
       </c>
-      <c r="I2" s="7" t="s">
+      <c r="J3" s="7" t="s">
         <v>10</v>
       </c>
-      <c r="J2" s="7" t="s">
+      <c r="K3" s="7" t="s">
         <v>12</v>
       </c>
-      <c r="K2" s="65" t="s">
+      <c r="L3" s="66" t="s">
         <v>5</v>
       </c>
-      <c r="L2" s="67"/>
-    </row>
-    <row r="3" spans="1:12" x14ac:dyDescent="0.25">
-      <c r="A3" s="15" t="s">
+      <c r="M3" s="68"/>
+    </row>
+    <row r="4" spans="2:13" x14ac:dyDescent="0.25">
+      <c r="B4" s="15" t="s">
         <v>1</v>
       </c>
-      <c r="B3" s="20" t="s">
+      <c r="C4" s="20" t="s">
         <v>17</v>
       </c>
-      <c r="C3" s="20" t="s">
+      <c r="D4" s="20" t="s">
         <v>15</v>
       </c>
-      <c r="D3" s="29" t="s">
+      <c r="E4" s="29" t="s">
         <v>20</v>
       </c>
-      <c r="E3" s="21">
+      <c r="F4" s="21">
         <v>-0.47</v>
       </c>
-      <c r="F3" s="22">
+      <c r="G4" s="22">
         <v>-0.31</v>
       </c>
-      <c r="G3" s="20">
+      <c r="H4" s="20">
         <v>0.04</v>
       </c>
-      <c r="H3" s="22">
+      <c r="I4" s="22">
         <v>0.2</v>
       </c>
-      <c r="I3" s="21">
+      <c r="J4" s="21">
         <v>0.31</v>
       </c>
-      <c r="J3" s="48">
+      <c r="K4" s="49">
         <v>0.28000000000000003</v>
       </c>
-      <c r="K3" s="58">
+      <c r="L4" s="59">
         <v>0.27300000000000002</v>
       </c>
-      <c r="L3" s="35">
+      <c r="M4" s="35">
         <v>-793</v>
       </c>
     </row>
-    <row r="4" spans="1:12" x14ac:dyDescent="0.25">
-      <c r="A4" s="19"/>
-      <c r="B4" s="68" t="s">
+    <row r="5" spans="2:13" x14ac:dyDescent="0.25">
+      <c r="B5" s="19"/>
+      <c r="C5" s="69" t="s">
         <v>17</v>
       </c>
-      <c r="C4" s="68" t="s">
+      <c r="D5" s="69" t="s">
         <v>15</v>
       </c>
-      <c r="D4" s="70" t="s">
+      <c r="E5" s="71" t="s">
         <v>19</v>
       </c>
-      <c r="E4" s="68"/>
-      <c r="F4" s="68"/>
-      <c r="G4" s="68"/>
-      <c r="H4" s="68"/>
-      <c r="I4" s="68"/>
-      <c r="J4" s="56">
+      <c r="F5" s="69"/>
+      <c r="G5" s="69"/>
+      <c r="H5" s="69"/>
+      <c r="I5" s="69"/>
+      <c r="J5" s="69"/>
+      <c r="K5" s="57">
         <v>0.25</v>
       </c>
-      <c r="K4" s="63">
+      <c r="L5" s="64">
         <v>0.25600000000000001</v>
       </c>
-      <c r="L4" s="47">
+      <c r="M5" s="48">
         <v>-789</v>
       </c>
     </row>
-    <row r="5" spans="1:12" x14ac:dyDescent="0.25">
-      <c r="A5" s="19"/>
-      <c r="B5" s="13" t="s">
+    <row r="6" spans="2:13" x14ac:dyDescent="0.25">
+      <c r="B6" s="19"/>
+      <c r="C6" s="13" t="s">
         <v>17</v>
       </c>
-      <c r="C5" s="13" t="s">
+      <c r="D6" s="13" t="s">
         <v>15</v>
       </c>
-      <c r="D5" s="28" t="s">
+      <c r="E6" s="28" t="s">
         <v>21</v>
       </c>
-      <c r="E5" s="23">
+      <c r="F6" s="23">
         <v>-0.47</v>
       </c>
-      <c r="F5" s="24">
+      <c r="G6" s="24">
         <v>-0.3</v>
       </c>
-      <c r="G5" s="13"/>
-      <c r="H5" s="24">
+      <c r="H6" s="13"/>
+      <c r="I6" s="24">
         <v>0.2</v>
       </c>
-      <c r="I5" s="24">
+      <c r="J6" s="24">
         <v>0.31</v>
       </c>
-      <c r="J5" s="50">
+      <c r="K6" s="51">
         <v>0.28000000000000003</v>
       </c>
-      <c r="K5" s="59">
+      <c r="L6" s="60">
         <v>0.27500000000000002</v>
       </c>
-      <c r="L5" s="35">
+      <c r="M6" s="35">
         <v>-724</v>
       </c>
     </row>
-    <row r="6" spans="1:12" x14ac:dyDescent="0.25">
-      <c r="A6" s="19"/>
-      <c r="B6" s="4" t="s">
+    <row r="7" spans="2:13" x14ac:dyDescent="0.25">
+      <c r="B7" s="19"/>
+      <c r="C7" s="4" t="s">
         <v>17</v>
       </c>
-      <c r="C6" s="4" t="s">
+      <c r="D7" s="4" t="s">
         <v>16</v>
       </c>
-      <c r="D6" s="14" t="s">
+      <c r="E7" s="14" t="s">
         <v>20</v>
       </c>
-      <c r="E6" s="25">
+      <c r="F7" s="25">
         <v>-0.47</v>
       </c>
-      <c r="F6" s="27">
+      <c r="G7" s="27">
         <v>-0.32</v>
       </c>
-      <c r="G6" s="26">
+      <c r="H7" s="26">
         <v>0.04</v>
       </c>
-      <c r="H6" s="25">
+      <c r="I7" s="25">
         <v>0.21</v>
       </c>
-      <c r="I6" s="25">
+      <c r="J7" s="25">
         <v>0.31</v>
       </c>
-      <c r="J6" s="51">
+      <c r="K7" s="52">
         <v>0.28999999999999998</v>
       </c>
-      <c r="K6" s="60">
+      <c r="L7" s="61">
         <v>0.28699999999999998</v>
       </c>
-      <c r="L6" s="36">
+      <c r="M7" s="36">
         <v>-803</v>
       </c>
     </row>
-    <row r="7" spans="1:12" x14ac:dyDescent="0.25">
-      <c r="A7" s="19"/>
-      <c r="B7" s="13" t="s">
+    <row r="8" spans="2:13" x14ac:dyDescent="0.25">
+      <c r="B8" s="19"/>
+      <c r="C8" s="13" t="s">
         <v>3</v>
       </c>
-      <c r="C7" s="1" t="s">
+      <c r="D8" s="1" t="s">
         <v>15</v>
       </c>
-      <c r="D7" s="31" t="s">
+      <c r="E8" s="31" t="s">
         <v>20</v>
       </c>
-      <c r="E7" s="10">
+      <c r="F8" s="10">
         <v>-0.39</v>
       </c>
-      <c r="F7" s="10">
+      <c r="G8" s="10">
         <v>-0.32</v>
       </c>
-      <c r="G7" s="1">
+      <c r="H8" s="1">
         <v>7.0000000000000007E-2</v>
       </c>
-      <c r="H7" s="10">
+      <c r="I8" s="10">
         <v>0.19</v>
       </c>
-      <c r="I7" s="1">
+      <c r="J8" s="1">
         <v>0.09</v>
       </c>
-      <c r="J7" s="52">
+      <c r="K8" s="53">
         <v>0.3</v>
       </c>
-      <c r="K7" s="59">
+      <c r="L8" s="60">
         <v>0.30599999999999999</v>
       </c>
-      <c r="L7" s="35">
+      <c r="M8" s="35">
         <v>-1507</v>
       </c>
     </row>
-    <row r="8" spans="1:12" x14ac:dyDescent="0.25">
-      <c r="A8" s="19"/>
-      <c r="B8" s="68" t="s">
+    <row r="9" spans="2:13" x14ac:dyDescent="0.25">
+      <c r="B9" s="19"/>
+      <c r="C9" s="69" t="s">
         <v>3</v>
       </c>
-      <c r="C8" s="44" t="s">
+      <c r="D9" s="45" t="s">
         <v>15</v>
       </c>
-      <c r="D8" s="69" t="s">
+      <c r="E9" s="70" t="s">
         <v>19</v>
       </c>
-      <c r="E8" s="44"/>
-      <c r="F8" s="44"/>
-      <c r="G8" s="44"/>
-      <c r="H8" s="44"/>
-      <c r="I8" s="44"/>
-      <c r="J8" s="56">
+      <c r="F9" s="45"/>
+      <c r="G9" s="45"/>
+      <c r="H9" s="45"/>
+      <c r="I9" s="45"/>
+      <c r="J9" s="45"/>
+      <c r="K9" s="57">
         <v>0.33</v>
       </c>
-      <c r="K8" s="63">
+      <c r="L9" s="64">
         <v>0.28599999999999998</v>
       </c>
-      <c r="L8" s="47">
+      <c r="M9" s="48">
         <v>-1433</v>
       </c>
     </row>
-    <row r="9" spans="1:12" x14ac:dyDescent="0.25">
-      <c r="A9" s="19"/>
-      <c r="B9" s="13" t="s">
+    <row r="10" spans="2:13" x14ac:dyDescent="0.25">
+      <c r="B10" s="19"/>
+      <c r="C10" s="13" t="s">
         <v>3</v>
       </c>
-      <c r="C9" s="1" t="s">
+      <c r="D10" s="1" t="s">
         <v>15</v>
       </c>
-      <c r="D9" s="31" t="s">
+      <c r="E10" s="31" t="s">
         <v>21</v>
       </c>
-      <c r="E9" s="10">
+      <c r="F10" s="10">
         <v>-0.39</v>
       </c>
-      <c r="F9" s="10">
+      <c r="G10" s="10">
         <v>-0.24</v>
       </c>
-      <c r="H9" s="11">
+      <c r="I10" s="11">
         <v>0.2</v>
       </c>
-      <c r="J9" s="53">
+      <c r="K10" s="54">
         <v>0.3</v>
       </c>
-      <c r="K9" s="59">
+      <c r="L10" s="60">
         <v>0.28699999999999998</v>
       </c>
-      <c r="L9" s="35">
+      <c r="M10" s="35">
         <v>-1477</v>
       </c>
     </row>
-    <row r="10" spans="1:12" ht="12" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A10" s="18"/>
-      <c r="B10" s="5" t="s">
+    <row r="11" spans="2:13" ht="12" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="B11" s="18"/>
+      <c r="C11" s="5" t="s">
         <v>3</v>
       </c>
-      <c r="C10" s="5" t="s">
+      <c r="D11" s="5" t="s">
         <v>16</v>
       </c>
-      <c r="D10" s="32" t="s">
+      <c r="E11" s="32" t="s">
         <v>20</v>
       </c>
-      <c r="E10" s="34">
+      <c r="F11" s="34">
         <v>-0.4</v>
       </c>
-      <c r="F10" s="33">
+      <c r="G11" s="33">
         <v>-0.33</v>
       </c>
-      <c r="G10" s="5">
+      <c r="H11" s="5">
         <v>7.0000000000000007E-2</v>
       </c>
-      <c r="H10" s="33">
+      <c r="I11" s="33">
         <v>0.19</v>
       </c>
-      <c r="I10" s="5">
+      <c r="J11" s="5">
         <v>0.11</v>
       </c>
-      <c r="J10" s="54">
+      <c r="K11" s="55">
         <v>0.3</v>
       </c>
-      <c r="K10" s="61">
+      <c r="L11" s="62">
         <v>0.29799999999999999</v>
       </c>
-      <c r="L10" s="37">
+      <c r="M11" s="37">
         <v>-1507</v>
       </c>
     </row>
-    <row r="11" spans="1:12" x14ac:dyDescent="0.25">
-      <c r="A11" s="19" t="s">
+    <row r="12" spans="2:13" x14ac:dyDescent="0.25">
+      <c r="B12" s="19" t="s">
         <v>13</v>
       </c>
-      <c r="B11" s="1" t="s">
+      <c r="C12" s="1" t="s">
         <v>17</v>
       </c>
-      <c r="C11" s="13" t="s">
+      <c r="D12" s="13" t="s">
         <v>15</v>
       </c>
-      <c r="D11" s="28" t="s">
+      <c r="E12" s="28" t="s">
         <v>20</v>
       </c>
-      <c r="E11" s="13">
+      <c r="F12" s="13">
         <v>-0.19</v>
       </c>
-      <c r="F11" s="13">
+      <c r="G12" s="13">
         <v>0.12</v>
       </c>
-      <c r="G11" s="43" t="s">
+      <c r="H12" s="44" t="s">
         <v>23</v>
       </c>
-      <c r="H11" s="13">
+      <c r="I12" s="13">
         <v>-0.14000000000000001</v>
       </c>
-      <c r="I11" s="13">
+      <c r="J12" s="13">
         <v>0.05</v>
       </c>
-      <c r="J11" s="49">
+      <c r="K12" s="50">
         <v>0.03</v>
       </c>
-      <c r="K11" s="59">
+      <c r="L12" s="60">
         <v>0.248</v>
       </c>
-      <c r="L11" s="35">
+      <c r="M12" s="35">
         <v>-82</v>
       </c>
     </row>
-    <row r="12" spans="1:12" ht="14.5" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A12" s="16"/>
-      <c r="B12" s="1" t="s">
+    <row r="13" spans="2:13" ht="14.5" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="B13" s="16"/>
+      <c r="C13" s="1" t="s">
         <v>17</v>
       </c>
-      <c r="C12" s="13" t="s">
+      <c r="D13" s="13" t="s">
         <v>15</v>
       </c>
-      <c r="D12" s="28" t="s">
+      <c r="E13" s="28" t="s">
         <v>19</v>
       </c>
-      <c r="E12" s="41" t="s">
-        <v>25</v>
-      </c>
-      <c r="F12" s="30"/>
-      <c r="G12" s="30"/>
-      <c r="H12" s="30"/>
-      <c r="I12" s="30"/>
-      <c r="J12" s="30"/>
-      <c r="K12" s="30"/>
-      <c r="L12" s="30"/>
-    </row>
-    <row r="13" spans="1:12" ht="14.5" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A13" s="16"/>
-      <c r="B13" s="1" t="s">
-        <v>17</v>
-      </c>
-      <c r="C13" s="13" t="s">
-        <v>15</v>
-      </c>
-      <c r="D13" s="28" t="s">
-        <v>21</v>
-      </c>
-      <c r="E13" s="41" t="s">
-        <v>25</v>
-      </c>
-      <c r="F13" s="30"/>
+      <c r="F13" s="42" t="s">
+        <v>24</v>
+      </c>
       <c r="G13" s="30"/>
       <c r="H13" s="30"/>
       <c r="I13" s="30"/>
       <c r="J13" s="30"/>
       <c r="K13" s="30"/>
       <c r="L13" s="30"/>
-    </row>
-    <row r="14" spans="1:12" ht="14.5" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A14" s="16"/>
-      <c r="B14" s="1" t="s">
+      <c r="M13" s="30"/>
+    </row>
+    <row r="14" spans="2:13" ht="14.5" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="B14" s="16"/>
+      <c r="C14" s="1" t="s">
         <v>17</v>
       </c>
-      <c r="C14" s="1" t="s">
+      <c r="D14" s="13" t="s">
+        <v>15</v>
+      </c>
+      <c r="E14" s="28" t="s">
+        <v>21</v>
+      </c>
+      <c r="F14" s="42" t="s">
+        <v>24</v>
+      </c>
+      <c r="G14" s="30"/>
+      <c r="H14" s="30"/>
+      <c r="I14" s="30"/>
+      <c r="J14" s="30"/>
+      <c r="K14" s="30"/>
+      <c r="L14" s="30"/>
+      <c r="M14" s="30"/>
+    </row>
+    <row r="15" spans="2:13" ht="14.5" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="B15" s="16"/>
+      <c r="C15" s="1" t="s">
+        <v>17</v>
+      </c>
+      <c r="D15" s="1" t="s">
         <v>16</v>
       </c>
-      <c r="D14" s="1" t="s">
+      <c r="E15" s="1" t="s">
         <v>19</v>
       </c>
-      <c r="E14" s="13"/>
-      <c r="F14" s="13"/>
-      <c r="G14" s="13"/>
-      <c r="H14" s="13"/>
-      <c r="I14" s="13"/>
-      <c r="J14" s="49">
+      <c r="F15" s="13"/>
+      <c r="G15" s="13"/>
+      <c r="H15" s="13"/>
+      <c r="I15" s="13"/>
+      <c r="J15" s="13"/>
+      <c r="K15" s="50">
         <v>0.03</v>
       </c>
-      <c r="K14" s="59">
+      <c r="L15" s="60">
         <v>0.247</v>
       </c>
-      <c r="L14" s="35">
+      <c r="M15" s="35">
         <v>-48</v>
       </c>
     </row>
-    <row r="15" spans="1:12" ht="14.5" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A15" s="16"/>
-      <c r="B15" s="38" t="s">
+    <row r="16" spans="2:13" ht="14.5" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="B16" s="16"/>
+      <c r="C16" s="38" t="s">
         <v>17</v>
       </c>
-      <c r="C15" s="38" t="s">
+      <c r="D16" s="38" t="s">
         <v>16</v>
       </c>
-      <c r="D15" s="39" t="s">
+      <c r="E16" s="39" t="s">
         <v>20</v>
       </c>
-      <c r="E15" s="38">
+      <c r="F16" s="38">
         <v>-0.19</v>
       </c>
-      <c r="F15" s="38">
+      <c r="G16" s="38">
         <v>0.12</v>
       </c>
-      <c r="G15" s="42" t="s">
+      <c r="H16" s="43" t="s">
         <v>23</v>
       </c>
-      <c r="H15" s="38">
+      <c r="I16" s="38">
         <v>-0.14000000000000001</v>
       </c>
-      <c r="I15" s="38">
+      <c r="J16" s="38">
         <v>0.05</v>
       </c>
-      <c r="J15" s="55">
+      <c r="K16" s="56">
         <v>0.03</v>
       </c>
-      <c r="K15" s="62">
+      <c r="L16" s="63">
         <v>0.248</v>
       </c>
-      <c r="L15" s="40">
+      <c r="M16" s="40">
         <v>-88</v>
       </c>
     </row>
-    <row r="16" spans="1:12" ht="14.5" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A16" s="16"/>
-      <c r="B16" s="1" t="s">
+    <row r="17" spans="2:13" ht="14.5" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="B17" s="16"/>
+      <c r="C17" s="1" t="s">
         <v>3</v>
       </c>
-      <c r="C16" s="1" t="s">
+      <c r="D17" s="1" t="s">
         <v>15</v>
       </c>
-      <c r="D16" s="6" t="s">
+      <c r="E17" s="6" t="s">
         <v>20</v>
       </c>
-      <c r="E16" s="12">
+      <c r="F17" s="12">
         <v>-0.29199999999999998</v>
       </c>
-      <c r="F16" s="10">
+      <c r="G17" s="10">
         <v>-0.47</v>
       </c>
-      <c r="G16" s="1">
+      <c r="H17" s="1">
         <v>0.25</v>
       </c>
-      <c r="H16" s="1">
+      <c r="I17" s="1">
         <v>0.08</v>
       </c>
-      <c r="I16" s="1">
+      <c r="J17" s="1">
         <v>0.12</v>
       </c>
-      <c r="J16" s="49">
+      <c r="K17" s="50">
         <v>-5.0000000000000001E-3</v>
       </c>
-      <c r="K16" s="59">
+      <c r="L17" s="60">
         <v>0.252</v>
       </c>
-      <c r="L16" s="35">
+      <c r="M17" s="35">
         <v>-195</v>
       </c>
     </row>
-    <row r="17" spans="1:12" ht="14.5" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A17" s="16"/>
-      <c r="B17" s="1" t="s">
+    <row r="18" spans="2:13" ht="14.5" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="B18" s="16"/>
+      <c r="C18" s="1" t="s">
         <v>3</v>
       </c>
-      <c r="C17" s="1" t="s">
+      <c r="D18" s="1" t="s">
         <v>15</v>
       </c>
-      <c r="D17" s="6" t="s">
+      <c r="E18" s="6" t="s">
         <v>19</v>
       </c>
-      <c r="J17" s="49">
+      <c r="K18" s="50">
         <v>0.06</v>
       </c>
-      <c r="K17" s="59">
+      <c r="L18" s="60">
         <v>0.29099999999999998</v>
       </c>
-      <c r="L17" s="35">
+      <c r="M18" s="35">
         <v>-164</v>
       </c>
     </row>
-    <row r="18" spans="1:12" ht="14.5" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A18" s="16"/>
-      <c r="B18" s="44" t="s">
+    <row r="19" spans="2:13" ht="14.5" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="B19" s="16"/>
+      <c r="C19" s="45" t="s">
         <v>3</v>
       </c>
-      <c r="C18" s="44" t="s">
+      <c r="D19" s="45" t="s">
         <v>15</v>
       </c>
-      <c r="D18" s="45" t="s">
+      <c r="E19" s="46" t="s">
         <v>21</v>
       </c>
-      <c r="E18" s="44"/>
-      <c r="F18" s="46">
+      <c r="F19" s="45"/>
+      <c r="G19" s="47">
         <v>-0.38</v>
       </c>
-      <c r="G18" s="44"/>
-      <c r="H18" s="44"/>
-      <c r="I18" s="44"/>
-      <c r="J18" s="56">
+      <c r="H19" s="45"/>
+      <c r="I19" s="45"/>
+      <c r="J19" s="45"/>
+      <c r="K19" s="57">
         <v>4.0000000000000001E-3</v>
       </c>
-      <c r="K18" s="63">
+      <c r="L19" s="64">
         <v>0.248</v>
       </c>
-      <c r="L18" s="47">
+      <c r="M19" s="48">
         <v>-162</v>
       </c>
     </row>
-    <row r="19" spans="1:12" ht="15" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A19" s="18"/>
-      <c r="B19" s="5" t="s">
+    <row r="20" spans="2:13" ht="15" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="B20" s="18"/>
+      <c r="C20" s="5" t="s">
         <v>3</v>
       </c>
-      <c r="C19" s="5" t="s">
+      <c r="D20" s="5" t="s">
         <v>16</v>
       </c>
-      <c r="D19" s="17" t="s">
+      <c r="E20" s="17" t="s">
         <v>20</v>
       </c>
-      <c r="E19" s="5">
+      <c r="F20" s="5">
         <v>-0.28999999999999998</v>
       </c>
-      <c r="F19" s="33">
+      <c r="G20" s="33">
         <v>-0.47</v>
       </c>
-      <c r="G19" s="5">
+      <c r="H20" s="5">
         <v>0.25</v>
       </c>
-      <c r="H19" s="5">
+      <c r="I20" s="5">
         <v>0.08</v>
       </c>
-      <c r="I19" s="5">
+      <c r="J20" s="5">
         <v>0.12</v>
       </c>
-      <c r="J19" s="57">
+      <c r="K20" s="58">
         <v>-5.0000000000000001E-3</v>
       </c>
-      <c r="K19" s="61">
+      <c r="L20" s="62">
         <v>0.252</v>
       </c>
-      <c r="L19" s="37">
+      <c r="M20" s="37">
         <v>-201</v>
       </c>
     </row>
-    <row r="21" spans="1:12" x14ac:dyDescent="0.25">
-      <c r="D21" s="1" t="s">
-        <v>24</v>
+    <row r="21" spans="2:13" x14ac:dyDescent="0.25">
+      <c r="E21" s="1" t="s">
+        <v>33</v>
       </c>
     </row>
   </sheetData>
   <mergeCells count="10">
-    <mergeCell ref="A3:A10"/>
-    <mergeCell ref="A11:A19"/>
-    <mergeCell ref="L1:L2"/>
-    <mergeCell ref="E12:L12"/>
-    <mergeCell ref="E13:L13"/>
-    <mergeCell ref="E1:J1"/>
-    <mergeCell ref="A1:A2"/>
+    <mergeCell ref="B4:B11"/>
+    <mergeCell ref="B12:B20"/>
+    <mergeCell ref="M2:M3"/>
+    <mergeCell ref="F13:M13"/>
+    <mergeCell ref="F14:M14"/>
+    <mergeCell ref="F2:K2"/>
+    <mergeCell ref="B2:B3"/>
+    <mergeCell ref="D2:D3"/>
+    <mergeCell ref="C2:C3"/>
+    <mergeCell ref="E2:E3"/>
+  </mergeCells>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageSetup orientation="portrait" r:id="rId1"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{87855ADF-ED4A-441E-AB56-65EE09C67C1B}">
+  <dimension ref="A1:J19"/>
+  <sheetViews>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="J19" sqref="J19"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
+  <cols>
+    <col min="1" max="2" width="8.7265625" style="72"/>
+    <col min="3" max="3" width="16.26953125" style="72" bestFit="1" customWidth="1"/>
+    <col min="4" max="8" width="8.7265625" style="72"/>
+    <col min="9" max="9" width="6.6328125" style="72" customWidth="1"/>
+    <col min="10" max="16384" width="8.7265625" style="72"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:10" ht="20.5" customHeight="1" x14ac:dyDescent="0.35">
+      <c r="A1" s="1"/>
+      <c r="B1" s="8" t="s">
+        <v>0</v>
+      </c>
+      <c r="C1" s="8" t="s">
+        <v>27</v>
+      </c>
+      <c r="D1" s="2" t="s">
+        <v>18</v>
+      </c>
+      <c r="E1" s="2"/>
+      <c r="F1" s="2"/>
+      <c r="G1" s="2"/>
+      <c r="H1" s="2"/>
+      <c r="I1" s="65" t="s">
+        <v>11</v>
+      </c>
+      <c r="J1" s="91" t="s">
+        <v>52</v>
+      </c>
+    </row>
+    <row r="2" spans="1:10" ht="19" customHeight="1" thickBot="1" x14ac:dyDescent="0.4">
+      <c r="A2" s="3"/>
+      <c r="B2" s="9"/>
+      <c r="C2" s="9"/>
+      <c r="D2" s="7" t="s">
+        <v>6</v>
+      </c>
+      <c r="E2" s="7" t="s">
+        <v>7</v>
+      </c>
+      <c r="F2" s="7" t="s">
+        <v>8</v>
+      </c>
+      <c r="G2" s="7" t="s">
+        <v>9</v>
+      </c>
+      <c r="H2" s="7" t="s">
+        <v>10</v>
+      </c>
+      <c r="I2" s="66" t="s">
+        <v>5</v>
+      </c>
+      <c r="J2" s="92"/>
+    </row>
+    <row r="3" spans="1:10" x14ac:dyDescent="0.35">
+      <c r="A3" s="1"/>
+      <c r="B3" s="73" t="s">
+        <v>25</v>
+      </c>
+      <c r="C3" s="20" t="s">
+        <v>28</v>
+      </c>
+      <c r="D3" s="29">
+        <v>-0.12</v>
+      </c>
+      <c r="E3" s="79">
+        <v>-0.1</v>
+      </c>
+      <c r="F3" s="80">
+        <v>0.92</v>
+      </c>
+      <c r="G3" s="81">
+        <v>1.1000000000000001</v>
+      </c>
+      <c r="H3" s="29">
+        <v>0.12</v>
+      </c>
+      <c r="I3" s="59">
+        <v>0.42</v>
+      </c>
+      <c r="J3" s="72">
+        <v>0.34</v>
+      </c>
+    </row>
+    <row r="4" spans="1:10" x14ac:dyDescent="0.35">
+      <c r="A4" s="1"/>
+      <c r="B4" s="74"/>
+      <c r="C4" s="13" t="s">
+        <v>29</v>
+      </c>
+      <c r="D4" s="28">
+        <v>-9.67</v>
+      </c>
+      <c r="E4" s="82">
+        <v>31.8</v>
+      </c>
+      <c r="F4" s="28">
+        <v>-4.1100000000000003</v>
+      </c>
+      <c r="G4" s="28">
+        <v>-4.71</v>
+      </c>
+      <c r="H4" s="28">
+        <v>3.59</v>
+      </c>
+      <c r="I4" s="60">
+        <v>0.28000000000000003</v>
+      </c>
+      <c r="J4" s="72">
+        <v>0.33</v>
+      </c>
+    </row>
+    <row r="5" spans="1:10" x14ac:dyDescent="0.35">
+      <c r="A5" s="1"/>
+      <c r="B5" s="74"/>
+      <c r="C5" s="13" t="s">
+        <v>31</v>
+      </c>
+      <c r="D5" s="83">
+        <v>0.1</v>
+      </c>
+      <c r="E5" s="77" t="s">
+        <v>32</v>
+      </c>
+      <c r="F5" s="6">
+        <v>0.06</v>
+      </c>
+      <c r="G5" s="84">
+        <v>0.57999999999999996</v>
+      </c>
+      <c r="H5" s="6">
+        <v>0.02</v>
+      </c>
+      <c r="I5" s="60">
+        <v>0.47</v>
+      </c>
+      <c r="J5" s="72">
+        <v>0.42</v>
+      </c>
+    </row>
+    <row r="6" spans="1:10" x14ac:dyDescent="0.35">
+      <c r="A6" s="1"/>
+      <c r="B6" s="74"/>
+      <c r="C6" s="13" t="s">
+        <v>34</v>
+      </c>
+      <c r="D6" s="6">
+        <v>0.51</v>
+      </c>
+      <c r="E6" s="83">
+        <v>-0.6</v>
+      </c>
+      <c r="F6" s="6">
+        <v>-0.3</v>
+      </c>
+      <c r="G6" s="84">
+        <v>0.92</v>
+      </c>
+      <c r="H6" s="6">
+        <v>-0.33</v>
+      </c>
+      <c r="I6" s="60">
+        <v>0.45</v>
+      </c>
+      <c r="J6" s="72">
+        <v>0.42</v>
+      </c>
+    </row>
+    <row r="7" spans="1:10" x14ac:dyDescent="0.35">
+      <c r="A7" s="1"/>
+      <c r="B7" s="74"/>
+      <c r="C7" s="13" t="s">
+        <v>30</v>
+      </c>
+      <c r="D7" s="41">
+        <v>0.65</v>
+      </c>
+      <c r="E7" s="82">
+        <v>0.62</v>
+      </c>
+      <c r="F7" s="41">
+        <v>-0.97</v>
+      </c>
+      <c r="G7" s="82">
+        <v>0.33</v>
+      </c>
+      <c r="H7" s="82">
+        <v>-0.4</v>
+      </c>
+      <c r="I7" s="60">
+        <v>0.33</v>
+      </c>
+      <c r="J7" s="72">
+        <v>0.35</v>
+      </c>
+    </row>
+    <row r="8" spans="1:10" x14ac:dyDescent="0.35">
+      <c r="A8" s="1"/>
+      <c r="B8" s="74"/>
+      <c r="C8" s="13" t="s">
+        <v>35</v>
+      </c>
+      <c r="D8" s="28">
+        <v>0.42</v>
+      </c>
+      <c r="E8" s="82">
+        <v>-3.7</v>
+      </c>
+      <c r="F8" s="82">
+        <v>0.2</v>
+      </c>
+      <c r="G8" s="82">
+        <v>-0.33</v>
+      </c>
+      <c r="H8" s="85">
+        <v>0.04</v>
+      </c>
+      <c r="I8" s="60">
+        <v>0.46</v>
+      </c>
+      <c r="J8" s="93">
+        <v>0.5</v>
+      </c>
+    </row>
+    <row r="9" spans="1:10" x14ac:dyDescent="0.35">
+      <c r="A9" s="1"/>
+      <c r="B9" s="74"/>
+      <c r="C9" s="13" t="s">
+        <v>36</v>
+      </c>
+      <c r="D9" s="41">
+        <v>-0.3</v>
+      </c>
+      <c r="E9" s="85">
+        <v>-0.5</v>
+      </c>
+      <c r="F9" s="28">
+        <v>0.19</v>
+      </c>
+      <c r="G9" s="82">
+        <v>0.05</v>
+      </c>
+      <c r="H9" s="82">
+        <v>-0.13</v>
+      </c>
+      <c r="I9" s="60">
+        <v>0.44</v>
+      </c>
+      <c r="J9" s="93">
+        <v>0.4</v>
+      </c>
+    </row>
+    <row r="10" spans="1:10" x14ac:dyDescent="0.35">
+      <c r="A10" s="1"/>
+      <c r="B10" s="74"/>
+      <c r="C10" s="13" t="s">
+        <v>37</v>
+      </c>
+      <c r="D10" s="86" t="s">
+        <v>43</v>
+      </c>
+      <c r="E10" s="82">
+        <v>0.26</v>
+      </c>
+      <c r="F10" s="28">
+        <v>0.23</v>
+      </c>
+      <c r="G10" s="82">
+        <v>-0.12</v>
+      </c>
+      <c r="H10" s="87" t="s">
+        <v>44</v>
+      </c>
+      <c r="I10" s="60">
+        <v>0.47</v>
+      </c>
+      <c r="J10" s="72">
+        <v>0.42</v>
+      </c>
+    </row>
+    <row r="11" spans="1:10" x14ac:dyDescent="0.35">
+      <c r="A11" s="1"/>
+      <c r="B11" s="74"/>
+      <c r="C11" s="13" t="s">
+        <v>38</v>
+      </c>
+      <c r="D11" s="28">
+        <v>0.38</v>
+      </c>
+      <c r="E11" s="87" t="s">
+        <v>45</v>
+      </c>
+      <c r="F11" s="86" t="s">
+        <v>46</v>
+      </c>
+      <c r="G11" s="82">
+        <v>0.69</v>
+      </c>
+      <c r="H11" s="82">
+        <v>0.26</v>
+      </c>
+      <c r="I11" s="60">
+        <v>0.43</v>
+      </c>
+      <c r="J11" s="72">
+        <v>0.39</v>
+      </c>
+    </row>
+    <row r="12" spans="1:10" x14ac:dyDescent="0.35">
+      <c r="A12" s="1"/>
+      <c r="B12" s="74"/>
+      <c r="C12" s="13" t="s">
+        <v>39</v>
+      </c>
+      <c r="D12" s="28">
+        <v>-0.38</v>
+      </c>
+      <c r="E12" s="82">
+        <v>-1.26</v>
+      </c>
+      <c r="F12" s="78" t="s">
+        <v>48</v>
+      </c>
+      <c r="G12" s="82">
+        <v>-0.09</v>
+      </c>
+      <c r="H12" s="82">
+        <v>0.14000000000000001</v>
+      </c>
+      <c r="I12" s="60">
+        <v>0.37</v>
+      </c>
+      <c r="J12" s="72">
+        <v>0.41</v>
+      </c>
+    </row>
+    <row r="13" spans="1:10" x14ac:dyDescent="0.35">
+      <c r="A13" s="1"/>
+      <c r="B13" s="74"/>
+      <c r="C13" s="13" t="s">
+        <v>40</v>
+      </c>
+      <c r="D13" s="28">
+        <v>-0.37</v>
+      </c>
+      <c r="E13" s="82">
+        <v>-0.34</v>
+      </c>
+      <c r="F13" s="28">
+        <v>-0.79</v>
+      </c>
+      <c r="G13" s="82">
+        <v>0.01</v>
+      </c>
+      <c r="H13" s="82">
+        <v>-1.57</v>
+      </c>
+      <c r="I13" s="60">
+        <v>0.48</v>
+      </c>
+      <c r="J13" s="12">
+        <v>0.5</v>
+      </c>
+    </row>
+    <row r="14" spans="1:10" x14ac:dyDescent="0.35">
+      <c r="A14" s="1"/>
+      <c r="B14" s="74"/>
+      <c r="C14" s="13" t="s">
+        <v>41</v>
+      </c>
+      <c r="D14" s="28">
+        <v>0.42</v>
+      </c>
+      <c r="E14" s="87" t="s">
+        <v>47</v>
+      </c>
+      <c r="F14" s="28">
+        <v>0.37</v>
+      </c>
+      <c r="G14" s="82">
+        <v>0.08</v>
+      </c>
+      <c r="H14" s="82">
+        <v>-0.1</v>
+      </c>
+      <c r="I14" s="60">
+        <v>0.44</v>
+      </c>
+      <c r="J14" s="1">
+        <v>0.47</v>
+      </c>
+    </row>
+    <row r="15" spans="1:10" ht="15" thickBot="1" x14ac:dyDescent="0.4">
+      <c r="A15" s="1"/>
+      <c r="B15" s="75"/>
+      <c r="C15" s="5" t="s">
+        <v>42</v>
+      </c>
+      <c r="D15" s="88">
+        <v>-0.1</v>
+      </c>
+      <c r="E15" s="89">
+        <v>-0.35</v>
+      </c>
+      <c r="F15" s="90">
+        <v>0.5</v>
+      </c>
+      <c r="G15" s="17">
+        <v>0.12</v>
+      </c>
+      <c r="H15" s="17">
+        <v>0.22</v>
+      </c>
+      <c r="I15" s="62">
+        <v>0.38</v>
+      </c>
+      <c r="J15" s="94">
+        <v>0.38</v>
+      </c>
+    </row>
+    <row r="16" spans="1:10" x14ac:dyDescent="0.35">
+      <c r="A16" s="1"/>
+      <c r="B16" s="74" t="s">
+        <v>26</v>
+      </c>
+      <c r="C16" s="1" t="s">
+        <v>49</v>
+      </c>
+      <c r="D16" s="41">
+        <v>-0.76</v>
+      </c>
+      <c r="E16" s="28">
+        <v>1.86</v>
+      </c>
+      <c r="F16" s="41">
+        <v>-0.79</v>
+      </c>
+      <c r="G16" s="41">
+        <v>-0.96</v>
+      </c>
+      <c r="H16" s="82">
+        <v>0.5</v>
+      </c>
+      <c r="I16" s="60">
+        <v>0.43</v>
+      </c>
+      <c r="J16" s="93">
+        <v>0.5</v>
+      </c>
+    </row>
+    <row r="17" spans="1:10" x14ac:dyDescent="0.35">
+      <c r="A17" s="1"/>
+      <c r="B17" s="76"/>
+      <c r="C17" s="1" t="s">
+        <v>50</v>
+      </c>
+      <c r="D17" s="41">
+        <v>-1.22</v>
+      </c>
+      <c r="E17" s="28">
+        <v>0.72</v>
+      </c>
+      <c r="F17" s="28">
+        <v>0.5</v>
+      </c>
+      <c r="G17" s="28">
+        <v>0.21</v>
+      </c>
+      <c r="H17" s="28">
+        <v>-0.26</v>
+      </c>
+      <c r="I17" s="60">
+        <v>0.41</v>
+      </c>
+      <c r="J17" s="72">
+        <v>0.45</v>
+      </c>
+    </row>
+    <row r="18" spans="1:10" ht="15" thickBot="1" x14ac:dyDescent="0.4">
+      <c r="A18" s="1"/>
+      <c r="B18" s="75"/>
+      <c r="C18" s="5" t="s">
+        <v>51</v>
+      </c>
+      <c r="D18" s="17">
+        <v>-7.0000000000000007E-2</v>
+      </c>
+      <c r="E18" s="17">
+        <v>-1.35</v>
+      </c>
+      <c r="F18" s="17">
+        <v>-0.28999999999999998</v>
+      </c>
+      <c r="G18" s="17">
+        <v>0.28000000000000003</v>
+      </c>
+      <c r="H18" s="17">
+        <v>0.92</v>
+      </c>
+      <c r="I18" s="62">
+        <v>0.36</v>
+      </c>
+      <c r="J18" s="95">
+        <v>0.39</v>
+      </c>
+    </row>
+    <row r="19" spans="1:10" x14ac:dyDescent="0.35">
+      <c r="A19" s="1"/>
+      <c r="B19" s="1"/>
+      <c r="C19" s="1" t="s">
+        <v>33</v>
+      </c>
+      <c r="D19" s="1"/>
+      <c r="E19" s="1"/>
+      <c r="F19" s="1"/>
+      <c r="G19" s="1"/>
+      <c r="H19" s="1"/>
+      <c r="I19" s="35"/>
+    </row>
+  </sheetData>
+  <mergeCells count="6">
+    <mergeCell ref="B3:B15"/>
+    <mergeCell ref="B16:B18"/>
+    <mergeCell ref="J1:J2"/>
+    <mergeCell ref="B1:B2"/>
     <mergeCell ref="C1:C2"/>
-    <mergeCell ref="B1:B2"/>
-    <mergeCell ref="D1:D2"/>
+    <mergeCell ref="D1:H1"/>
   </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup orientation="portrait" r:id="rId1"/>

--- a/persistenceModelSummaries.xlsx
+++ b/persistenceModelSummaries.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\nclancy1\Desktop\persistence\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{66655ECD-F00C-4B9E-A330-B7A190B095EC}" xr6:coauthVersionLast="36" xr6:coauthVersionMax="36" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{AC95432B-AD61-4D1B-B105-A178F2B905F7}" xr6:coauthVersionLast="36" xr6:coauthVersionMax="36" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="0" yWindow="0" windowWidth="28780" windowHeight="11880" activeTab="1" xr2:uid="{5449A4E9-FD86-4181-A72B-A8CD9429038C}"/>
   </bookViews>
@@ -26,7 +26,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="109" uniqueCount="53">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="135" uniqueCount="58">
   <si>
     <t>Basin</t>
   </si>
@@ -64,9 +64,6 @@
     <t>LOOCV</t>
   </si>
   <si>
-    <t>Intercept</t>
-  </si>
-  <si>
     <t>Green</t>
   </si>
   <si>
@@ -94,9 +91,6 @@
     <t>Only Significant</t>
   </si>
   <si>
-    <t>AIC</t>
-  </si>
-  <si>
     <t>0.26*</t>
   </si>
   <si>
@@ -185,6 +179,27 @@
   </si>
   <si>
     <t>Spatial Intercept RMSPE</t>
+  </si>
+  <si>
+    <t>Temp Only</t>
+  </si>
+  <si>
+    <t>Size</t>
+  </si>
+  <si>
+    <t>Size Only</t>
+  </si>
+  <si>
+    <t>Barrier Only</t>
+  </si>
+  <si>
+    <t>ReachL Only</t>
+  </si>
+  <si>
+    <t>Pisciv Only</t>
+  </si>
+  <si>
+    <t>0.14*</t>
   </si>
 </sst>
 </file>
@@ -234,18 +249,18 @@
     </font>
     <font>
       <b/>
-      <sz val="9"/>
+      <sz val="8"/>
       <name val="Arial"/>
       <family val="2"/>
     </font>
     <font>
       <b/>
       <sz val="8"/>
+      <color theme="1"/>
       <name val="Arial"/>
       <family val="2"/>
     </font>
     <font>
-      <b/>
       <sz val="8"/>
       <color theme="1"/>
       <name val="Arial"/>
@@ -272,7 +287,7 @@
       </patternFill>
     </fill>
   </fills>
-  <borders count="13">
+  <borders count="9">
     <border>
       <left/>
       <right/>
@@ -305,48 +320,6 @@
         <color indexed="64"/>
       </top>
       <bottom/>
-      <diagonal/>
-    </border>
-    <border>
-      <left/>
-      <right style="dotted">
-        <color indexed="64"/>
-      </right>
-      <top style="medium">
-        <color indexed="64"/>
-      </top>
-      <bottom/>
-      <diagonal/>
-    </border>
-    <border>
-      <left/>
-      <right style="dotted">
-        <color indexed="64"/>
-      </right>
-      <top/>
-      <bottom/>
-      <diagonal/>
-    </border>
-    <border>
-      <left/>
-      <right style="dotted">
-        <color indexed="64"/>
-      </right>
-      <top/>
-      <bottom style="thin">
-        <color indexed="64"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left/>
-      <right style="dotted">
-        <color indexed="64"/>
-      </right>
-      <top/>
-      <bottom style="medium">
-        <color indexed="64"/>
-      </bottom>
       <diagonal/>
     </border>
     <border>
@@ -414,12 +387,9 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="96">
+  <cellXfs count="79">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
-    <xf numFmtId="0" fontId="1" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
     <xf numFmtId="0" fontId="2" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
     <xf numFmtId="0" fontId="1" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="1" fillId="2" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
@@ -427,12 +397,6 @@
       <alignment horizontal="center"/>
     </xf>
     <xf numFmtId="0" fontId="2" fillId="2" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="2" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="2" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
     <xf numFmtId="0" fontId="3" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
     <xf numFmtId="2" fontId="3" fillId="2" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1"/>
     <xf numFmtId="2" fontId="1" fillId="2" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1"/>
@@ -440,20 +404,8 @@
     <xf numFmtId="0" fontId="1" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="1" fillId="2" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
     <xf numFmtId="0" fontId="1" fillId="2" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="2" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="1" fillId="2" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="3" fillId="2" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
@@ -469,9 +421,6 @@
     <xf numFmtId="0" fontId="1" fillId="2" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="4" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
     <xf numFmtId="0" fontId="1" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
@@ -481,67 +430,102 @@
     <xf numFmtId="0" fontId="3" fillId="2" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
     <xf numFmtId="2" fontId="3" fillId="2" borderId="2" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="5" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
-    <xf numFmtId="0" fontId="5" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="5" fillId="2" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="1" fillId="3" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="1" fillId="3" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="3" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="3" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="2" borderId="0" xfId="0" quotePrefix="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="3" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="right"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="right"/>
     </xf>
     <xf numFmtId="0" fontId="1" fillId="3" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
     <xf numFmtId="0" fontId="1" fillId="3" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
     <xf numFmtId="0" fontId="3" fillId="3" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
-    <xf numFmtId="0" fontId="5" fillId="3" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
-    <xf numFmtId="0" fontId="1" fillId="2" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="1" fillId="2" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="2" fontId="2" fillId="2" borderId="5" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="3" fillId="2" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="2" fontId="3" fillId="2" borderId="5" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="2" fontId="1" fillId="2" borderId="5" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="3" fillId="2" borderId="7" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="1" fillId="3" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="1" fillId="3" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="1" fillId="2" borderId="7" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="5" fillId="2" borderId="8" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="5" fillId="2" borderId="9" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="5" fillId="2" borderId="10" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="5" fillId="2" borderId="11" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="5" fillId="3" borderId="10" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="5" fillId="3" borderId="9" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="7" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="2" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="5" fillId="2" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="5" fillId="2" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="5" fillId="2" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="5" fillId="2" borderId="7" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="5" fillId="3" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="6" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="2" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="3" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="1" fillId="3" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="0" xfId="0" applyFill="1"/>
+    <xf numFmtId="0" fontId="3" fillId="2" borderId="0" xfId="0" quotePrefix="1" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="2" borderId="0" xfId="0" quotePrefix="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="2" fontId="1" fillId="2" borderId="3" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="2" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="2" fontId="3" fillId="2" borderId="3" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="2" fontId="1" fillId="2" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="2" fontId="1" fillId="2" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="2" fontId="3" fillId="2" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="2" borderId="0" xfId="0" quotePrefix="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="2" fontId="3" fillId="2" borderId="0" xfId="0" quotePrefix="1" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="2" fontId="1" fillId="2" borderId="2" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="2" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="2" fontId="3" fillId="2" borderId="2" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="2" fontId="0" fillId="2" borderId="0" xfId="0" applyNumberFormat="1" applyFill="1"/>
+    <xf numFmtId="0" fontId="1" fillId="2" borderId="8" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="8" xfId="0" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="1" fillId="2" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="6" fillId="2" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="1" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="1" fillId="3" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="1" fillId="3" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="1" fillId="2" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="1" fillId="3" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="2" borderId="0" xfId="0" applyFill="1"/>
+    <xf numFmtId="0" fontId="1" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="2" borderId="0" xfId="0" quotePrefix="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="2" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
     <xf numFmtId="0" fontId="1" fillId="2" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
@@ -554,57 +538,25 @@
     <xf numFmtId="0" fontId="1" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="3" fillId="2" borderId="0" xfId="0" quotePrefix="1" applyFont="1" applyFill="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="2" borderId="0" xfId="0" quotePrefix="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="2" fontId="1" fillId="2" borderId="3" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="2" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="2" fontId="3" fillId="2" borderId="3" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="2" fontId="1" fillId="2" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="2" fontId="1" fillId="2" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="2" fontId="3" fillId="2" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="2" borderId="0" xfId="0" quotePrefix="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="2" fontId="3" fillId="2" borderId="0" xfId="0" quotePrefix="1" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="2" fontId="1" fillId="2" borderId="2" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="2" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="2" fontId="3" fillId="2" borderId="2" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="7" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="8" fillId="2" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="7" fillId="2" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="2" fontId="0" fillId="2" borderId="0" xfId="0" applyNumberFormat="1" applyFill="1"/>
-    <xf numFmtId="0" fontId="1" fillId="2" borderId="12" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="0" fillId="2" borderId="12" xfId="0" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="4" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
+    <xf numFmtId="0" fontId="3" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="right"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="3" borderId="0" xfId="0" quotePrefix="1" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="right"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="3" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="right"/>
+    </xf>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
@@ -919,10 +871,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{EA6E7ADE-132E-4744-82A9-9CF107F05154}">
-  <dimension ref="B2:M21"/>
+  <dimension ref="B2:K30"/>
   <sheetViews>
-    <sheetView topLeftCell="A13" workbookViewId="0">
-      <selection activeCell="E21" sqref="E21"/>
+    <sheetView zoomScale="140" zoomScaleNormal="140" workbookViewId="0">
+      <selection activeCell="K13" sqref="K13"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="11.5" x14ac:dyDescent="0.25"/>
@@ -935,608 +887,674 @@
     <col min="8" max="8" width="6.26953125" style="1" bestFit="1" customWidth="1"/>
     <col min="9" max="9" width="6.81640625" style="1" bestFit="1" customWidth="1"/>
     <col min="10" max="10" width="5.6328125" style="1" bestFit="1" customWidth="1"/>
-    <col min="11" max="11" width="7.90625" style="1" bestFit="1" customWidth="1"/>
-    <col min="12" max="12" width="6.08984375" style="35" bestFit="1" customWidth="1"/>
-    <col min="13" max="13" width="5" style="35" bestFit="1" customWidth="1"/>
-    <col min="14" max="16384" width="8.7265625" style="1"/>
+    <col min="11" max="11" width="6.08984375" style="27" bestFit="1" customWidth="1"/>
+    <col min="12" max="16384" width="8.7265625" style="1"/>
   </cols>
   <sheetData>
-    <row r="2" spans="2:13" ht="14.5" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B2" s="8" t="s">
+    <row r="2" spans="2:11" ht="14.5" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="B2" s="66" t="s">
         <v>0</v>
       </c>
-      <c r="C2" s="8" t="s">
+      <c r="C2" s="66" t="s">
         <v>2</v>
       </c>
-      <c r="D2" s="8" t="s">
+      <c r="D2" s="66" t="s">
+        <v>13</v>
+      </c>
+      <c r="E2" s="66" t="s">
+        <v>4</v>
+      </c>
+      <c r="F2" s="76" t="s">
+        <v>17</v>
+      </c>
+      <c r="G2" s="76"/>
+      <c r="H2" s="76"/>
+      <c r="I2" s="76"/>
+      <c r="J2" s="76"/>
+      <c r="K2" s="37" t="s">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="3" spans="2:11" s="2" customFormat="1" ht="12" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="B3" s="67"/>
+      <c r="C3" s="67"/>
+      <c r="D3" s="67"/>
+      <c r="E3" s="67"/>
+      <c r="F3" s="6" t="s">
+        <v>6</v>
+      </c>
+      <c r="G3" s="6" t="s">
+        <v>52</v>
+      </c>
+      <c r="H3" s="6" t="s">
+        <v>8</v>
+      </c>
+      <c r="I3" s="6" t="s">
+        <v>9</v>
+      </c>
+      <c r="J3" s="6" t="s">
+        <v>10</v>
+      </c>
+      <c r="K3" s="38" t="s">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="4" spans="2:11" x14ac:dyDescent="0.25">
+      <c r="B4" s="59" t="s">
+        <v>1</v>
+      </c>
+      <c r="C4" s="13" t="s">
+        <v>16</v>
+      </c>
+      <c r="D4" s="13" t="s">
         <v>14</v>
       </c>
-      <c r="E2" s="8" t="s">
-        <v>4</v>
-      </c>
-      <c r="F2" s="2" t="s">
+      <c r="E4" s="22" t="s">
+        <v>19</v>
+      </c>
+      <c r="F4" s="14">
+        <v>-0.47</v>
+      </c>
+      <c r="G4" s="15">
+        <v>-0.31</v>
+      </c>
+      <c r="H4" s="13">
+        <v>0.04</v>
+      </c>
+      <c r="I4" s="15">
+        <v>0.2</v>
+      </c>
+      <c r="J4" s="14">
+        <v>0.31</v>
+      </c>
+      <c r="K4" s="32">
+        <v>0.27300000000000002</v>
+      </c>
+    </row>
+    <row r="5" spans="2:11" x14ac:dyDescent="0.25">
+      <c r="B5" s="60"/>
+      <c r="C5" s="39" t="s">
+        <v>16</v>
+      </c>
+      <c r="D5" s="39" t="s">
+        <v>14</v>
+      </c>
+      <c r="E5" s="40" t="s">
         <v>18</v>
       </c>
-      <c r="G2" s="2"/>
-      <c r="H2" s="2"/>
-      <c r="I2" s="2"/>
-      <c r="J2" s="2"/>
-      <c r="K2" s="2"/>
-      <c r="L2" s="65" t="s">
-        <v>11</v>
-      </c>
-      <c r="M2" s="67" t="s">
-        <v>22</v>
-      </c>
-    </row>
-    <row r="3" spans="2:13" s="3" customFormat="1" ht="12" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="B3" s="9"/>
-      <c r="C3" s="9"/>
-      <c r="D3" s="9"/>
-      <c r="E3" s="9"/>
-      <c r="F3" s="7" t="s">
-        <v>6</v>
-      </c>
-      <c r="G3" s="7" t="s">
-        <v>7</v>
-      </c>
-      <c r="H3" s="7" t="s">
-        <v>8</v>
-      </c>
-      <c r="I3" s="7" t="s">
-        <v>9</v>
-      </c>
-      <c r="J3" s="7" t="s">
-        <v>10</v>
-      </c>
-      <c r="K3" s="7" t="s">
-        <v>12</v>
-      </c>
-      <c r="L3" s="66" t="s">
-        <v>5</v>
-      </c>
-      <c r="M3" s="68"/>
-    </row>
-    <row r="4" spans="2:13" x14ac:dyDescent="0.25">
-      <c r="B4" s="15" t="s">
-        <v>1</v>
-      </c>
-      <c r="C4" s="20" t="s">
-        <v>17</v>
-      </c>
-      <c r="D4" s="20" t="s">
+      <c r="F5" s="39"/>
+      <c r="G5" s="39"/>
+      <c r="H5" s="39"/>
+      <c r="I5" s="39"/>
+      <c r="J5" s="39"/>
+      <c r="K5" s="36">
+        <v>0.25600000000000001</v>
+      </c>
+    </row>
+    <row r="6" spans="2:11" x14ac:dyDescent="0.25">
+      <c r="B6" s="60"/>
+      <c r="C6" s="10" t="s">
+        <v>16</v>
+      </c>
+      <c r="D6" s="10" t="s">
+        <v>14</v>
+      </c>
+      <c r="E6" s="21" t="s">
+        <v>20</v>
+      </c>
+      <c r="F6" s="16">
+        <v>-0.47</v>
+      </c>
+      <c r="G6" s="17">
+        <v>-0.3</v>
+      </c>
+      <c r="H6" s="10"/>
+      <c r="I6" s="17">
+        <v>0.2</v>
+      </c>
+      <c r="J6" s="17">
+        <v>0.31</v>
+      </c>
+      <c r="K6" s="33">
+        <v>0.27500000000000002</v>
+      </c>
+    </row>
+    <row r="7" spans="2:11" x14ac:dyDescent="0.25">
+      <c r="B7" s="60"/>
+      <c r="C7" s="3" t="s">
+        <v>16</v>
+      </c>
+      <c r="D7" s="3" t="s">
         <v>15</v>
       </c>
-      <c r="E4" s="29" t="s">
-        <v>20</v>
-      </c>
-      <c r="F4" s="21">
+      <c r="E7" s="11" t="s">
+        <v>19</v>
+      </c>
+      <c r="F7" s="18">
         <v>-0.47</v>
       </c>
-      <c r="G4" s="22">
-        <v>-0.31</v>
-      </c>
-      <c r="H4" s="20">
+      <c r="G7" s="20">
+        <v>-0.32</v>
+      </c>
+      <c r="H7" s="19">
         <v>0.04</v>
       </c>
-      <c r="I4" s="22">
-        <v>0.2</v>
-      </c>
-      <c r="J4" s="21">
+      <c r="I7" s="18">
+        <v>0.21</v>
+      </c>
+      <c r="J7" s="18">
         <v>0.31</v>
       </c>
-      <c r="K4" s="49">
-        <v>0.28000000000000003</v>
-      </c>
-      <c r="L4" s="59">
-        <v>0.27300000000000002</v>
-      </c>
-      <c r="M4" s="35">
-        <v>-793</v>
-      </c>
-    </row>
-    <row r="5" spans="2:13" x14ac:dyDescent="0.25">
-      <c r="B5" s="19"/>
-      <c r="C5" s="69" t="s">
-        <v>17</v>
-      </c>
-      <c r="D5" s="69" t="s">
-        <v>15</v>
-      </c>
-      <c r="E5" s="71" t="s">
+      <c r="K7" s="34">
+        <v>0.28699999999999998</v>
+      </c>
+    </row>
+    <row r="8" spans="2:11" x14ac:dyDescent="0.25">
+      <c r="B8" s="60"/>
+      <c r="C8" s="10" t="s">
+        <v>3</v>
+      </c>
+      <c r="D8" s="1" t="s">
+        <v>14</v>
+      </c>
+      <c r="E8" s="23" t="s">
         <v>19</v>
       </c>
-      <c r="F5" s="69"/>
-      <c r="G5" s="69"/>
-      <c r="H5" s="69"/>
-      <c r="I5" s="69"/>
-      <c r="J5" s="69"/>
-      <c r="K5" s="57">
-        <v>0.25</v>
-      </c>
-      <c r="L5" s="64">
-        <v>0.25600000000000001</v>
-      </c>
-      <c r="M5" s="48">
-        <v>-789</v>
-      </c>
-    </row>
-    <row r="6" spans="2:13" x14ac:dyDescent="0.25">
-      <c r="B6" s="19"/>
-      <c r="C6" s="13" t="s">
-        <v>17</v>
-      </c>
-      <c r="D6" s="13" t="s">
-        <v>15</v>
-      </c>
-      <c r="E6" s="28" t="s">
-        <v>21</v>
-      </c>
-      <c r="F6" s="23">
-        <v>-0.47</v>
-      </c>
-      <c r="G6" s="24">
-        <v>-0.3</v>
-      </c>
-      <c r="H6" s="13"/>
-      <c r="I6" s="24">
-        <v>0.2</v>
-      </c>
-      <c r="J6" s="24">
-        <v>0.31</v>
-      </c>
-      <c r="K6" s="51">
-        <v>0.28000000000000003</v>
-      </c>
-      <c r="L6" s="60">
-        <v>0.27500000000000002</v>
-      </c>
-      <c r="M6" s="35">
-        <v>-724</v>
-      </c>
-    </row>
-    <row r="7" spans="2:13" x14ac:dyDescent="0.25">
-      <c r="B7" s="19"/>
-      <c r="C7" s="4" t="s">
-        <v>17</v>
-      </c>
-      <c r="D7" s="4" t="s">
-        <v>16</v>
-      </c>
-      <c r="E7" s="14" t="s">
-        <v>20</v>
-      </c>
-      <c r="F7" s="25">
-        <v>-0.47</v>
-      </c>
-      <c r="G7" s="27">
-        <v>-0.32</v>
-      </c>
-      <c r="H7" s="26">
-        <v>0.04</v>
-      </c>
-      <c r="I7" s="25">
-        <v>0.21</v>
-      </c>
-      <c r="J7" s="25">
-        <v>0.31</v>
-      </c>
-      <c r="K7" s="52">
-        <v>0.28999999999999998</v>
-      </c>
-      <c r="L7" s="61">
-        <v>0.28699999999999998</v>
-      </c>
-      <c r="M7" s="36">
-        <v>-803</v>
-      </c>
-    </row>
-    <row r="8" spans="2:13" x14ac:dyDescent="0.25">
-      <c r="B8" s="19"/>
-      <c r="C8" s="13" t="s">
-        <v>3</v>
-      </c>
-      <c r="D8" s="1" t="s">
-        <v>15</v>
-      </c>
-      <c r="E8" s="31" t="s">
-        <v>20</v>
-      </c>
-      <c r="F8" s="10">
+      <c r="F8" s="7">
         <v>-0.39</v>
       </c>
-      <c r="G8" s="10">
+      <c r="G8" s="7">
         <v>-0.32</v>
       </c>
       <c r="H8" s="1">
         <v>7.0000000000000007E-2</v>
       </c>
-      <c r="I8" s="10">
+      <c r="I8" s="7">
         <v>0.19</v>
       </c>
       <c r="J8" s="1">
         <v>0.09</v>
       </c>
-      <c r="K8" s="53">
-        <v>0.3</v>
-      </c>
-      <c r="L8" s="60">
-        <v>0.30599999999999999</v>
-      </c>
-      <c r="M8" s="35">
-        <v>-1507</v>
-      </c>
-    </row>
-    <row r="9" spans="2:13" x14ac:dyDescent="0.25">
-      <c r="B9" s="19"/>
-      <c r="C9" s="69" t="s">
+      <c r="K8" s="33">
+        <v>0.30499999999999999</v>
+      </c>
+    </row>
+    <row r="9" spans="2:11" x14ac:dyDescent="0.25">
+      <c r="B9" s="60"/>
+      <c r="C9" s="10" t="s">
         <v>3</v>
       </c>
-      <c r="D9" s="45" t="s">
+      <c r="D9" s="1" t="s">
+        <v>14</v>
+      </c>
+      <c r="E9" s="5" t="s">
+        <v>51</v>
+      </c>
+      <c r="F9" s="7">
+        <v>-0.38</v>
+      </c>
+      <c r="G9" s="7"/>
+      <c r="I9" s="7"/>
+      <c r="K9" s="33">
+        <v>0.28899999999999998</v>
+      </c>
+    </row>
+    <row r="10" spans="2:11" x14ac:dyDescent="0.25">
+      <c r="B10" s="60"/>
+      <c r="C10" s="10" t="s">
+        <v>3</v>
+      </c>
+      <c r="D10" s="1" t="s">
+        <v>14</v>
+      </c>
+      <c r="E10" s="5" t="s">
+        <v>53</v>
+      </c>
+      <c r="F10" s="7"/>
+      <c r="G10" s="7">
+        <v>-0.24</v>
+      </c>
+      <c r="I10" s="7"/>
+      <c r="K10" s="33">
+        <v>0.28899999999999998</v>
+      </c>
+    </row>
+    <row r="11" spans="2:11" x14ac:dyDescent="0.25">
+      <c r="B11" s="60"/>
+      <c r="C11" s="10" t="s">
+        <v>3</v>
+      </c>
+      <c r="D11" s="1" t="s">
+        <v>14</v>
+      </c>
+      <c r="E11" s="5" t="s">
+        <v>54</v>
+      </c>
+      <c r="F11" s="7"/>
+      <c r="G11" s="7"/>
+      <c r="H11" s="7">
+        <v>-0.15</v>
+      </c>
+      <c r="I11" s="7"/>
+      <c r="K11" s="33">
+        <v>0.28599999999999998</v>
+      </c>
+    </row>
+    <row r="12" spans="2:11" x14ac:dyDescent="0.25">
+      <c r="B12" s="60"/>
+      <c r="C12" s="39" t="s">
+        <v>3</v>
+      </c>
+      <c r="D12" s="29" t="s">
+        <v>14</v>
+      </c>
+      <c r="E12" s="30" t="s">
+        <v>55</v>
+      </c>
+      <c r="F12" s="31"/>
+      <c r="G12" s="31"/>
+      <c r="H12" s="29"/>
+      <c r="I12" s="77" t="s">
+        <v>57</v>
+      </c>
+      <c r="J12" s="29"/>
+      <c r="K12" s="36">
+        <v>0.28100000000000003</v>
+      </c>
+    </row>
+    <row r="13" spans="2:11" x14ac:dyDescent="0.25">
+      <c r="B13" s="60"/>
+      <c r="C13" s="10" t="s">
+        <v>3</v>
+      </c>
+      <c r="D13" s="1" t="s">
+        <v>14</v>
+      </c>
+      <c r="E13" s="5" t="s">
+        <v>56</v>
+      </c>
+      <c r="F13" s="7"/>
+      <c r="G13" s="7"/>
+      <c r="I13" s="7"/>
+      <c r="J13" s="1">
+        <v>0.35</v>
+      </c>
+      <c r="K13" s="33">
+        <v>0.28699999999999998</v>
+      </c>
+    </row>
+    <row r="14" spans="2:11" x14ac:dyDescent="0.25">
+      <c r="B14" s="60"/>
+      <c r="C14" s="10" t="s">
+        <v>3</v>
+      </c>
+      <c r="D14" s="1" t="s">
+        <v>14</v>
+      </c>
+      <c r="E14" s="5" t="s">
+        <v>18</v>
+      </c>
+      <c r="K14" s="33">
+        <v>0.28399999999999997</v>
+      </c>
+    </row>
+    <row r="15" spans="2:11" x14ac:dyDescent="0.25">
+      <c r="B15" s="60"/>
+      <c r="C15" s="10" t="s">
+        <v>3</v>
+      </c>
+      <c r="D15" s="1" t="s">
+        <v>14</v>
+      </c>
+      <c r="E15" s="23" t="s">
+        <v>20</v>
+      </c>
+      <c r="F15" s="7">
+        <v>-0.39</v>
+      </c>
+      <c r="G15" s="7">
+        <v>-0.24</v>
+      </c>
+      <c r="I15" s="8">
+        <v>0.19</v>
+      </c>
+      <c r="K15" s="33">
+        <v>0.28699999999999998</v>
+      </c>
+    </row>
+    <row r="16" spans="2:11" ht="12" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="B16" s="61"/>
+      <c r="C16" s="4" t="s">
+        <v>3</v>
+      </c>
+      <c r="D16" s="4" t="s">
         <v>15</v>
       </c>
-      <c r="E9" s="70" t="s">
+      <c r="E16" s="24" t="s">
         <v>19</v>
       </c>
-      <c r="F9" s="45"/>
-      <c r="G9" s="45"/>
-      <c r="H9" s="45"/>
-      <c r="I9" s="45"/>
-      <c r="J9" s="45"/>
-      <c r="K9" s="57">
-        <v>0.33</v>
-      </c>
-      <c r="L9" s="64">
-        <v>0.28599999999999998</v>
-      </c>
-      <c r="M9" s="48">
-        <v>-1433</v>
-      </c>
-    </row>
-    <row r="10" spans="2:13" x14ac:dyDescent="0.25">
-      <c r="B10" s="19"/>
-      <c r="C10" s="13" t="s">
+      <c r="F16" s="26">
+        <v>-0.4</v>
+      </c>
+      <c r="G16" s="25">
+        <v>-0.33</v>
+      </c>
+      <c r="H16" s="4">
+        <v>7.0000000000000007E-2</v>
+      </c>
+      <c r="I16" s="25">
+        <v>0.19</v>
+      </c>
+      <c r="J16" s="4">
+        <v>0.11</v>
+      </c>
+      <c r="K16" s="35">
+        <v>0.29799999999999999</v>
+      </c>
+    </row>
+    <row r="17" spans="2:11" x14ac:dyDescent="0.25">
+      <c r="B17" s="60" t="s">
+        <v>12</v>
+      </c>
+      <c r="C17" s="29" t="s">
+        <v>16</v>
+      </c>
+      <c r="D17" s="39" t="s">
+        <v>14</v>
+      </c>
+      <c r="E17" s="40" t="s">
+        <v>19</v>
+      </c>
+      <c r="F17" s="39">
+        <v>-0.19</v>
+      </c>
+      <c r="G17" s="39">
+        <v>0.12</v>
+      </c>
+      <c r="H17" s="78" t="s">
+        <v>21</v>
+      </c>
+      <c r="I17" s="39">
+        <v>-0.14000000000000001</v>
+      </c>
+      <c r="J17" s="39">
+        <v>0.05</v>
+      </c>
+      <c r="K17" s="36">
+        <v>0.248</v>
+      </c>
+    </row>
+    <row r="18" spans="2:11" ht="14.5" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="B18" s="62"/>
+      <c r="C18" s="1" t="s">
+        <v>16</v>
+      </c>
+      <c r="D18" s="10" t="s">
+        <v>14</v>
+      </c>
+      <c r="E18" s="21" t="s">
+        <v>18</v>
+      </c>
+      <c r="F18" s="63" t="s">
+        <v>22</v>
+      </c>
+      <c r="G18" s="64"/>
+      <c r="H18" s="64"/>
+      <c r="I18" s="64"/>
+      <c r="J18" s="64"/>
+      <c r="K18" s="64"/>
+    </row>
+    <row r="19" spans="2:11" ht="14.5" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="B19" s="62"/>
+      <c r="C19" s="1" t="s">
+        <v>16</v>
+      </c>
+      <c r="D19" s="10" t="s">
+        <v>14</v>
+      </c>
+      <c r="E19" s="21" t="s">
+        <v>20</v>
+      </c>
+      <c r="F19" s="63" t="s">
+        <v>22</v>
+      </c>
+      <c r="G19" s="64"/>
+      <c r="H19" s="64"/>
+      <c r="I19" s="64"/>
+      <c r="J19" s="64"/>
+      <c r="K19" s="64"/>
+    </row>
+    <row r="20" spans="2:11" ht="14.5" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="B20" s="62"/>
+      <c r="C20" s="1" t="s">
+        <v>16</v>
+      </c>
+      <c r="D20" s="1" t="s">
+        <v>15</v>
+      </c>
+      <c r="E20" s="1" t="s">
+        <v>18</v>
+      </c>
+      <c r="F20" s="10"/>
+      <c r="G20" s="10"/>
+      <c r="H20" s="10"/>
+      <c r="I20" s="10"/>
+      <c r="J20" s="10"/>
+      <c r="K20" s="33">
+        <v>0.247</v>
+      </c>
+    </row>
+    <row r="21" spans="2:11" ht="14.5" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="B21" s="62"/>
+      <c r="C21" s="3" t="s">
+        <v>16</v>
+      </c>
+      <c r="D21" s="3" t="s">
+        <v>15</v>
+      </c>
+      <c r="E21" s="11" t="s">
+        <v>19</v>
+      </c>
+      <c r="F21" s="3">
+        <v>-0.19</v>
+      </c>
+      <c r="G21" s="3">
+        <v>0.12</v>
+      </c>
+      <c r="H21" s="75" t="s">
+        <v>21</v>
+      </c>
+      <c r="I21" s="3">
+        <v>-0.14000000000000001</v>
+      </c>
+      <c r="J21" s="3">
+        <v>0.05</v>
+      </c>
+      <c r="K21" s="34">
+        <v>0.248</v>
+      </c>
+    </row>
+    <row r="22" spans="2:11" ht="14.5" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="B22" s="62"/>
+      <c r="C22" s="1" t="s">
         <v>3</v>
       </c>
-      <c r="D10" s="1" t="s">
+      <c r="D22" s="1" t="s">
+        <v>14</v>
+      </c>
+      <c r="E22" s="5" t="s">
+        <v>19</v>
+      </c>
+      <c r="F22" s="9">
+        <v>-0.09</v>
+      </c>
+      <c r="G22" s="74">
+        <v>-0.28999999999999998</v>
+      </c>
+      <c r="H22" s="1">
+        <v>0.05</v>
+      </c>
+      <c r="I22" s="1">
+        <v>0.17</v>
+      </c>
+      <c r="J22" s="1">
+        <v>-0.05</v>
+      </c>
+      <c r="K22" s="33">
+        <v>0.316</v>
+      </c>
+    </row>
+    <row r="23" spans="2:11" ht="14.5" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="B23" s="62"/>
+      <c r="C23" s="1" t="s">
+        <v>3</v>
+      </c>
+      <c r="D23" s="1" t="s">
+        <v>14</v>
+      </c>
+      <c r="E23" s="5" t="s">
+        <v>51</v>
+      </c>
+      <c r="F23" s="1">
+        <v>-0.15</v>
+      </c>
+      <c r="K23" s="33">
+        <v>0.32500000000000001</v>
+      </c>
+    </row>
+    <row r="24" spans="2:11" ht="14.5" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="B24" s="62"/>
+      <c r="C24" s="29" t="s">
+        <v>3</v>
+      </c>
+      <c r="D24" s="29" t="s">
+        <v>14</v>
+      </c>
+      <c r="E24" s="30" t="s">
+        <v>53</v>
+      </c>
+      <c r="F24" s="29"/>
+      <c r="G24" s="31">
+        <v>-0.28999999999999998</v>
+      </c>
+      <c r="H24" s="29"/>
+      <c r="I24" s="29"/>
+      <c r="J24" s="29"/>
+      <c r="K24" s="36">
+        <v>0.30299999999999999</v>
+      </c>
+    </row>
+    <row r="25" spans="2:11" ht="14.5" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="B25" s="62"/>
+      <c r="C25" s="1" t="s">
+        <v>3</v>
+      </c>
+      <c r="D25" s="1" t="s">
+        <v>14</v>
+      </c>
+      <c r="E25" s="5" t="s">
+        <v>54</v>
+      </c>
+      <c r="H25" s="1">
+        <v>-0.02</v>
+      </c>
+      <c r="K25" s="33">
+        <v>0.32800000000000001</v>
+      </c>
+    </row>
+    <row r="26" spans="2:11" ht="14.5" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="B26" s="62"/>
+      <c r="C26" s="1" t="s">
+        <v>3</v>
+      </c>
+      <c r="D26" s="1" t="s">
+        <v>14</v>
+      </c>
+      <c r="E26" s="5" t="s">
+        <v>55</v>
+      </c>
+      <c r="I26" s="1">
+        <v>-0.02</v>
+      </c>
+      <c r="K26" s="33">
+        <v>0.32800000000000001</v>
+      </c>
+    </row>
+    <row r="27" spans="2:11" ht="14.5" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="B27" s="62"/>
+      <c r="C27" s="1" t="s">
+        <v>3</v>
+      </c>
+      <c r="D27" s="1" t="s">
+        <v>14</v>
+      </c>
+      <c r="E27" s="5" t="s">
+        <v>56</v>
+      </c>
+      <c r="J27" s="1">
+        <v>-0.18</v>
+      </c>
+      <c r="K27" s="33">
+        <v>0.32400000000000001</v>
+      </c>
+    </row>
+    <row r="28" spans="2:11" ht="14.5" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="B28" s="62"/>
+      <c r="C28" s="1" t="s">
+        <v>3</v>
+      </c>
+      <c r="D28" s="1" t="s">
+        <v>14</v>
+      </c>
+      <c r="E28" s="5" t="s">
+        <v>18</v>
+      </c>
+      <c r="K28" s="33">
+        <v>0.316</v>
+      </c>
+    </row>
+    <row r="29" spans="2:11" ht="15" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="B29" s="61"/>
+      <c r="C29" s="4" t="s">
+        <v>3</v>
+      </c>
+      <c r="D29" s="4" t="s">
         <v>15</v>
       </c>
-      <c r="E10" s="31" t="s">
-        <v>21</v>
-      </c>
-      <c r="F10" s="10">
-        <v>-0.39</v>
-      </c>
-      <c r="G10" s="10">
-        <v>-0.24</v>
-      </c>
-      <c r="I10" s="11">
-        <v>0.2</v>
-      </c>
-      <c r="K10" s="54">
-        <v>0.3</v>
-      </c>
-      <c r="L10" s="60">
-        <v>0.28699999999999998</v>
-      </c>
-      <c r="M10" s="35">
-        <v>-1477</v>
-      </c>
-    </row>
-    <row r="11" spans="2:13" ht="12" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="B11" s="18"/>
-      <c r="C11" s="5" t="s">
-        <v>3</v>
-      </c>
-      <c r="D11" s="5" t="s">
-        <v>16</v>
-      </c>
-      <c r="E11" s="32" t="s">
-        <v>20</v>
-      </c>
-      <c r="F11" s="34">
-        <v>-0.4</v>
-      </c>
-      <c r="G11" s="33">
-        <v>-0.33</v>
-      </c>
-      <c r="H11" s="5">
-        <v>7.0000000000000007E-2</v>
-      </c>
-      <c r="I11" s="33">
-        <v>0.19</v>
-      </c>
-      <c r="J11" s="5">
-        <v>0.11</v>
-      </c>
-      <c r="K11" s="55">
-        <v>0.3</v>
-      </c>
-      <c r="L11" s="62">
-        <v>0.29799999999999999</v>
-      </c>
-      <c r="M11" s="37">
-        <v>-1507</v>
-      </c>
-    </row>
-    <row r="12" spans="2:13" x14ac:dyDescent="0.25">
-      <c r="B12" s="19" t="s">
-        <v>13</v>
-      </c>
-      <c r="C12" s="1" t="s">
-        <v>17</v>
-      </c>
-      <c r="D12" s="13" t="s">
-        <v>15</v>
-      </c>
-      <c r="E12" s="28" t="s">
-        <v>20</v>
-      </c>
-      <c r="F12" s="13">
-        <v>-0.19</v>
-      </c>
-      <c r="G12" s="13">
-        <v>0.12</v>
-      </c>
-      <c r="H12" s="44" t="s">
-        <v>23</v>
-      </c>
-      <c r="I12" s="13">
-        <v>-0.14000000000000001</v>
-      </c>
-      <c r="J12" s="13">
+      <c r="E29" s="12" t="s">
+        <v>19</v>
+      </c>
+      <c r="F29" s="4">
+        <v>-0.11</v>
+      </c>
+      <c r="G29" s="4">
+        <v>-0.32</v>
+      </c>
+      <c r="H29" s="4">
         <v>0.05</v>
       </c>
-      <c r="K12" s="50">
-        <v>0.03</v>
-      </c>
-      <c r="L12" s="60">
-        <v>0.248</v>
-      </c>
-      <c r="M12" s="35">
-        <v>-82</v>
-      </c>
-    </row>
-    <row r="13" spans="2:13" ht="14.5" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="B13" s="16"/>
-      <c r="C13" s="1" t="s">
-        <v>17</v>
-      </c>
-      <c r="D13" s="13" t="s">
-        <v>15</v>
-      </c>
-      <c r="E13" s="28" t="s">
-        <v>19</v>
-      </c>
-      <c r="F13" s="42" t="s">
-        <v>24</v>
-      </c>
-      <c r="G13" s="30"/>
-      <c r="H13" s="30"/>
-      <c r="I13" s="30"/>
-      <c r="J13" s="30"/>
-      <c r="K13" s="30"/>
-      <c r="L13" s="30"/>
-      <c r="M13" s="30"/>
-    </row>
-    <row r="14" spans="2:13" ht="14.5" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="B14" s="16"/>
-      <c r="C14" s="1" t="s">
-        <v>17</v>
-      </c>
-      <c r="D14" s="13" t="s">
-        <v>15</v>
-      </c>
-      <c r="E14" s="28" t="s">
-        <v>21</v>
-      </c>
-      <c r="F14" s="42" t="s">
-        <v>24</v>
-      </c>
-      <c r="G14" s="30"/>
-      <c r="H14" s="30"/>
-      <c r="I14" s="30"/>
-      <c r="J14" s="30"/>
-      <c r="K14" s="30"/>
-      <c r="L14" s="30"/>
-      <c r="M14" s="30"/>
-    </row>
-    <row r="15" spans="2:13" ht="14.5" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B15" s="16"/>
-      <c r="C15" s="1" t="s">
-        <v>17</v>
-      </c>
-      <c r="D15" s="1" t="s">
-        <v>16</v>
-      </c>
-      <c r="E15" s="1" t="s">
-        <v>19</v>
-      </c>
-      <c r="F15" s="13"/>
-      <c r="G15" s="13"/>
-      <c r="H15" s="13"/>
-      <c r="I15" s="13"/>
-      <c r="J15" s="13"/>
-      <c r="K15" s="50">
-        <v>0.03</v>
-      </c>
-      <c r="L15" s="60">
-        <v>0.247</v>
-      </c>
-      <c r="M15" s="35">
-        <v>-48</v>
-      </c>
-    </row>
-    <row r="16" spans="2:13" ht="14.5" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B16" s="16"/>
-      <c r="C16" s="38" t="s">
-        <v>17</v>
-      </c>
-      <c r="D16" s="38" t="s">
-        <v>16</v>
-      </c>
-      <c r="E16" s="39" t="s">
-        <v>20</v>
-      </c>
-      <c r="F16" s="38">
-        <v>-0.19</v>
-      </c>
-      <c r="G16" s="38">
-        <v>0.12</v>
-      </c>
-      <c r="H16" s="43" t="s">
-        <v>23</v>
-      </c>
-      <c r="I16" s="38">
-        <v>-0.14000000000000001</v>
-      </c>
-      <c r="J16" s="38">
-        <v>0.05</v>
-      </c>
-      <c r="K16" s="56">
-        <v>0.03</v>
-      </c>
-      <c r="L16" s="63">
-        <v>0.248</v>
-      </c>
-      <c r="M16" s="40">
-        <v>-88</v>
-      </c>
-    </row>
-    <row r="17" spans="2:13" ht="14.5" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B17" s="16"/>
-      <c r="C17" s="1" t="s">
-        <v>3</v>
-      </c>
-      <c r="D17" s="1" t="s">
-        <v>15</v>
-      </c>
-      <c r="E17" s="6" t="s">
-        <v>20</v>
-      </c>
-      <c r="F17" s="12">
-        <v>-0.29199999999999998</v>
-      </c>
-      <c r="G17" s="10">
-        <v>-0.47</v>
-      </c>
-      <c r="H17" s="1">
-        <v>0.25</v>
-      </c>
-      <c r="I17" s="1">
-        <v>0.08</v>
-      </c>
-      <c r="J17" s="1">
-        <v>0.12</v>
-      </c>
-      <c r="K17" s="50">
-        <v>-5.0000000000000001E-3</v>
-      </c>
-      <c r="L17" s="60">
-        <v>0.252</v>
-      </c>
-      <c r="M17" s="35">
-        <v>-195</v>
-      </c>
-    </row>
-    <row r="18" spans="2:13" ht="14.5" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B18" s="16"/>
-      <c r="C18" s="1" t="s">
-        <v>3</v>
-      </c>
-      <c r="D18" s="1" t="s">
-        <v>15</v>
-      </c>
-      <c r="E18" s="6" t="s">
-        <v>19</v>
-      </c>
-      <c r="K18" s="50">
-        <v>0.06</v>
-      </c>
-      <c r="L18" s="60">
-        <v>0.29099999999999998</v>
-      </c>
-      <c r="M18" s="35">
-        <v>-164</v>
-      </c>
-    </row>
-    <row r="19" spans="2:13" ht="14.5" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B19" s="16"/>
-      <c r="C19" s="45" t="s">
-        <v>3</v>
-      </c>
-      <c r="D19" s="45" t="s">
-        <v>15</v>
-      </c>
-      <c r="E19" s="46" t="s">
-        <v>21</v>
-      </c>
-      <c r="F19" s="45"/>
-      <c r="G19" s="47">
-        <v>-0.38</v>
-      </c>
-      <c r="H19" s="45"/>
-      <c r="I19" s="45"/>
-      <c r="J19" s="45"/>
-      <c r="K19" s="57">
-        <v>4.0000000000000001E-3</v>
-      </c>
-      <c r="L19" s="64">
-        <v>0.248</v>
-      </c>
-      <c r="M19" s="48">
-        <v>-162</v>
-      </c>
-    </row>
-    <row r="20" spans="2:13" ht="15" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="B20" s="18"/>
-      <c r="C20" s="5" t="s">
-        <v>3</v>
-      </c>
-      <c r="D20" s="5" t="s">
-        <v>16</v>
-      </c>
-      <c r="E20" s="17" t="s">
-        <v>20</v>
-      </c>
-      <c r="F20" s="5">
-        <v>-0.28999999999999998</v>
-      </c>
-      <c r="G20" s="33">
-        <v>-0.47</v>
-      </c>
-      <c r="H20" s="5">
-        <v>0.25</v>
-      </c>
-      <c r="I20" s="5">
-        <v>0.08</v>
-      </c>
-      <c r="J20" s="5">
-        <v>0.12</v>
-      </c>
-      <c r="K20" s="58">
-        <v>-5.0000000000000001E-3</v>
-      </c>
-      <c r="L20" s="62">
-        <v>0.252</v>
-      </c>
-      <c r="M20" s="37">
-        <v>-201</v>
-      </c>
-    </row>
-    <row r="21" spans="2:13" x14ac:dyDescent="0.25">
-      <c r="E21" s="1" t="s">
-        <v>33</v>
+      <c r="I29" s="4">
+        <v>0.14000000000000001</v>
+      </c>
+      <c r="J29" s="4">
+        <v>-0.04</v>
+      </c>
+      <c r="K29" s="35">
+        <v>0.29599999999999999</v>
+      </c>
+    </row>
+    <row r="30" spans="2:11" x14ac:dyDescent="0.25">
+      <c r="E30" s="1" t="s">
+        <v>31</v>
       </c>
     </row>
   </sheetData>
-  <mergeCells count="10">
-    <mergeCell ref="B4:B11"/>
-    <mergeCell ref="B12:B20"/>
-    <mergeCell ref="M2:M3"/>
-    <mergeCell ref="F13:M13"/>
-    <mergeCell ref="F14:M14"/>
-    <mergeCell ref="F2:K2"/>
+  <mergeCells count="9">
+    <mergeCell ref="B4:B16"/>
+    <mergeCell ref="B17:B29"/>
+    <mergeCell ref="F18:K18"/>
+    <mergeCell ref="F19:K19"/>
+    <mergeCell ref="F2:J2"/>
     <mergeCell ref="B2:B3"/>
     <mergeCell ref="D2:D3"/>
     <mergeCell ref="C2:C3"/>
@@ -1557,391 +1575,391 @@
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
   <cols>
-    <col min="1" max="2" width="8.7265625" style="72"/>
-    <col min="3" max="3" width="16.26953125" style="72" bestFit="1" customWidth="1"/>
-    <col min="4" max="8" width="8.7265625" style="72"/>
-    <col min="9" max="9" width="6.6328125" style="72" customWidth="1"/>
-    <col min="10" max="16384" width="8.7265625" style="72"/>
+    <col min="1" max="2" width="8.7265625" style="41"/>
+    <col min="3" max="3" width="16.26953125" style="41" bestFit="1" customWidth="1"/>
+    <col min="4" max="8" width="8.7265625" style="41"/>
+    <col min="9" max="9" width="6.6328125" style="41" customWidth="1"/>
+    <col min="10" max="16384" width="8.7265625" style="41"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:10" ht="20.5" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A1" s="1"/>
-      <c r="B1" s="8" t="s">
+      <c r="B1" s="66" t="s">
         <v>0</v>
       </c>
-      <c r="C1" s="8" t="s">
-        <v>27</v>
-      </c>
-      <c r="D1" s="2" t="s">
-        <v>18</v>
-      </c>
-      <c r="E1" s="2"/>
-      <c r="F1" s="2"/>
-      <c r="G1" s="2"/>
-      <c r="H1" s="2"/>
-      <c r="I1" s="65" t="s">
+      <c r="C1" s="66" t="s">
+        <v>25</v>
+      </c>
+      <c r="D1" s="65" t="s">
+        <v>17</v>
+      </c>
+      <c r="E1" s="65"/>
+      <c r="F1" s="65"/>
+      <c r="G1" s="65"/>
+      <c r="H1" s="65"/>
+      <c r="I1" s="37" t="s">
         <v>11</v>
       </c>
-      <c r="J1" s="91" t="s">
-        <v>52</v>
+      <c r="J1" s="72" t="s">
+        <v>50</v>
       </c>
     </row>
     <row r="2" spans="1:10" ht="19" customHeight="1" thickBot="1" x14ac:dyDescent="0.4">
-      <c r="A2" s="3"/>
-      <c r="B2" s="9"/>
-      <c r="C2" s="9"/>
-      <c r="D2" s="7" t="s">
+      <c r="A2" s="2"/>
+      <c r="B2" s="67"/>
+      <c r="C2" s="67"/>
+      <c r="D2" s="6" t="s">
         <v>6</v>
       </c>
-      <c r="E2" s="7" t="s">
+      <c r="E2" s="6" t="s">
         <v>7</v>
       </c>
-      <c r="F2" s="7" t="s">
+      <c r="F2" s="6" t="s">
         <v>8</v>
       </c>
-      <c r="G2" s="7" t="s">
+      <c r="G2" s="6" t="s">
         <v>9</v>
       </c>
-      <c r="H2" s="7" t="s">
+      <c r="H2" s="6" t="s">
         <v>10</v>
       </c>
-      <c r="I2" s="66" t="s">
+      <c r="I2" s="38" t="s">
         <v>5</v>
       </c>
-      <c r="J2" s="92"/>
+      <c r="J2" s="73"/>
     </row>
     <row r="3" spans="1:10" x14ac:dyDescent="0.35">
       <c r="A3" s="1"/>
-      <c r="B3" s="73" t="s">
-        <v>25</v>
-      </c>
-      <c r="C3" s="20" t="s">
-        <v>28</v>
-      </c>
-      <c r="D3" s="29">
+      <c r="B3" s="68" t="s">
+        <v>23</v>
+      </c>
+      <c r="C3" s="13" t="s">
+        <v>26</v>
+      </c>
+      <c r="D3" s="22">
         <v>-0.12</v>
       </c>
-      <c r="E3" s="79">
+      <c r="E3" s="44">
         <v>-0.1</v>
       </c>
-      <c r="F3" s="80">
+      <c r="F3" s="45">
         <v>0.92</v>
       </c>
-      <c r="G3" s="81">
+      <c r="G3" s="46">
         <v>1.1000000000000001</v>
       </c>
-      <c r="H3" s="29">
+      <c r="H3" s="22">
         <v>0.12</v>
       </c>
-      <c r="I3" s="59">
+      <c r="I3" s="32">
         <v>0.42</v>
       </c>
-      <c r="J3" s="72">
+      <c r="J3" s="41">
         <v>0.34</v>
       </c>
     </row>
     <row r="4" spans="1:10" x14ac:dyDescent="0.35">
       <c r="A4" s="1"/>
-      <c r="B4" s="74"/>
-      <c r="C4" s="13" t="s">
-        <v>29</v>
-      </c>
-      <c r="D4" s="28">
+      <c r="B4" s="69"/>
+      <c r="C4" s="10" t="s">
+        <v>27</v>
+      </c>
+      <c r="D4" s="21">
         <v>-9.67</v>
       </c>
-      <c r="E4" s="82">
+      <c r="E4" s="47">
         <v>31.8</v>
       </c>
-      <c r="F4" s="28">
+      <c r="F4" s="21">
         <v>-4.1100000000000003</v>
       </c>
-      <c r="G4" s="28">
+      <c r="G4" s="21">
         <v>-4.71</v>
       </c>
-      <c r="H4" s="28">
+      <c r="H4" s="21">
         <v>3.59</v>
       </c>
-      <c r="I4" s="60">
+      <c r="I4" s="33">
         <v>0.28000000000000003</v>
       </c>
-      <c r="J4" s="72">
+      <c r="J4" s="41">
         <v>0.33</v>
       </c>
     </row>
     <row r="5" spans="1:10" x14ac:dyDescent="0.35">
       <c r="A5" s="1"/>
-      <c r="B5" s="74"/>
-      <c r="C5" s="13" t="s">
-        <v>31</v>
-      </c>
-      <c r="D5" s="83">
+      <c r="B5" s="69"/>
+      <c r="C5" s="10" t="s">
+        <v>29</v>
+      </c>
+      <c r="D5" s="48">
         <v>0.1</v>
       </c>
-      <c r="E5" s="77" t="s">
-        <v>32</v>
-      </c>
-      <c r="F5" s="6">
+      <c r="E5" s="42" t="s">
+        <v>30</v>
+      </c>
+      <c r="F5" s="5">
         <v>0.06</v>
       </c>
-      <c r="G5" s="84">
+      <c r="G5" s="49">
         <v>0.57999999999999996</v>
       </c>
-      <c r="H5" s="6">
+      <c r="H5" s="5">
         <v>0.02</v>
       </c>
-      <c r="I5" s="60">
+      <c r="I5" s="33">
         <v>0.47</v>
       </c>
-      <c r="J5" s="72">
+      <c r="J5" s="41">
         <v>0.42</v>
       </c>
     </row>
     <row r="6" spans="1:10" x14ac:dyDescent="0.35">
       <c r="A6" s="1"/>
-      <c r="B6" s="74"/>
-      <c r="C6" s="13" t="s">
-        <v>34</v>
-      </c>
-      <c r="D6" s="6">
+      <c r="B6" s="69"/>
+      <c r="C6" s="10" t="s">
+        <v>32</v>
+      </c>
+      <c r="D6" s="5">
         <v>0.51</v>
       </c>
-      <c r="E6" s="83">
+      <c r="E6" s="48">
         <v>-0.6</v>
       </c>
-      <c r="F6" s="6">
+      <c r="F6" s="5">
         <v>-0.3</v>
       </c>
-      <c r="G6" s="84">
+      <c r="G6" s="49">
         <v>0.92</v>
       </c>
-      <c r="H6" s="6">
+      <c r="H6" s="5">
         <v>-0.33</v>
       </c>
-      <c r="I6" s="60">
+      <c r="I6" s="33">
         <v>0.45</v>
       </c>
-      <c r="J6" s="72">
+      <c r="J6" s="41">
         <v>0.42</v>
       </c>
     </row>
     <row r="7" spans="1:10" x14ac:dyDescent="0.35">
       <c r="A7" s="1"/>
-      <c r="B7" s="74"/>
-      <c r="C7" s="13" t="s">
-        <v>30</v>
-      </c>
-      <c r="D7" s="41">
+      <c r="B7" s="69"/>
+      <c r="C7" s="10" t="s">
+        <v>28</v>
+      </c>
+      <c r="D7" s="28">
         <v>0.65</v>
       </c>
-      <c r="E7" s="82">
+      <c r="E7" s="47">
         <v>0.62</v>
       </c>
-      <c r="F7" s="41">
+      <c r="F7" s="28">
         <v>-0.97</v>
       </c>
-      <c r="G7" s="82">
+      <c r="G7" s="47">
         <v>0.33</v>
       </c>
-      <c r="H7" s="82">
+      <c r="H7" s="47">
         <v>-0.4</v>
       </c>
-      <c r="I7" s="60">
+      <c r="I7" s="33">
         <v>0.33</v>
       </c>
-      <c r="J7" s="72">
+      <c r="J7" s="41">
         <v>0.35</v>
       </c>
     </row>
     <row r="8" spans="1:10" x14ac:dyDescent="0.35">
       <c r="A8" s="1"/>
-      <c r="B8" s="74"/>
-      <c r="C8" s="13" t="s">
-        <v>35</v>
-      </c>
-      <c r="D8" s="28">
+      <c r="B8" s="69"/>
+      <c r="C8" s="10" t="s">
+        <v>33</v>
+      </c>
+      <c r="D8" s="21">
         <v>0.42</v>
       </c>
-      <c r="E8" s="82">
+      <c r="E8" s="47">
         <v>-3.7</v>
       </c>
-      <c r="F8" s="82">
+      <c r="F8" s="47">
         <v>0.2</v>
       </c>
-      <c r="G8" s="82">
+      <c r="G8" s="47">
         <v>-0.33</v>
       </c>
-      <c r="H8" s="85">
+      <c r="H8" s="50">
         <v>0.04</v>
       </c>
-      <c r="I8" s="60">
+      <c r="I8" s="33">
         <v>0.46</v>
       </c>
-      <c r="J8" s="93">
+      <c r="J8" s="56">
         <v>0.5</v>
       </c>
     </row>
     <row r="9" spans="1:10" x14ac:dyDescent="0.35">
       <c r="A9" s="1"/>
-      <c r="B9" s="74"/>
-      <c r="C9" s="13" t="s">
-        <v>36</v>
-      </c>
-      <c r="D9" s="41">
+      <c r="B9" s="69"/>
+      <c r="C9" s="10" t="s">
+        <v>34</v>
+      </c>
+      <c r="D9" s="28">
         <v>-0.3</v>
       </c>
-      <c r="E9" s="85">
+      <c r="E9" s="50">
         <v>-0.5</v>
       </c>
-      <c r="F9" s="28">
+      <c r="F9" s="21">
         <v>0.19</v>
       </c>
-      <c r="G9" s="82">
+      <c r="G9" s="47">
         <v>0.05</v>
       </c>
-      <c r="H9" s="82">
+      <c r="H9" s="47">
         <v>-0.13</v>
       </c>
-      <c r="I9" s="60">
+      <c r="I9" s="33">
         <v>0.44</v>
       </c>
-      <c r="J9" s="93">
+      <c r="J9" s="56">
         <v>0.4</v>
       </c>
     </row>
     <row r="10" spans="1:10" x14ac:dyDescent="0.35">
       <c r="A10" s="1"/>
-      <c r="B10" s="74"/>
-      <c r="C10" s="13" t="s">
-        <v>37</v>
-      </c>
-      <c r="D10" s="86" t="s">
-        <v>43</v>
-      </c>
-      <c r="E10" s="82">
+      <c r="B10" s="69"/>
+      <c r="C10" s="10" t="s">
+        <v>35</v>
+      </c>
+      <c r="D10" s="51" t="s">
+        <v>41</v>
+      </c>
+      <c r="E10" s="47">
         <v>0.26</v>
       </c>
-      <c r="F10" s="28">
+      <c r="F10" s="21">
         <v>0.23</v>
       </c>
-      <c r="G10" s="82">
+      <c r="G10" s="47">
         <v>-0.12</v>
       </c>
-      <c r="H10" s="87" t="s">
-        <v>44</v>
-      </c>
-      <c r="I10" s="60">
+      <c r="H10" s="52" t="s">
+        <v>42</v>
+      </c>
+      <c r="I10" s="33">
         <v>0.47</v>
       </c>
-      <c r="J10" s="72">
+      <c r="J10" s="41">
         <v>0.42</v>
       </c>
     </row>
     <row r="11" spans="1:10" x14ac:dyDescent="0.35">
       <c r="A11" s="1"/>
-      <c r="B11" s="74"/>
-      <c r="C11" s="13" t="s">
-        <v>38</v>
-      </c>
-      <c r="D11" s="28">
+      <c r="B11" s="69"/>
+      <c r="C11" s="10" t="s">
+        <v>36</v>
+      </c>
+      <c r="D11" s="21">
         <v>0.38</v>
       </c>
-      <c r="E11" s="87" t="s">
-        <v>45</v>
-      </c>
-      <c r="F11" s="86" t="s">
-        <v>46</v>
-      </c>
-      <c r="G11" s="82">
+      <c r="E11" s="52" t="s">
+        <v>43</v>
+      </c>
+      <c r="F11" s="51" t="s">
+        <v>44</v>
+      </c>
+      <c r="G11" s="47">
         <v>0.69</v>
       </c>
-      <c r="H11" s="82">
+      <c r="H11" s="47">
         <v>0.26</v>
       </c>
-      <c r="I11" s="60">
+      <c r="I11" s="33">
         <v>0.43</v>
       </c>
-      <c r="J11" s="72">
+      <c r="J11" s="41">
         <v>0.39</v>
       </c>
     </row>
     <row r="12" spans="1:10" x14ac:dyDescent="0.35">
       <c r="A12" s="1"/>
-      <c r="B12" s="74"/>
-      <c r="C12" s="13" t="s">
-        <v>39</v>
-      </c>
-      <c r="D12" s="28">
+      <c r="B12" s="69"/>
+      <c r="C12" s="10" t="s">
+        <v>37</v>
+      </c>
+      <c r="D12" s="21">
         <v>-0.38</v>
       </c>
-      <c r="E12" s="82">
+      <c r="E12" s="47">
         <v>-1.26</v>
       </c>
-      <c r="F12" s="78" t="s">
-        <v>48</v>
-      </c>
-      <c r="G12" s="82">
+      <c r="F12" s="43" t="s">
+        <v>46</v>
+      </c>
+      <c r="G12" s="47">
         <v>-0.09</v>
       </c>
-      <c r="H12" s="82">
+      <c r="H12" s="47">
         <v>0.14000000000000001</v>
       </c>
-      <c r="I12" s="60">
+      <c r="I12" s="33">
         <v>0.37</v>
       </c>
-      <c r="J12" s="72">
+      <c r="J12" s="41">
         <v>0.41</v>
       </c>
     </row>
     <row r="13" spans="1:10" x14ac:dyDescent="0.35">
       <c r="A13" s="1"/>
-      <c r="B13" s="74"/>
-      <c r="C13" s="13" t="s">
-        <v>40</v>
-      </c>
-      <c r="D13" s="28">
+      <c r="B13" s="69"/>
+      <c r="C13" s="10" t="s">
+        <v>38</v>
+      </c>
+      <c r="D13" s="21">
         <v>-0.37</v>
       </c>
-      <c r="E13" s="82">
+      <c r="E13" s="47">
         <v>-0.34</v>
       </c>
-      <c r="F13" s="28">
+      <c r="F13" s="21">
         <v>-0.79</v>
       </c>
-      <c r="G13" s="82">
+      <c r="G13" s="47">
         <v>0.01</v>
       </c>
-      <c r="H13" s="82">
+      <c r="H13" s="47">
         <v>-1.57</v>
       </c>
-      <c r="I13" s="60">
+      <c r="I13" s="33">
         <v>0.48</v>
       </c>
-      <c r="J13" s="12">
+      <c r="J13" s="9">
         <v>0.5</v>
       </c>
     </row>
     <row r="14" spans="1:10" x14ac:dyDescent="0.35">
       <c r="A14" s="1"/>
-      <c r="B14" s="74"/>
-      <c r="C14" s="13" t="s">
-        <v>41</v>
-      </c>
-      <c r="D14" s="28">
+      <c r="B14" s="69"/>
+      <c r="C14" s="10" t="s">
+        <v>39</v>
+      </c>
+      <c r="D14" s="21">
         <v>0.42</v>
       </c>
-      <c r="E14" s="87" t="s">
-        <v>47</v>
-      </c>
-      <c r="F14" s="28">
+      <c r="E14" s="52" t="s">
+        <v>45</v>
+      </c>
+      <c r="F14" s="21">
         <v>0.37</v>
       </c>
-      <c r="G14" s="82">
+      <c r="G14" s="47">
         <v>0.08</v>
       </c>
-      <c r="H14" s="82">
+      <c r="H14" s="47">
         <v>-0.1</v>
       </c>
-      <c r="I14" s="60">
+      <c r="I14" s="33">
         <v>0.44</v>
       </c>
       <c r="J14" s="1">
@@ -1950,115 +1968,115 @@
     </row>
     <row r="15" spans="1:10" ht="15" thickBot="1" x14ac:dyDescent="0.4">
       <c r="A15" s="1"/>
-      <c r="B15" s="75"/>
-      <c r="C15" s="5" t="s">
-        <v>42</v>
-      </c>
-      <c r="D15" s="88">
+      <c r="B15" s="70"/>
+      <c r="C15" s="4" t="s">
+        <v>40</v>
+      </c>
+      <c r="D15" s="53">
         <v>-0.1</v>
       </c>
-      <c r="E15" s="89">
+      <c r="E15" s="54">
         <v>-0.35</v>
       </c>
-      <c r="F15" s="90">
+      <c r="F15" s="55">
         <v>0.5</v>
       </c>
-      <c r="G15" s="17">
+      <c r="G15" s="12">
         <v>0.12</v>
       </c>
-      <c r="H15" s="17">
+      <c r="H15" s="12">
         <v>0.22</v>
       </c>
-      <c r="I15" s="62">
+      <c r="I15" s="35">
         <v>0.38</v>
       </c>
-      <c r="J15" s="94">
+      <c r="J15" s="57">
         <v>0.38</v>
       </c>
     </row>
     <row r="16" spans="1:10" x14ac:dyDescent="0.35">
       <c r="A16" s="1"/>
-      <c r="B16" s="74" t="s">
-        <v>26</v>
+      <c r="B16" s="69" t="s">
+        <v>24</v>
       </c>
       <c r="C16" s="1" t="s">
-        <v>49</v>
-      </c>
-      <c r="D16" s="41">
+        <v>47</v>
+      </c>
+      <c r="D16" s="28">
         <v>-0.76</v>
       </c>
-      <c r="E16" s="28">
+      <c r="E16" s="21">
         <v>1.86</v>
       </c>
-      <c r="F16" s="41">
+      <c r="F16" s="28">
         <v>-0.79</v>
       </c>
-      <c r="G16" s="41">
+      <c r="G16" s="28">
         <v>-0.96</v>
       </c>
-      <c r="H16" s="82">
+      <c r="H16" s="47">
         <v>0.5</v>
       </c>
-      <c r="I16" s="60">
+      <c r="I16" s="33">
         <v>0.43</v>
       </c>
-      <c r="J16" s="93">
+      <c r="J16" s="56">
         <v>0.5</v>
       </c>
     </row>
     <row r="17" spans="1:10" x14ac:dyDescent="0.35">
       <c r="A17" s="1"/>
-      <c r="B17" s="76"/>
+      <c r="B17" s="71"/>
       <c r="C17" s="1" t="s">
-        <v>50</v>
-      </c>
-      <c r="D17" s="41">
+        <v>48</v>
+      </c>
+      <c r="D17" s="28">
         <v>-1.22</v>
       </c>
-      <c r="E17" s="28">
+      <c r="E17" s="21">
         <v>0.72</v>
       </c>
-      <c r="F17" s="28">
+      <c r="F17" s="21">
         <v>0.5</v>
       </c>
-      <c r="G17" s="28">
+      <c r="G17" s="21">
         <v>0.21</v>
       </c>
-      <c r="H17" s="28">
+      <c r="H17" s="21">
         <v>-0.26</v>
       </c>
-      <c r="I17" s="60">
+      <c r="I17" s="33">
         <v>0.41</v>
       </c>
-      <c r="J17" s="72">
+      <c r="J17" s="41">
         <v>0.45</v>
       </c>
     </row>
     <row r="18" spans="1:10" ht="15" thickBot="1" x14ac:dyDescent="0.4">
       <c r="A18" s="1"/>
-      <c r="B18" s="75"/>
-      <c r="C18" s="5" t="s">
-        <v>51</v>
-      </c>
-      <c r="D18" s="17">
+      <c r="B18" s="70"/>
+      <c r="C18" s="4" t="s">
+        <v>49</v>
+      </c>
+      <c r="D18" s="12">
         <v>-7.0000000000000007E-2</v>
       </c>
-      <c r="E18" s="17">
+      <c r="E18" s="12">
         <v>-1.35</v>
       </c>
-      <c r="F18" s="17">
+      <c r="F18" s="12">
         <v>-0.28999999999999998</v>
       </c>
-      <c r="G18" s="17">
+      <c r="G18" s="12">
         <v>0.28000000000000003</v>
       </c>
-      <c r="H18" s="17">
+      <c r="H18" s="12">
         <v>0.92</v>
       </c>
-      <c r="I18" s="62">
+      <c r="I18" s="35">
         <v>0.36</v>
       </c>
-      <c r="J18" s="95">
+      <c r="J18" s="58">
         <v>0.39</v>
       </c>
     </row>
@@ -2066,14 +2084,14 @@
       <c r="A19" s="1"/>
       <c r="B19" s="1"/>
       <c r="C19" s="1" t="s">
-        <v>33</v>
+        <v>31</v>
       </c>
       <c r="D19" s="1"/>
       <c r="E19" s="1"/>
       <c r="F19" s="1"/>
       <c r="G19" s="1"/>
       <c r="H19" s="1"/>
-      <c r="I19" s="35"/>
+      <c r="I19" s="27"/>
     </row>
   </sheetData>
   <mergeCells count="6">

--- a/persistenceModelSummaries.xlsx
+++ b/persistenceModelSummaries.xlsx
@@ -8,13 +8,14 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\nclancy1\Desktop\persistence\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{AC95432B-AD61-4D1B-B105-A178F2B905F7}" xr6:coauthVersionLast="36" xr6:coauthVersionMax="36" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{100E3897-21F0-403A-8AA0-A7BAA4DA84E6}" xr6:coauthVersionLast="36" xr6:coauthVersionMax="36" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="28780" windowHeight="11880" activeTab="1" xr2:uid="{5449A4E9-FD86-4181-A72B-A8CD9429038C}"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="28780" windowHeight="11880" xr2:uid="{5449A4E9-FD86-4181-A72B-A8CD9429038C}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
     <sheet name="Sheet2" sheetId="2" r:id="rId2"/>
+    <sheet name="Sheet3" sheetId="3" r:id="rId3"/>
   </sheets>
   <calcPr calcId="191029"/>
   <extLst>
@@ -26,7 +27,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="135" uniqueCount="58">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="144" uniqueCount="61">
   <si>
     <t>Basin</t>
   </si>
@@ -200,13 +201,25 @@
   </si>
   <si>
     <t>0.14*</t>
+  </si>
+  <si>
+    <t>persGlacial</t>
+  </si>
+  <si>
+    <t>0.12*</t>
+  </si>
+  <si>
+    <t>Top 3</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <fonts count="9" x14ac:knownFonts="1">
+  <numFmts count="1">
+    <numFmt numFmtId="164" formatCode="0.000"/>
+  </numFmts>
+  <fonts count="11" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -266,6 +279,23 @@
       <name val="Arial"/>
       <family val="2"/>
     </font>
+    <font>
+      <b/>
+      <i/>
+      <sz val="11"/>
+      <color theme="1"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <i/>
+      <sz val="11"/>
+      <color theme="1"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <scheme val="minor"/>
+    </font>
   </fonts>
   <fills count="4">
     <fill>
@@ -287,7 +317,7 @@
       </patternFill>
     </fill>
   </fills>
-  <borders count="9">
+  <borders count="8">
     <border>
       <left/>
       <right/>
@@ -354,19 +384,6 @@
         <color indexed="64"/>
       </right>
       <top/>
-      <bottom style="thin">
-        <color indexed="64"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left style="dotted">
-        <color indexed="64"/>
-      </left>
-      <right style="dotted">
-        <color indexed="64"/>
-      </right>
-      <top/>
       <bottom style="medium">
         <color indexed="64"/>
       </bottom>
@@ -387,23 +404,17 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="79">
+  <cellXfs count="81">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
     <xf numFmtId="0" fontId="2" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
-    <xf numFmtId="0" fontId="1" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="1" fillId="2" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="1" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
     <xf numFmtId="0" fontId="2" fillId="2" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="3" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
-    <xf numFmtId="2" fontId="3" fillId="2" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1"/>
     <xf numFmtId="2" fontId="1" fillId="2" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1"/>
     <xf numFmtId="0" fontId="1" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="1" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
     <xf numFmtId="0" fontId="1" fillId="2" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
@@ -412,20 +423,11 @@
     <xf numFmtId="2" fontId="3" fillId="2" borderId="3" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="3" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
     <xf numFmtId="2" fontId="3" fillId="2" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="3" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="2" fontId="1" fillId="2" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="2" fontId="3" fillId="2" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="1" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
     <xf numFmtId="0" fontId="1" fillId="2" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="2" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="3" fillId="2" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
     <xf numFmtId="2" fontId="3" fillId="2" borderId="2" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1"/>
@@ -441,7 +443,6 @@
     <xf numFmtId="0" fontId="5" fillId="2" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="5" fillId="2" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="5" fillId="2" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="5" fillId="2" borderId="7" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="5" fillId="3" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="6" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment horizontal="center"/>
@@ -497,8 +498,18 @@
       <alignment horizontal="center"/>
     </xf>
     <xf numFmtId="2" fontId="0" fillId="2" borderId="0" xfId="0" applyNumberFormat="1" applyFill="1"/>
-    <xf numFmtId="0" fontId="1" fillId="2" borderId="8" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="0" fillId="2" borderId="8" xfId="0" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="1" fillId="2" borderId="7" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="7" xfId="0" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="1" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="2" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
+    <xf numFmtId="0" fontId="3" fillId="3" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="right"/>
+    </xf>
     <xf numFmtId="0" fontId="1" fillId="2" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
@@ -517,7 +528,7 @@
     <xf numFmtId="0" fontId="4" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="1" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="8" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
     <xf numFmtId="0" fontId="2" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
@@ -544,19 +555,27 @@
     <xf numFmtId="0" fontId="7" fillId="2" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="4" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
-    <xf numFmtId="0" fontId="3" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="1" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="2" fontId="1" fillId="2" borderId="2" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="3" fillId="3" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="164" fontId="5" fillId="2" borderId="5" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="9" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="0" fontId="10" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="0" fontId="4" fillId="3" borderId="0" xfId="0" quotePrefix="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="right"/>
     </xf>
-    <xf numFmtId="0" fontId="8" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="3" borderId="0" xfId="0" quotePrefix="1" applyFont="1" applyFill="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="4" fillId="2" borderId="0" xfId="0" quotePrefix="1" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="4" fillId="2" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="right"/>
     </xf>
-    <xf numFmtId="0" fontId="3" fillId="3" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="right"/>
-    </xf>
+    <xf numFmtId="0" fontId="1" fillId="3" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="2" fontId="3" fillId="3" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="3" fillId="3" borderId="0" xfId="0" quotePrefix="1" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="164" fontId="5" fillId="3" borderId="5" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
@@ -871,278 +890,287 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{EA6E7ADE-132E-4744-82A9-9CF107F05154}">
-  <dimension ref="B2:K30"/>
+  <dimension ref="B2:K37"/>
   <sheetViews>
-    <sheetView zoomScale="140" zoomScaleNormal="140" workbookViewId="0">
-      <selection activeCell="K13" sqref="K13"/>
+    <sheetView tabSelected="1" zoomScale="140" zoomScaleNormal="140" workbookViewId="0">
+      <selection activeCell="L16" sqref="L16"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="11.5" x14ac:dyDescent="0.25"/>
   <cols>
     <col min="1" max="3" width="8.7265625" style="1"/>
     <col min="4" max="4" width="10.453125" style="1" bestFit="1" customWidth="1"/>
-    <col min="5" max="5" width="12.1796875" style="1" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="13.81640625" style="1" bestFit="1" customWidth="1"/>
     <col min="6" max="6" width="6.1796875" style="1" customWidth="1"/>
     <col min="7" max="7" width="5.08984375" style="1" bestFit="1" customWidth="1"/>
     <col min="8" max="8" width="6.26953125" style="1" bestFit="1" customWidth="1"/>
     <col min="9" max="9" width="6.81640625" style="1" bestFit="1" customWidth="1"/>
     <col min="10" max="10" width="5.6328125" style="1" bestFit="1" customWidth="1"/>
-    <col min="11" max="11" width="6.08984375" style="27" bestFit="1" customWidth="1"/>
+    <col min="11" max="11" width="6.08984375" style="18" bestFit="1" customWidth="1"/>
     <col min="12" max="16384" width="8.7265625" style="1"/>
   </cols>
   <sheetData>
     <row r="2" spans="2:11" ht="14.5" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B2" s="66" t="s">
+      <c r="B2" s="60" t="s">
         <v>0</v>
       </c>
-      <c r="C2" s="66" t="s">
+      <c r="C2" s="60" t="s">
         <v>2</v>
       </c>
-      <c r="D2" s="66" t="s">
+      <c r="D2" s="60" t="s">
         <v>13</v>
       </c>
-      <c r="E2" s="66" t="s">
+      <c r="E2" s="60" t="s">
         <v>4</v>
       </c>
-      <c r="F2" s="76" t="s">
+      <c r="F2" s="59" t="s">
         <v>17</v>
       </c>
-      <c r="G2" s="76"/>
-      <c r="H2" s="76"/>
-      <c r="I2" s="76"/>
-      <c r="J2" s="76"/>
-      <c r="K2" s="37" t="s">
+      <c r="G2" s="59"/>
+      <c r="H2" s="59"/>
+      <c r="I2" s="59"/>
+      <c r="J2" s="59"/>
+      <c r="K2" s="27" t="s">
         <v>11</v>
       </c>
     </row>
     <row r="3" spans="2:11" s="2" customFormat="1" ht="12" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="B3" s="67"/>
-      <c r="C3" s="67"/>
-      <c r="D3" s="67"/>
-      <c r="E3" s="67"/>
-      <c r="F3" s="6" t="s">
+      <c r="B3" s="61"/>
+      <c r="C3" s="61"/>
+      <c r="D3" s="61"/>
+      <c r="E3" s="61"/>
+      <c r="F3" s="5" t="s">
         <v>6</v>
       </c>
-      <c r="G3" s="6" t="s">
+      <c r="G3" s="5" t="s">
         <v>52</v>
       </c>
-      <c r="H3" s="6" t="s">
+      <c r="H3" s="5" t="s">
         <v>8</v>
       </c>
-      <c r="I3" s="6" t="s">
+      <c r="I3" s="5" t="s">
         <v>9</v>
       </c>
-      <c r="J3" s="6" t="s">
+      <c r="J3" s="5" t="s">
         <v>10</v>
       </c>
-      <c r="K3" s="38" t="s">
+      <c r="K3" s="28" t="s">
         <v>5</v>
       </c>
     </row>
     <row r="4" spans="2:11" x14ac:dyDescent="0.25">
-      <c r="B4" s="59" t="s">
+      <c r="B4" s="53" t="s">
         <v>1</v>
       </c>
-      <c r="C4" s="13" t="s">
+      <c r="C4" s="9" t="s">
         <v>16</v>
       </c>
-      <c r="D4" s="13" t="s">
+      <c r="D4" s="9" t="s">
         <v>14</v>
       </c>
-      <c r="E4" s="22" t="s">
+      <c r="E4" s="15" t="s">
         <v>19</v>
       </c>
-      <c r="F4" s="14">
+      <c r="F4" s="10">
         <v>-0.47</v>
       </c>
-      <c r="G4" s="15">
+      <c r="G4" s="11">
         <v>-0.31</v>
       </c>
-      <c r="H4" s="13">
+      <c r="H4" s="9">
         <v>0.04</v>
       </c>
-      <c r="I4" s="15">
+      <c r="I4" s="11">
         <v>0.2</v>
       </c>
-      <c r="J4" s="14">
+      <c r="J4" s="10">
         <v>0.31</v>
       </c>
-      <c r="K4" s="32">
+      <c r="K4" s="23">
         <v>0.27300000000000002</v>
       </c>
     </row>
     <row r="5" spans="2:11" x14ac:dyDescent="0.25">
-      <c r="B5" s="60"/>
-      <c r="C5" s="39" t="s">
+      <c r="B5" s="54"/>
+      <c r="C5" s="7" t="s">
         <v>16</v>
       </c>
-      <c r="D5" s="39" t="s">
+      <c r="D5" s="7" t="s">
         <v>14</v>
       </c>
-      <c r="E5" s="40" t="s">
+      <c r="E5" s="14" t="s">
+        <v>20</v>
+      </c>
+      <c r="F5" s="12">
+        <v>-0.47</v>
+      </c>
+      <c r="G5" s="13">
+        <v>-0.3</v>
+      </c>
+      <c r="H5" s="7"/>
+      <c r="I5" s="13">
+        <v>0.2</v>
+      </c>
+      <c r="J5" s="13">
+        <v>0.31</v>
+      </c>
+      <c r="K5" s="24">
+        <v>0.27500000000000002</v>
+      </c>
+    </row>
+    <row r="6" spans="2:11" x14ac:dyDescent="0.25">
+      <c r="B6" s="54"/>
+      <c r="C6" s="29" t="s">
+        <v>16</v>
+      </c>
+      <c r="D6" s="29" t="s">
+        <v>14</v>
+      </c>
+      <c r="E6" s="30" t="s">
         <v>18</v>
       </c>
-      <c r="F5" s="39"/>
-      <c r="G5" s="39"/>
-      <c r="H5" s="39"/>
-      <c r="I5" s="39"/>
-      <c r="J5" s="39"/>
-      <c r="K5" s="36">
+      <c r="F6" s="29"/>
+      <c r="G6" s="29"/>
+      <c r="H6" s="29"/>
+      <c r="I6" s="29"/>
+      <c r="J6" s="29"/>
+      <c r="K6" s="26">
         <v>0.25600000000000001</v>
       </c>
     </row>
-    <row r="6" spans="2:11" x14ac:dyDescent="0.25">
-      <c r="B6" s="60"/>
-      <c r="C6" s="10" t="s">
-        <v>16</v>
-      </c>
-      <c r="D6" s="10" t="s">
-        <v>14</v>
-      </c>
-      <c r="E6" s="21" t="s">
-        <v>20</v>
-      </c>
-      <c r="F6" s="16">
-        <v>-0.47</v>
-      </c>
-      <c r="G6" s="17">
-        <v>-0.3</v>
-      </c>
-      <c r="H6" s="10"/>
-      <c r="I6" s="17">
-        <v>0.2</v>
-      </c>
-      <c r="J6" s="17">
-        <v>0.31</v>
-      </c>
-      <c r="K6" s="33">
-        <v>0.27500000000000002</v>
-      </c>
-    </row>
-    <row r="7" spans="2:11" x14ac:dyDescent="0.25">
-      <c r="B7" s="60"/>
+    <row r="7" spans="2:11" ht="12" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="B7" s="54"/>
       <c r="C7" s="3" t="s">
         <v>16</v>
       </c>
       <c r="D7" s="3" t="s">
         <v>15</v>
       </c>
-      <c r="E7" s="11" t="s">
+      <c r="E7" s="8" t="s">
         <v>19</v>
       </c>
-      <c r="F7" s="18">
+      <c r="F7" s="16">
         <v>-0.47</v>
       </c>
-      <c r="G7" s="20">
+      <c r="G7" s="17">
         <v>-0.32</v>
       </c>
-      <c r="H7" s="19">
+      <c r="H7" s="69">
         <v>0.04</v>
       </c>
-      <c r="I7" s="18">
+      <c r="I7" s="16">
         <v>0.21</v>
       </c>
-      <c r="J7" s="18">
+      <c r="J7" s="16">
         <v>0.31</v>
       </c>
-      <c r="K7" s="34">
+      <c r="K7" s="25">
         <v>0.28699999999999998</v>
       </c>
     </row>
     <row r="8" spans="2:11" x14ac:dyDescent="0.25">
-      <c r="B8" s="60"/>
-      <c r="C8" s="10" t="s">
+      <c r="B8" s="54"/>
+      <c r="C8" s="7" t="s">
         <v>3</v>
       </c>
-      <c r="D8" s="1" t="s">
+      <c r="D8" s="7" t="s">
         <v>14</v>
       </c>
-      <c r="E8" s="23" t="s">
+      <c r="E8" s="49" t="s">
         <v>19</v>
       </c>
-      <c r="F8" s="7">
+      <c r="F8" s="12">
         <v>-0.39</v>
       </c>
-      <c r="G8" s="7">
+      <c r="G8" s="12">
         <v>-0.32</v>
       </c>
-      <c r="H8" s="1">
+      <c r="H8" s="7">
         <v>7.0000000000000007E-2</v>
       </c>
-      <c r="I8" s="7">
+      <c r="I8" s="12">
         <v>0.19</v>
       </c>
-      <c r="J8" s="1">
+      <c r="J8" s="7">
         <v>0.09</v>
       </c>
-      <c r="K8" s="33">
+      <c r="K8" s="24">
         <v>0.30499999999999999</v>
       </c>
     </row>
     <row r="9" spans="2:11" x14ac:dyDescent="0.25">
-      <c r="B9" s="60"/>
-      <c r="C9" s="10" t="s">
+      <c r="B9" s="54"/>
+      <c r="C9" s="7" t="s">
         <v>3</v>
       </c>
-      <c r="D9" s="1" t="s">
+      <c r="D9" s="7" t="s">
         <v>14</v>
       </c>
-      <c r="E9" s="5" t="s">
+      <c r="E9" s="49" t="s">
+        <v>20</v>
+      </c>
+      <c r="F9" s="12">
+        <v>-0.39</v>
+      </c>
+      <c r="G9" s="12">
+        <v>-0.24</v>
+      </c>
+      <c r="H9" s="7"/>
+      <c r="I9" s="13">
+        <v>0.19</v>
+      </c>
+      <c r="J9" s="7"/>
+      <c r="K9" s="24">
+        <v>0.28699999999999998</v>
+      </c>
+    </row>
+    <row r="10" spans="2:11" x14ac:dyDescent="0.25">
+      <c r="B10" s="54"/>
+      <c r="C10" s="7" t="s">
+        <v>3</v>
+      </c>
+      <c r="D10" s="7" t="s">
+        <v>14</v>
+      </c>
+      <c r="E10" s="14" t="s">
         <v>51</v>
       </c>
-      <c r="F9" s="7">
+      <c r="F10" s="12">
         <v>-0.38</v>
       </c>
-      <c r="G9" s="7"/>
-      <c r="I9" s="7"/>
-      <c r="K9" s="33">
+      <c r="G10" s="12"/>
+      <c r="H10" s="7"/>
+      <c r="I10" s="12"/>
+      <c r="J10" s="7"/>
+      <c r="K10" s="24">
         <v>0.28899999999999998</v>
       </c>
     </row>
-    <row r="10" spans="2:11" x14ac:dyDescent="0.25">
-      <c r="B10" s="60"/>
-      <c r="C10" s="10" t="s">
+    <row r="11" spans="2:11" x14ac:dyDescent="0.25">
+      <c r="B11" s="54"/>
+      <c r="C11" s="7" t="s">
         <v>3</v>
       </c>
-      <c r="D10" s="1" t="s">
+      <c r="D11" s="7" t="s">
         <v>14</v>
       </c>
-      <c r="E10" s="5" t="s">
+      <c r="E11" s="14" t="s">
         <v>53</v>
       </c>
-      <c r="F10" s="7"/>
-      <c r="G10" s="7">
+      <c r="F11" s="12"/>
+      <c r="G11" s="12">
         <v>-0.24</v>
       </c>
-      <c r="I10" s="7"/>
-      <c r="K10" s="33">
+      <c r="H11" s="7"/>
+      <c r="I11" s="12"/>
+      <c r="J11" s="7"/>
+      <c r="K11" s="24">
         <v>0.28899999999999998</v>
       </c>
     </row>
-    <row r="11" spans="2:11" x14ac:dyDescent="0.25">
-      <c r="B11" s="60"/>
-      <c r="C11" s="10" t="s">
-        <v>3</v>
-      </c>
-      <c r="D11" s="1" t="s">
-        <v>14</v>
-      </c>
-      <c r="E11" s="5" t="s">
-        <v>54</v>
-      </c>
-      <c r="F11" s="7"/>
-      <c r="G11" s="7"/>
-      <c r="H11" s="7">
-        <v>-0.15</v>
-      </c>
-      <c r="I11" s="7"/>
-      <c r="K11" s="33">
-        <v>0.28599999999999998</v>
-      </c>
-    </row>
-    <row r="12" spans="2:11" x14ac:dyDescent="0.25">
-      <c r="B12" s="60"/>
-      <c r="C12" s="39" t="s">
+    <row r="12" spans="2:11" ht="12" x14ac:dyDescent="0.3">
+      <c r="B12" s="54"/>
+      <c r="C12" s="29" t="s">
         <v>3</v>
       </c>
       <c r="D12" s="29" t="s">
@@ -1151,409 +1179,547 @@
       <c r="E12" s="30" t="s">
         <v>55</v>
       </c>
-      <c r="F12" s="31"/>
-      <c r="G12" s="31"/>
+      <c r="F12" s="70"/>
+      <c r="G12" s="70"/>
       <c r="H12" s="29"/>
-      <c r="I12" s="77" t="s">
+      <c r="I12" s="74" t="s">
         <v>57</v>
       </c>
       <c r="J12" s="29"/>
-      <c r="K12" s="36">
+      <c r="K12" s="26">
         <v>0.28100000000000003</v>
       </c>
     </row>
     <row r="13" spans="2:11" x14ac:dyDescent="0.25">
-      <c r="B13" s="60"/>
-      <c r="C13" s="10" t="s">
+      <c r="B13" s="54"/>
+      <c r="C13" s="7" t="s">
         <v>3</v>
       </c>
-      <c r="D13" s="1" t="s">
+      <c r="D13" s="7" t="s">
         <v>14</v>
       </c>
-      <c r="E13" s="5" t="s">
-        <v>56</v>
+      <c r="E13" s="14" t="s">
+        <v>18</v>
       </c>
       <c r="F13" s="7"/>
       <c r="G13" s="7"/>
+      <c r="H13" s="7"/>
       <c r="I13" s="7"/>
-      <c r="J13" s="1">
-        <v>0.35</v>
-      </c>
-      <c r="K13" s="33">
-        <v>0.28699999999999998</v>
-      </c>
-    </row>
-    <row r="14" spans="2:11" x14ac:dyDescent="0.25">
-      <c r="B14" s="60"/>
-      <c r="C14" s="10" t="s">
+      <c r="J13" s="7"/>
+      <c r="K13" s="24">
+        <v>0.28399999999999997</v>
+      </c>
+    </row>
+    <row r="14" spans="2:11" ht="12" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="B14" s="54"/>
+      <c r="C14" s="3" t="s">
         <v>3</v>
       </c>
-      <c r="D14" s="1" t="s">
+      <c r="D14" s="3" t="s">
+        <v>15</v>
+      </c>
+      <c r="E14" s="50" t="s">
+        <v>19</v>
+      </c>
+      <c r="F14" s="17">
+        <v>-0.4</v>
+      </c>
+      <c r="G14" s="16">
+        <v>-0.33</v>
+      </c>
+      <c r="H14" s="3">
+        <v>7.0000000000000007E-2</v>
+      </c>
+      <c r="I14" s="16">
+        <v>0.19</v>
+      </c>
+      <c r="J14" s="3">
+        <v>0.11</v>
+      </c>
+      <c r="K14" s="25">
+        <v>0.29799999999999999</v>
+      </c>
+    </row>
+    <row r="15" spans="2:11" ht="12" x14ac:dyDescent="0.3">
+      <c r="B15" s="54"/>
+      <c r="C15" s="7" t="s">
+        <v>58</v>
+      </c>
+      <c r="D15" s="7" t="s">
         <v>14</v>
       </c>
-      <c r="E14" s="5" t="s">
+      <c r="E15" s="49" t="s">
+        <v>19</v>
+      </c>
+      <c r="F15" s="13">
+        <v>-0.31</v>
+      </c>
+      <c r="G15" s="12">
+        <v>-0.38</v>
+      </c>
+      <c r="H15" s="12">
+        <v>0.17</v>
+      </c>
+      <c r="I15" s="12">
+        <v>0.25</v>
+      </c>
+      <c r="J15" s="75" t="s">
+        <v>59</v>
+      </c>
+      <c r="K15" s="71">
+        <v>0.32</v>
+      </c>
+    </row>
+    <row r="16" spans="2:11" x14ac:dyDescent="0.25">
+      <c r="B16" s="54"/>
+      <c r="C16" s="29" t="s">
+        <v>58</v>
+      </c>
+      <c r="D16" s="29" t="s">
+        <v>14</v>
+      </c>
+      <c r="E16" s="77" t="s">
+        <v>60</v>
+      </c>
+      <c r="F16" s="78">
+        <v>-0.3</v>
+      </c>
+      <c r="G16" s="70">
+        <v>-0.25</v>
+      </c>
+      <c r="H16" s="70"/>
+      <c r="I16" s="70">
+        <v>0.24</v>
+      </c>
+      <c r="J16" s="79"/>
+      <c r="K16" s="80">
+        <v>0.30599999999999999</v>
+      </c>
+    </row>
+    <row r="17" spans="2:11" x14ac:dyDescent="0.25">
+      <c r="B17" s="54"/>
+      <c r="C17" s="7" t="s">
+        <v>58</v>
+      </c>
+      <c r="D17" s="7" t="s">
+        <v>14</v>
+      </c>
+      <c r="E17" s="49" t="s">
+        <v>51</v>
+      </c>
+      <c r="F17" s="13">
+        <v>-0.28999999999999998</v>
+      </c>
+      <c r="G17" s="12"/>
+      <c r="H17" s="7"/>
+      <c r="I17" s="12"/>
+      <c r="J17" s="7"/>
+      <c r="K17" s="71">
+        <v>0.311</v>
+      </c>
+    </row>
+    <row r="18" spans="2:11" x14ac:dyDescent="0.25">
+      <c r="B18" s="54"/>
+      <c r="C18" s="7"/>
+      <c r="D18" s="7"/>
+      <c r="E18" s="49" t="s">
+        <v>53</v>
+      </c>
+      <c r="F18" s="13"/>
+      <c r="G18" s="12">
+        <v>-0.24</v>
+      </c>
+      <c r="H18" s="7"/>
+      <c r="I18" s="12"/>
+      <c r="J18" s="7"/>
+      <c r="K18" s="24">
+        <v>0.314</v>
+      </c>
+    </row>
+    <row r="19" spans="2:11" x14ac:dyDescent="0.25">
+      <c r="B19" s="54"/>
+      <c r="C19" s="7"/>
+      <c r="D19" s="7"/>
+      <c r="E19" s="49" t="s">
+        <v>54</v>
+      </c>
+      <c r="F19" s="13"/>
+      <c r="G19" s="12"/>
+      <c r="H19" s="7">
+        <v>-7.0000000000000007E-2</v>
+      </c>
+      <c r="I19" s="12"/>
+      <c r="J19" s="7"/>
+      <c r="K19" s="24">
+        <v>0.313</v>
+      </c>
+    </row>
+    <row r="20" spans="2:11" x14ac:dyDescent="0.25">
+      <c r="B20" s="54"/>
+      <c r="C20" s="7"/>
+      <c r="D20" s="7"/>
+      <c r="E20" s="49" t="s">
+        <v>55</v>
+      </c>
+      <c r="F20" s="13"/>
+      <c r="G20" s="12"/>
+      <c r="H20" s="7"/>
+      <c r="I20" s="12">
+        <v>0.16</v>
+      </c>
+      <c r="J20" s="7"/>
+      <c r="K20" s="24">
+        <v>0.307</v>
+      </c>
+    </row>
+    <row r="21" spans="2:11" x14ac:dyDescent="0.25">
+      <c r="B21" s="54"/>
+      <c r="C21" s="7"/>
+      <c r="D21" s="7"/>
+      <c r="E21" s="49" t="s">
+        <v>56</v>
+      </c>
+      <c r="F21" s="13"/>
+      <c r="G21" s="12"/>
+      <c r="H21" s="7"/>
+      <c r="I21" s="12"/>
+      <c r="J21" s="7">
+        <v>-0.01</v>
+      </c>
+      <c r="K21" s="24">
+        <v>0.313</v>
+      </c>
+    </row>
+    <row r="22" spans="2:11" x14ac:dyDescent="0.25">
+      <c r="B22" s="54"/>
+      <c r="C22" s="7"/>
+      <c r="D22" s="7"/>
+      <c r="E22" s="49" t="s">
         <v>18</v>
       </c>
-      <c r="K14" s="33">
-        <v>0.28399999999999997</v>
-      </c>
-    </row>
-    <row r="15" spans="2:11" x14ac:dyDescent="0.25">
-      <c r="B15" s="60"/>
-      <c r="C15" s="10" t="s">
-        <v>3</v>
-      </c>
-      <c r="D15" s="1" t="s">
-        <v>14</v>
-      </c>
-      <c r="E15" s="23" t="s">
-        <v>20</v>
-      </c>
-      <c r="F15" s="7">
-        <v>-0.39</v>
-      </c>
-      <c r="G15" s="7">
-        <v>-0.24</v>
-      </c>
-      <c r="I15" s="8">
-        <v>0.19</v>
-      </c>
-      <c r="K15" s="33">
-        <v>0.28699999999999998</v>
-      </c>
-    </row>
-    <row r="16" spans="2:11" ht="12" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="B16" s="61"/>
-      <c r="C16" s="4" t="s">
-        <v>3</v>
-      </c>
-      <c r="D16" s="4" t="s">
-        <v>15</v>
-      </c>
-      <c r="E16" s="24" t="s">
-        <v>19</v>
-      </c>
-      <c r="F16" s="26">
-        <v>-0.4</v>
-      </c>
-      <c r="G16" s="25">
-        <v>-0.33</v>
-      </c>
-      <c r="H16" s="4">
-        <v>7.0000000000000007E-2</v>
-      </c>
-      <c r="I16" s="25">
-        <v>0.19</v>
-      </c>
-      <c r="J16" s="4">
-        <v>0.11</v>
-      </c>
-      <c r="K16" s="35">
-        <v>0.29799999999999999</v>
-      </c>
-    </row>
-    <row r="17" spans="2:11" x14ac:dyDescent="0.25">
-      <c r="B17" s="60" t="s">
+      <c r="F22" s="13"/>
+      <c r="G22" s="12"/>
+      <c r="H22" s="7"/>
+      <c r="I22" s="12"/>
+      <c r="J22" s="7"/>
+      <c r="K22" s="24">
+        <v>0.313</v>
+      </c>
+    </row>
+    <row r="23" spans="2:11" ht="12" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="B23" s="55"/>
+      <c r="C23" s="3"/>
+      <c r="D23" s="3"/>
+      <c r="E23" s="3"/>
+      <c r="F23" s="3"/>
+      <c r="G23" s="3"/>
+      <c r="H23" s="3"/>
+      <c r="I23" s="3"/>
+      <c r="J23" s="3"/>
+      <c r="K23" s="25"/>
+    </row>
+    <row r="24" spans="2:11" x14ac:dyDescent="0.25">
+      <c r="B24" s="54" t="s">
         <v>12</v>
       </c>
-      <c r="C17" s="29" t="s">
+      <c r="C24" s="20" t="s">
         <v>16</v>
-      </c>
-      <c r="D17" s="39" t="s">
-        <v>14</v>
-      </c>
-      <c r="E17" s="40" t="s">
-        <v>19</v>
-      </c>
-      <c r="F17" s="39">
-        <v>-0.19</v>
-      </c>
-      <c r="G17" s="39">
-        <v>0.12</v>
-      </c>
-      <c r="H17" s="78" t="s">
-        <v>21</v>
-      </c>
-      <c r="I17" s="39">
-        <v>-0.14000000000000001</v>
-      </c>
-      <c r="J17" s="39">
-        <v>0.05</v>
-      </c>
-      <c r="K17" s="36">
-        <v>0.248</v>
-      </c>
-    </row>
-    <row r="18" spans="2:11" ht="14.5" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="B18" s="62"/>
-      <c r="C18" s="1" t="s">
-        <v>16</v>
-      </c>
-      <c r="D18" s="10" t="s">
-        <v>14</v>
-      </c>
-      <c r="E18" s="21" t="s">
-        <v>18</v>
-      </c>
-      <c r="F18" s="63" t="s">
-        <v>22</v>
-      </c>
-      <c r="G18" s="64"/>
-      <c r="H18" s="64"/>
-      <c r="I18" s="64"/>
-      <c r="J18" s="64"/>
-      <c r="K18" s="64"/>
-    </row>
-    <row r="19" spans="2:11" ht="14.5" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="B19" s="62"/>
-      <c r="C19" s="1" t="s">
-        <v>16</v>
-      </c>
-      <c r="D19" s="10" t="s">
-        <v>14</v>
-      </c>
-      <c r="E19" s="21" t="s">
-        <v>20</v>
-      </c>
-      <c r="F19" s="63" t="s">
-        <v>22</v>
-      </c>
-      <c r="G19" s="64"/>
-      <c r="H19" s="64"/>
-      <c r="I19" s="64"/>
-      <c r="J19" s="64"/>
-      <c r="K19" s="64"/>
-    </row>
-    <row r="20" spans="2:11" ht="14.5" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B20" s="62"/>
-      <c r="C20" s="1" t="s">
-        <v>16</v>
-      </c>
-      <c r="D20" s="1" t="s">
-        <v>15</v>
-      </c>
-      <c r="E20" s="1" t="s">
-        <v>18</v>
-      </c>
-      <c r="F20" s="10"/>
-      <c r="G20" s="10"/>
-      <c r="H20" s="10"/>
-      <c r="I20" s="10"/>
-      <c r="J20" s="10"/>
-      <c r="K20" s="33">
-        <v>0.247</v>
-      </c>
-    </row>
-    <row r="21" spans="2:11" ht="14.5" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B21" s="62"/>
-      <c r="C21" s="3" t="s">
-        <v>16</v>
-      </c>
-      <c r="D21" s="3" t="s">
-        <v>15</v>
-      </c>
-      <c r="E21" s="11" t="s">
-        <v>19</v>
-      </c>
-      <c r="F21" s="3">
-        <v>-0.19</v>
-      </c>
-      <c r="G21" s="3">
-        <v>0.12</v>
-      </c>
-      <c r="H21" s="75" t="s">
-        <v>21</v>
-      </c>
-      <c r="I21" s="3">
-        <v>-0.14000000000000001</v>
-      </c>
-      <c r="J21" s="3">
-        <v>0.05</v>
-      </c>
-      <c r="K21" s="34">
-        <v>0.248</v>
-      </c>
-    </row>
-    <row r="22" spans="2:11" ht="14.5" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="B22" s="62"/>
-      <c r="C22" s="1" t="s">
-        <v>3</v>
-      </c>
-      <c r="D22" s="1" t="s">
-        <v>14</v>
-      </c>
-      <c r="E22" s="5" t="s">
-        <v>19</v>
-      </c>
-      <c r="F22" s="9">
-        <v>-0.09</v>
-      </c>
-      <c r="G22" s="74">
-        <v>-0.28999999999999998</v>
-      </c>
-      <c r="H22" s="1">
-        <v>0.05</v>
-      </c>
-      <c r="I22" s="1">
-        <v>0.17</v>
-      </c>
-      <c r="J22" s="1">
-        <v>-0.05</v>
-      </c>
-      <c r="K22" s="33">
-        <v>0.316</v>
-      </c>
-    </row>
-    <row r="23" spans="2:11" ht="14.5" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B23" s="62"/>
-      <c r="C23" s="1" t="s">
-        <v>3</v>
-      </c>
-      <c r="D23" s="1" t="s">
-        <v>14</v>
-      </c>
-      <c r="E23" s="5" t="s">
-        <v>51</v>
-      </c>
-      <c r="F23" s="1">
-        <v>-0.15</v>
-      </c>
-      <c r="K23" s="33">
-        <v>0.32500000000000001</v>
-      </c>
-    </row>
-    <row r="24" spans="2:11" ht="14.5" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B24" s="62"/>
-      <c r="C24" s="29" t="s">
-        <v>3</v>
       </c>
       <c r="D24" s="29" t="s">
         <v>14</v>
       </c>
       <c r="E24" s="30" t="s">
+        <v>19</v>
+      </c>
+      <c r="F24" s="29">
+        <v>-0.19</v>
+      </c>
+      <c r="G24" s="29">
+        <v>0.12</v>
+      </c>
+      <c r="H24" s="52" t="s">
+        <v>21</v>
+      </c>
+      <c r="I24" s="29">
+        <v>-0.14000000000000001</v>
+      </c>
+      <c r="J24" s="29">
+        <v>0.05</v>
+      </c>
+      <c r="K24" s="26">
+        <v>0.248</v>
+      </c>
+    </row>
+    <row r="25" spans="2:11" ht="14.5" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="B25" s="56"/>
+      <c r="C25" s="1" t="s">
+        <v>16</v>
+      </c>
+      <c r="D25" s="7" t="s">
+        <v>14</v>
+      </c>
+      <c r="E25" s="14" t="s">
+        <v>18</v>
+      </c>
+      <c r="F25" s="57" t="s">
+        <v>22</v>
+      </c>
+      <c r="G25" s="58"/>
+      <c r="H25" s="58"/>
+      <c r="I25" s="58"/>
+      <c r="J25" s="58"/>
+      <c r="K25" s="58"/>
+    </row>
+    <row r="26" spans="2:11" ht="14.5" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="B26" s="56"/>
+      <c r="C26" s="1" t="s">
+        <v>16</v>
+      </c>
+      <c r="D26" s="7" t="s">
+        <v>14</v>
+      </c>
+      <c r="E26" s="14" t="s">
+        <v>20</v>
+      </c>
+      <c r="F26" s="57" t="s">
+        <v>22</v>
+      </c>
+      <c r="G26" s="58"/>
+      <c r="H26" s="58"/>
+      <c r="I26" s="58"/>
+      <c r="J26" s="58"/>
+      <c r="K26" s="58"/>
+    </row>
+    <row r="27" spans="2:11" ht="14.5" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="B27" s="56"/>
+      <c r="C27" s="1" t="s">
+        <v>16</v>
+      </c>
+      <c r="D27" s="1" t="s">
+        <v>15</v>
+      </c>
+      <c r="E27" s="1" t="s">
+        <v>18</v>
+      </c>
+      <c r="F27" s="7"/>
+      <c r="G27" s="7"/>
+      <c r="H27" s="7"/>
+      <c r="I27" s="7"/>
+      <c r="J27" s="7"/>
+      <c r="K27" s="24">
+        <v>0.247</v>
+      </c>
+    </row>
+    <row r="28" spans="2:11" ht="14.5" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="B28" s="56"/>
+      <c r="C28" s="3" t="s">
+        <v>16</v>
+      </c>
+      <c r="D28" s="3" t="s">
+        <v>15</v>
+      </c>
+      <c r="E28" s="8" t="s">
+        <v>19</v>
+      </c>
+      <c r="F28" s="3">
+        <v>-0.19</v>
+      </c>
+      <c r="G28" s="3">
+        <v>0.12</v>
+      </c>
+      <c r="H28" s="76" t="s">
+        <v>21</v>
+      </c>
+      <c r="I28" s="3">
+        <v>-0.14000000000000001</v>
+      </c>
+      <c r="J28" s="3">
+        <v>0.05</v>
+      </c>
+      <c r="K28" s="25">
+        <v>0.248</v>
+      </c>
+    </row>
+    <row r="29" spans="2:11" ht="14.5" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="B29" s="56"/>
+      <c r="C29" s="1" t="s">
+        <v>3</v>
+      </c>
+      <c r="D29" s="1" t="s">
+        <v>14</v>
+      </c>
+      <c r="E29" s="4" t="s">
+        <v>19</v>
+      </c>
+      <c r="F29" s="6">
+        <v>-0.09</v>
+      </c>
+      <c r="G29" s="51">
+        <v>-0.28999999999999998</v>
+      </c>
+      <c r="H29" s="1">
+        <v>0.05</v>
+      </c>
+      <c r="I29" s="1">
+        <v>0.17</v>
+      </c>
+      <c r="J29" s="1">
+        <v>-0.05</v>
+      </c>
+      <c r="K29" s="24">
+        <v>0.316</v>
+      </c>
+    </row>
+    <row r="30" spans="2:11" ht="14.5" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="B30" s="56"/>
+      <c r="C30" s="1" t="s">
+        <v>3</v>
+      </c>
+      <c r="D30" s="1" t="s">
+        <v>14</v>
+      </c>
+      <c r="E30" s="4" t="s">
+        <v>51</v>
+      </c>
+      <c r="F30" s="1">
+        <v>-0.15</v>
+      </c>
+      <c r="K30" s="24">
+        <v>0.32500000000000001</v>
+      </c>
+    </row>
+    <row r="31" spans="2:11" ht="14.5" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="B31" s="56"/>
+      <c r="C31" s="20" t="s">
+        <v>3</v>
+      </c>
+      <c r="D31" s="20" t="s">
+        <v>14</v>
+      </c>
+      <c r="E31" s="21" t="s">
         <v>53</v>
       </c>
-      <c r="F24" s="29"/>
-      <c r="G24" s="31">
+      <c r="F31" s="20"/>
+      <c r="G31" s="22">
         <v>-0.28999999999999998</v>
       </c>
-      <c r="H24" s="29"/>
-      <c r="I24" s="29"/>
-      <c r="J24" s="29"/>
-      <c r="K24" s="36">
+      <c r="H31" s="20"/>
+      <c r="I31" s="20"/>
+      <c r="J31" s="20"/>
+      <c r="K31" s="26">
         <v>0.30299999999999999</v>
       </c>
     </row>
-    <row r="25" spans="2:11" ht="14.5" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B25" s="62"/>
-      <c r="C25" s="1" t="s">
+    <row r="32" spans="2:11" ht="14.5" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="B32" s="56"/>
+      <c r="C32" s="1" t="s">
         <v>3</v>
       </c>
-      <c r="D25" s="1" t="s">
+      <c r="D32" s="1" t="s">
         <v>14</v>
       </c>
-      <c r="E25" s="5" t="s">
+      <c r="E32" s="4" t="s">
         <v>54</v>
       </c>
-      <c r="H25" s="1">
+      <c r="H32" s="1">
         <v>-0.02</v>
       </c>
-      <c r="K25" s="33">
+      <c r="K32" s="24">
         <v>0.32800000000000001</v>
       </c>
     </row>
-    <row r="26" spans="2:11" ht="14.5" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B26" s="62"/>
-      <c r="C26" s="1" t="s">
+    <row r="33" spans="2:11" ht="14.5" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="B33" s="56"/>
+      <c r="C33" s="1" t="s">
         <v>3</v>
       </c>
-      <c r="D26" s="1" t="s">
+      <c r="D33" s="1" t="s">
         <v>14</v>
       </c>
-      <c r="E26" s="5" t="s">
+      <c r="E33" s="4" t="s">
         <v>55</v>
       </c>
-      <c r="I26" s="1">
+      <c r="I33" s="1">
         <v>-0.02</v>
       </c>
-      <c r="K26" s="33">
+      <c r="K33" s="24">
         <v>0.32800000000000001</v>
       </c>
     </row>
-    <row r="27" spans="2:11" ht="14.5" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B27" s="62"/>
-      <c r="C27" s="1" t="s">
+    <row r="34" spans="2:11" ht="14.5" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="B34" s="56"/>
+      <c r="C34" s="1" t="s">
         <v>3</v>
       </c>
-      <c r="D27" s="1" t="s">
+      <c r="D34" s="1" t="s">
         <v>14</v>
       </c>
-      <c r="E27" s="5" t="s">
+      <c r="E34" s="4" t="s">
         <v>56</v>
       </c>
-      <c r="J27" s="1">
+      <c r="J34" s="1">
         <v>-0.18</v>
       </c>
-      <c r="K27" s="33">
+      <c r="K34" s="24">
         <v>0.32400000000000001</v>
       </c>
     </row>
-    <row r="28" spans="2:11" ht="14.5" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B28" s="62"/>
-      <c r="C28" s="1" t="s">
+    <row r="35" spans="2:11" ht="14.5" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="B35" s="56"/>
+      <c r="C35" s="1" t="s">
         <v>3</v>
       </c>
-      <c r="D28" s="1" t="s">
+      <c r="D35" s="1" t="s">
         <v>14</v>
       </c>
-      <c r="E28" s="5" t="s">
+      <c r="E35" s="4" t="s">
         <v>18</v>
       </c>
-      <c r="K28" s="33">
+      <c r="K35" s="24">
         <v>0.316</v>
       </c>
     </row>
-    <row r="29" spans="2:11" ht="15" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="B29" s="61"/>
-      <c r="C29" s="4" t="s">
+    <row r="36" spans="2:11" ht="15" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="B36" s="55"/>
+      <c r="C36" s="3" t="s">
         <v>3</v>
       </c>
-      <c r="D29" s="4" t="s">
+      <c r="D36" s="3" t="s">
         <v>15</v>
       </c>
-      <c r="E29" s="12" t="s">
+      <c r="E36" s="8" t="s">
         <v>19</v>
       </c>
-      <c r="F29" s="4">
+      <c r="F36" s="3">
         <v>-0.11</v>
       </c>
-      <c r="G29" s="4">
+      <c r="G36" s="3">
         <v>-0.32</v>
       </c>
-      <c r="H29" s="4">
+      <c r="H36" s="3">
         <v>0.05</v>
       </c>
-      <c r="I29" s="4">
+      <c r="I36" s="3">
         <v>0.14000000000000001</v>
       </c>
-      <c r="J29" s="4">
+      <c r="J36" s="3">
         <v>-0.04</v>
       </c>
-      <c r="K29" s="35">
+      <c r="K36" s="25">
         <v>0.29599999999999999</v>
       </c>
     </row>
-    <row r="30" spans="2:11" x14ac:dyDescent="0.25">
-      <c r="E30" s="1" t="s">
+    <row r="37" spans="2:11" x14ac:dyDescent="0.25">
+      <c r="E37" s="1" t="s">
         <v>31</v>
       </c>
     </row>
   </sheetData>
   <mergeCells count="9">
-    <mergeCell ref="B4:B16"/>
-    <mergeCell ref="B17:B29"/>
-    <mergeCell ref="F18:K18"/>
-    <mergeCell ref="F19:K19"/>
+    <mergeCell ref="B4:B23"/>
+    <mergeCell ref="B24:B36"/>
+    <mergeCell ref="F25:K25"/>
+    <mergeCell ref="F26:K26"/>
     <mergeCell ref="F2:J2"/>
     <mergeCell ref="B2:B3"/>
     <mergeCell ref="D2:D3"/>
@@ -1569,397 +1735,397 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{87855ADF-ED4A-441E-AB56-65EE09C67C1B}">
   <dimension ref="A1:J19"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
+    <sheetView workbookViewId="0">
       <selection activeCell="J19" sqref="J19"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
   <cols>
-    <col min="1" max="2" width="8.7265625" style="41"/>
-    <col min="3" max="3" width="16.26953125" style="41" bestFit="1" customWidth="1"/>
-    <col min="4" max="8" width="8.7265625" style="41"/>
-    <col min="9" max="9" width="6.6328125" style="41" customWidth="1"/>
-    <col min="10" max="16384" width="8.7265625" style="41"/>
+    <col min="1" max="2" width="8.7265625" style="31"/>
+    <col min="3" max="3" width="16.26953125" style="31" bestFit="1" customWidth="1"/>
+    <col min="4" max="8" width="8.7265625" style="31"/>
+    <col min="9" max="9" width="6.6328125" style="31" customWidth="1"/>
+    <col min="10" max="16384" width="8.7265625" style="31"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:10" ht="20.5" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A1" s="1"/>
-      <c r="B1" s="66" t="s">
+      <c r="B1" s="60" t="s">
         <v>0</v>
       </c>
-      <c r="C1" s="66" t="s">
+      <c r="C1" s="60" t="s">
         <v>25</v>
       </c>
-      <c r="D1" s="65" t="s">
+      <c r="D1" s="68" t="s">
         <v>17</v>
       </c>
-      <c r="E1" s="65"/>
-      <c r="F1" s="65"/>
-      <c r="G1" s="65"/>
-      <c r="H1" s="65"/>
-      <c r="I1" s="37" t="s">
+      <c r="E1" s="68"/>
+      <c r="F1" s="68"/>
+      <c r="G1" s="68"/>
+      <c r="H1" s="68"/>
+      <c r="I1" s="27" t="s">
         <v>11</v>
       </c>
-      <c r="J1" s="72" t="s">
+      <c r="J1" s="66" t="s">
         <v>50</v>
       </c>
     </row>
     <row r="2" spans="1:10" ht="19" customHeight="1" thickBot="1" x14ac:dyDescent="0.4">
       <c r="A2" s="2"/>
-      <c r="B2" s="67"/>
-      <c r="C2" s="67"/>
-      <c r="D2" s="6" t="s">
+      <c r="B2" s="61"/>
+      <c r="C2" s="61"/>
+      <c r="D2" s="5" t="s">
         <v>6</v>
       </c>
-      <c r="E2" s="6" t="s">
+      <c r="E2" s="5" t="s">
         <v>7</v>
       </c>
-      <c r="F2" s="6" t="s">
+      <c r="F2" s="5" t="s">
         <v>8</v>
       </c>
-      <c r="G2" s="6" t="s">
+      <c r="G2" s="5" t="s">
         <v>9</v>
       </c>
-      <c r="H2" s="6" t="s">
+      <c r="H2" s="5" t="s">
         <v>10</v>
       </c>
-      <c r="I2" s="38" t="s">
+      <c r="I2" s="28" t="s">
         <v>5</v>
       </c>
-      <c r="J2" s="73"/>
+      <c r="J2" s="67"/>
     </row>
     <row r="3" spans="1:10" x14ac:dyDescent="0.35">
       <c r="A3" s="1"/>
-      <c r="B3" s="68" t="s">
+      <c r="B3" s="62" t="s">
         <v>23</v>
       </c>
-      <c r="C3" s="13" t="s">
+      <c r="C3" s="9" t="s">
         <v>26</v>
       </c>
-      <c r="D3" s="22">
+      <c r="D3" s="15">
         <v>-0.12</v>
       </c>
-      <c r="E3" s="44">
+      <c r="E3" s="34">
         <v>-0.1</v>
       </c>
-      <c r="F3" s="45">
+      <c r="F3" s="35">
         <v>0.92</v>
       </c>
-      <c r="G3" s="46">
+      <c r="G3" s="36">
         <v>1.1000000000000001</v>
       </c>
-      <c r="H3" s="22">
+      <c r="H3" s="15">
         <v>0.12</v>
       </c>
-      <c r="I3" s="32">
+      <c r="I3" s="23">
         <v>0.42</v>
       </c>
-      <c r="J3" s="41">
+      <c r="J3" s="31">
         <v>0.34</v>
       </c>
     </row>
     <row r="4" spans="1:10" x14ac:dyDescent="0.35">
       <c r="A4" s="1"/>
-      <c r="B4" s="69"/>
-      <c r="C4" s="10" t="s">
+      <c r="B4" s="63"/>
+      <c r="C4" s="7" t="s">
         <v>27</v>
       </c>
-      <c r="D4" s="21">
+      <c r="D4" s="14">
         <v>-9.67</v>
       </c>
-      <c r="E4" s="47">
+      <c r="E4" s="37">
         <v>31.8</v>
       </c>
-      <c r="F4" s="21">
+      <c r="F4" s="14">
         <v>-4.1100000000000003</v>
       </c>
-      <c r="G4" s="21">
+      <c r="G4" s="14">
         <v>-4.71</v>
       </c>
-      <c r="H4" s="21">
+      <c r="H4" s="14">
         <v>3.59</v>
       </c>
-      <c r="I4" s="33">
+      <c r="I4" s="24">
         <v>0.28000000000000003</v>
       </c>
-      <c r="J4" s="41">
+      <c r="J4" s="31">
         <v>0.33</v>
       </c>
     </row>
     <row r="5" spans="1:10" x14ac:dyDescent="0.35">
       <c r="A5" s="1"/>
-      <c r="B5" s="69"/>
-      <c r="C5" s="10" t="s">
+      <c r="B5" s="63"/>
+      <c r="C5" s="7" t="s">
         <v>29</v>
       </c>
-      <c r="D5" s="48">
+      <c r="D5" s="38">
         <v>0.1</v>
       </c>
-      <c r="E5" s="42" t="s">
+      <c r="E5" s="32" t="s">
         <v>30</v>
       </c>
-      <c r="F5" s="5">
+      <c r="F5" s="4">
         <v>0.06</v>
       </c>
-      <c r="G5" s="49">
+      <c r="G5" s="39">
         <v>0.57999999999999996</v>
       </c>
-      <c r="H5" s="5">
+      <c r="H5" s="4">
         <v>0.02</v>
       </c>
-      <c r="I5" s="33">
+      <c r="I5" s="24">
         <v>0.47</v>
       </c>
-      <c r="J5" s="41">
+      <c r="J5" s="31">
         <v>0.42</v>
       </c>
     </row>
     <row r="6" spans="1:10" x14ac:dyDescent="0.35">
       <c r="A6" s="1"/>
-      <c r="B6" s="69"/>
-      <c r="C6" s="10" t="s">
+      <c r="B6" s="63"/>
+      <c r="C6" s="7" t="s">
         <v>32</v>
       </c>
-      <c r="D6" s="5">
+      <c r="D6" s="4">
         <v>0.51</v>
       </c>
-      <c r="E6" s="48">
+      <c r="E6" s="38">
         <v>-0.6</v>
       </c>
-      <c r="F6" s="5">
+      <c r="F6" s="4">
         <v>-0.3</v>
       </c>
-      <c r="G6" s="49">
+      <c r="G6" s="39">
         <v>0.92</v>
       </c>
-      <c r="H6" s="5">
+      <c r="H6" s="4">
         <v>-0.33</v>
       </c>
-      <c r="I6" s="33">
+      <c r="I6" s="24">
         <v>0.45</v>
       </c>
-      <c r="J6" s="41">
+      <c r="J6" s="31">
         <v>0.42</v>
       </c>
     </row>
     <row r="7" spans="1:10" x14ac:dyDescent="0.35">
       <c r="A7" s="1"/>
-      <c r="B7" s="69"/>
-      <c r="C7" s="10" t="s">
+      <c r="B7" s="63"/>
+      <c r="C7" s="7" t="s">
         <v>28</v>
       </c>
-      <c r="D7" s="28">
+      <c r="D7" s="19">
         <v>0.65</v>
       </c>
-      <c r="E7" s="47">
+      <c r="E7" s="37">
         <v>0.62</v>
       </c>
-      <c r="F7" s="28">
+      <c r="F7" s="19">
         <v>-0.97</v>
       </c>
-      <c r="G7" s="47">
+      <c r="G7" s="37">
         <v>0.33</v>
       </c>
-      <c r="H7" s="47">
+      <c r="H7" s="37">
         <v>-0.4</v>
       </c>
-      <c r="I7" s="33">
+      <c r="I7" s="24">
         <v>0.33</v>
       </c>
-      <c r="J7" s="41">
+      <c r="J7" s="31">
         <v>0.35</v>
       </c>
     </row>
     <row r="8" spans="1:10" x14ac:dyDescent="0.35">
       <c r="A8" s="1"/>
-      <c r="B8" s="69"/>
-      <c r="C8" s="10" t="s">
+      <c r="B8" s="63"/>
+      <c r="C8" s="7" t="s">
         <v>33</v>
       </c>
-      <c r="D8" s="21">
+      <c r="D8" s="14">
         <v>0.42</v>
       </c>
-      <c r="E8" s="47">
+      <c r="E8" s="37">
         <v>-3.7</v>
       </c>
-      <c r="F8" s="47">
+      <c r="F8" s="37">
         <v>0.2</v>
       </c>
-      <c r="G8" s="47">
+      <c r="G8" s="37">
         <v>-0.33</v>
       </c>
-      <c r="H8" s="50">
+      <c r="H8" s="40">
         <v>0.04</v>
       </c>
-      <c r="I8" s="33">
+      <c r="I8" s="24">
         <v>0.46</v>
       </c>
-      <c r="J8" s="56">
+      <c r="J8" s="46">
         <v>0.5</v>
       </c>
     </row>
     <row r="9" spans="1:10" x14ac:dyDescent="0.35">
       <c r="A9" s="1"/>
-      <c r="B9" s="69"/>
-      <c r="C9" s="10" t="s">
+      <c r="B9" s="63"/>
+      <c r="C9" s="7" t="s">
         <v>34</v>
       </c>
-      <c r="D9" s="28">
+      <c r="D9" s="19">
         <v>-0.3</v>
       </c>
-      <c r="E9" s="50">
+      <c r="E9" s="40">
         <v>-0.5</v>
       </c>
-      <c r="F9" s="21">
+      <c r="F9" s="14">
         <v>0.19</v>
       </c>
-      <c r="G9" s="47">
+      <c r="G9" s="37">
         <v>0.05</v>
       </c>
-      <c r="H9" s="47">
+      <c r="H9" s="37">
         <v>-0.13</v>
       </c>
-      <c r="I9" s="33">
+      <c r="I9" s="24">
         <v>0.44</v>
       </c>
-      <c r="J9" s="56">
+      <c r="J9" s="46">
         <v>0.4</v>
       </c>
     </row>
     <row r="10" spans="1:10" x14ac:dyDescent="0.35">
       <c r="A10" s="1"/>
-      <c r="B10" s="69"/>
-      <c r="C10" s="10" t="s">
+      <c r="B10" s="63"/>
+      <c r="C10" s="7" t="s">
         <v>35</v>
       </c>
-      <c r="D10" s="51" t="s">
+      <c r="D10" s="41" t="s">
         <v>41</v>
       </c>
-      <c r="E10" s="47">
+      <c r="E10" s="37">
         <v>0.26</v>
       </c>
-      <c r="F10" s="21">
+      <c r="F10" s="14">
         <v>0.23</v>
       </c>
-      <c r="G10" s="47">
+      <c r="G10" s="37">
         <v>-0.12</v>
       </c>
-      <c r="H10" s="52" t="s">
+      <c r="H10" s="42" t="s">
         <v>42</v>
       </c>
-      <c r="I10" s="33">
+      <c r="I10" s="24">
         <v>0.47</v>
       </c>
-      <c r="J10" s="41">
+      <c r="J10" s="31">
         <v>0.42</v>
       </c>
     </row>
     <row r="11" spans="1:10" x14ac:dyDescent="0.35">
       <c r="A11" s="1"/>
-      <c r="B11" s="69"/>
-      <c r="C11" s="10" t="s">
+      <c r="B11" s="63"/>
+      <c r="C11" s="7" t="s">
         <v>36</v>
       </c>
-      <c r="D11" s="21">
+      <c r="D11" s="14">
         <v>0.38</v>
       </c>
-      <c r="E11" s="52" t="s">
+      <c r="E11" s="42" t="s">
         <v>43</v>
       </c>
-      <c r="F11" s="51" t="s">
+      <c r="F11" s="41" t="s">
         <v>44</v>
       </c>
-      <c r="G11" s="47">
+      <c r="G11" s="37">
         <v>0.69</v>
       </c>
-      <c r="H11" s="47">
+      <c r="H11" s="37">
         <v>0.26</v>
       </c>
-      <c r="I11" s="33">
+      <c r="I11" s="24">
         <v>0.43</v>
       </c>
-      <c r="J11" s="41">
+      <c r="J11" s="31">
         <v>0.39</v>
       </c>
     </row>
     <row r="12" spans="1:10" x14ac:dyDescent="0.35">
       <c r="A12" s="1"/>
-      <c r="B12" s="69"/>
-      <c r="C12" s="10" t="s">
+      <c r="B12" s="63"/>
+      <c r="C12" s="7" t="s">
         <v>37</v>
       </c>
-      <c r="D12" s="21">
+      <c r="D12" s="14">
         <v>-0.38</v>
       </c>
-      <c r="E12" s="47">
+      <c r="E12" s="37">
         <v>-1.26</v>
       </c>
-      <c r="F12" s="43" t="s">
+      <c r="F12" s="33" t="s">
         <v>46</v>
       </c>
-      <c r="G12" s="47">
+      <c r="G12" s="37">
         <v>-0.09</v>
       </c>
-      <c r="H12" s="47">
+      <c r="H12" s="37">
         <v>0.14000000000000001</v>
       </c>
-      <c r="I12" s="33">
+      <c r="I12" s="24">
         <v>0.37</v>
       </c>
-      <c r="J12" s="41">
+      <c r="J12" s="31">
         <v>0.41</v>
       </c>
     </row>
     <row r="13" spans="1:10" x14ac:dyDescent="0.35">
       <c r="A13" s="1"/>
-      <c r="B13" s="69"/>
-      <c r="C13" s="10" t="s">
+      <c r="B13" s="63"/>
+      <c r="C13" s="7" t="s">
         <v>38</v>
       </c>
-      <c r="D13" s="21">
+      <c r="D13" s="14">
         <v>-0.37</v>
       </c>
-      <c r="E13" s="47">
+      <c r="E13" s="37">
         <v>-0.34</v>
       </c>
-      <c r="F13" s="21">
+      <c r="F13" s="14">
         <v>-0.79</v>
       </c>
-      <c r="G13" s="47">
+      <c r="G13" s="37">
         <v>0.01</v>
       </c>
-      <c r="H13" s="47">
+      <c r="H13" s="37">
         <v>-1.57</v>
       </c>
-      <c r="I13" s="33">
+      <c r="I13" s="24">
         <v>0.48</v>
       </c>
-      <c r="J13" s="9">
+      <c r="J13" s="6">
         <v>0.5</v>
       </c>
     </row>
     <row r="14" spans="1:10" x14ac:dyDescent="0.35">
       <c r="A14" s="1"/>
-      <c r="B14" s="69"/>
-      <c r="C14" s="10" t="s">
+      <c r="B14" s="63"/>
+      <c r="C14" s="7" t="s">
         <v>39</v>
       </c>
-      <c r="D14" s="21">
+      <c r="D14" s="14">
         <v>0.42</v>
       </c>
-      <c r="E14" s="52" t="s">
+      <c r="E14" s="42" t="s">
         <v>45</v>
       </c>
-      <c r="F14" s="21">
+      <c r="F14" s="14">
         <v>0.37</v>
       </c>
-      <c r="G14" s="47">
+      <c r="G14" s="37">
         <v>0.08</v>
       </c>
-      <c r="H14" s="47">
+      <c r="H14" s="37">
         <v>-0.1</v>
       </c>
-      <c r="I14" s="33">
+      <c r="I14" s="24">
         <v>0.44</v>
       </c>
       <c r="J14" s="1">
@@ -1968,115 +2134,115 @@
     </row>
     <row r="15" spans="1:10" ht="15" thickBot="1" x14ac:dyDescent="0.4">
       <c r="A15" s="1"/>
-      <c r="B15" s="70"/>
-      <c r="C15" s="4" t="s">
+      <c r="B15" s="64"/>
+      <c r="C15" s="3" t="s">
         <v>40</v>
       </c>
-      <c r="D15" s="53">
+      <c r="D15" s="43">
         <v>-0.1</v>
       </c>
-      <c r="E15" s="54">
+      <c r="E15" s="44">
         <v>-0.35</v>
       </c>
-      <c r="F15" s="55">
+      <c r="F15" s="45">
         <v>0.5</v>
       </c>
-      <c r="G15" s="12">
+      <c r="G15" s="8">
         <v>0.12</v>
       </c>
-      <c r="H15" s="12">
+      <c r="H15" s="8">
         <v>0.22</v>
       </c>
-      <c r="I15" s="35">
+      <c r="I15" s="25">
         <v>0.38</v>
       </c>
-      <c r="J15" s="57">
+      <c r="J15" s="47">
         <v>0.38</v>
       </c>
     </row>
     <row r="16" spans="1:10" x14ac:dyDescent="0.35">
       <c r="A16" s="1"/>
-      <c r="B16" s="69" t="s">
+      <c r="B16" s="63" t="s">
         <v>24</v>
       </c>
       <c r="C16" s="1" t="s">
         <v>47</v>
       </c>
-      <c r="D16" s="28">
+      <c r="D16" s="19">
         <v>-0.76</v>
       </c>
-      <c r="E16" s="21">
+      <c r="E16" s="14">
         <v>1.86</v>
       </c>
-      <c r="F16" s="28">
+      <c r="F16" s="19">
         <v>-0.79</v>
       </c>
-      <c r="G16" s="28">
+      <c r="G16" s="19">
         <v>-0.96</v>
       </c>
-      <c r="H16" s="47">
+      <c r="H16" s="37">
         <v>0.5</v>
       </c>
-      <c r="I16" s="33">
+      <c r="I16" s="24">
         <v>0.43</v>
       </c>
-      <c r="J16" s="56">
+      <c r="J16" s="46">
         <v>0.5</v>
       </c>
     </row>
     <row r="17" spans="1:10" x14ac:dyDescent="0.35">
       <c r="A17" s="1"/>
-      <c r="B17" s="71"/>
+      <c r="B17" s="65"/>
       <c r="C17" s="1" t="s">
         <v>48</v>
       </c>
-      <c r="D17" s="28">
+      <c r="D17" s="19">
         <v>-1.22</v>
       </c>
-      <c r="E17" s="21">
+      <c r="E17" s="14">
         <v>0.72</v>
       </c>
-      <c r="F17" s="21">
+      <c r="F17" s="14">
         <v>0.5</v>
       </c>
-      <c r="G17" s="21">
+      <c r="G17" s="14">
         <v>0.21</v>
       </c>
-      <c r="H17" s="21">
+      <c r="H17" s="14">
         <v>-0.26</v>
       </c>
-      <c r="I17" s="33">
+      <c r="I17" s="24">
         <v>0.41</v>
       </c>
-      <c r="J17" s="41">
+      <c r="J17" s="31">
         <v>0.45</v>
       </c>
     </row>
     <row r="18" spans="1:10" ht="15" thickBot="1" x14ac:dyDescent="0.4">
       <c r="A18" s="1"/>
-      <c r="B18" s="70"/>
-      <c r="C18" s="4" t="s">
+      <c r="B18" s="64"/>
+      <c r="C18" s="3" t="s">
         <v>49</v>
       </c>
-      <c r="D18" s="12">
+      <c r="D18" s="8">
         <v>-7.0000000000000007E-2</v>
       </c>
-      <c r="E18" s="12">
+      <c r="E18" s="8">
         <v>-1.35</v>
       </c>
-      <c r="F18" s="12">
+      <c r="F18" s="8">
         <v>-0.28999999999999998</v>
       </c>
-      <c r="G18" s="12">
+      <c r="G18" s="8">
         <v>0.28000000000000003</v>
       </c>
-      <c r="H18" s="12">
+      <c r="H18" s="8">
         <v>0.92</v>
       </c>
-      <c r="I18" s="35">
+      <c r="I18" s="25">
         <v>0.36</v>
       </c>
-      <c r="J18" s="58">
+      <c r="J18" s="48">
         <v>0.39</v>
       </c>
     </row>
@@ -2091,7 +2257,7 @@
       <c r="F19" s="1"/>
       <c r="G19" s="1"/>
       <c r="H19" s="1"/>
-      <c r="I19" s="27"/>
+      <c r="I19" s="18"/>
     </row>
   </sheetData>
   <mergeCells count="6">
@@ -2105,4 +2271,35 @@
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup orientation="portrait" r:id="rId1"/>
 </worksheet>
+</file>
+
+<file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{F2250B7D-9F75-4DA5-AA11-D7AC86DFF8BF}">
+  <dimension ref="C3:I3"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="B2" sqref="B2:J4"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
+  <cols>
+    <col min="2" max="2" width="9.90625" bestFit="1" customWidth="1"/>
+    <col min="6" max="6" width="9.26953125" bestFit="1" customWidth="1"/>
+    <col min="7" max="7" width="11.90625" bestFit="1" customWidth="1"/>
+    <col min="8" max="8" width="10.36328125" bestFit="1" customWidth="1"/>
+    <col min="9" max="9" width="15.7265625" bestFit="1" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="3" spans="3:9" x14ac:dyDescent="0.35">
+      <c r="C3" s="72"/>
+      <c r="D3" s="72"/>
+      <c r="E3" s="72"/>
+      <c r="F3" s="73"/>
+      <c r="G3" s="72"/>
+      <c r="H3" s="72"/>
+      <c r="I3" s="72"/>
+    </row>
+  </sheetData>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
 </file>
--- a/persistenceModelSummaries.xlsx
+++ b/persistenceModelSummaries.xlsx
@@ -8,14 +8,15 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\nclancy1\Desktop\persistence\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{100E3897-21F0-403A-8AA0-A7BAA4DA84E6}" xr6:coauthVersionLast="36" xr6:coauthVersionMax="36" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{F3B03B3E-B7D9-4EC5-8205-8592BFB7DEED}" xr6:coauthVersionLast="36" xr6:coauthVersionMax="36" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="0" yWindow="0" windowWidth="28780" windowHeight="11880" xr2:uid="{5449A4E9-FD86-4181-A72B-A8CD9429038C}"/>
   </bookViews>
   <sheets>
-    <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
-    <sheet name="Sheet2" sheetId="2" r:id="rId2"/>
-    <sheet name="Sheet3" sheetId="3" r:id="rId3"/>
+    <sheet name="12-15-24" sheetId="4" r:id="rId1"/>
+    <sheet name="Sheet1" sheetId="1" r:id="rId2"/>
+    <sheet name="Sheet2" sheetId="2" r:id="rId3"/>
+    <sheet name="Sheet3" sheetId="3" r:id="rId4"/>
   </sheets>
   <calcPr calcId="191029"/>
   <extLst>
@@ -27,7 +28,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="144" uniqueCount="61">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="186" uniqueCount="78">
   <si>
     <t>Basin</t>
   </si>
@@ -210,6 +211,108 @@
   </si>
   <si>
     <t>Top 3</t>
+  </si>
+  <si>
+    <t>* p&lt;0.05</t>
+  </si>
+  <si>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="10"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+      </rPr>
+      <t>·</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+      </rPr>
+      <t xml:space="preserve"> </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <color theme="1"/>
+        <rFont val="Arial"/>
+        <family val="2"/>
+      </rPr>
+      <t>p&lt;0.10</t>
+    </r>
+  </si>
+  <si>
+    <t>** p&lt;0.01</t>
+  </si>
+  <si>
+    <t>*** p&lt;0.001</t>
+  </si>
+  <si>
+    <t>0.23**</t>
+  </si>
+  <si>
+    <t>-0.30***</t>
+  </si>
+  <si>
+    <t>0.22**</t>
+  </si>
+  <si>
+    <t>0.18*</t>
+  </si>
+  <si>
+    <t>Scaled Variable Estimates</t>
+  </si>
+  <si>
+    <t>0.45***</t>
+  </si>
+  <si>
+    <r>
+      <t xml:space="preserve">-0.15 </t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="9"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+      </rPr>
+      <t>·</t>
+    </r>
+  </si>
+  <si>
+    <t>NA</t>
+  </si>
+  <si>
+    <r>
+      <t xml:space="preserve">-0.14 </t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="9"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+      </rPr>
+      <t>·</t>
+    </r>
+  </si>
+  <si>
+    <t>Native persistence</t>
+  </si>
+  <si>
+    <t>Community Turnover</t>
+  </si>
+  <si>
+    <t>Glacial Relict Persistence</t>
+  </si>
+  <si>
+    <t>Glacial Relict Persistence + Colonization</t>
   </si>
 </sst>
 </file>
@@ -219,7 +322,7 @@
   <numFmts count="1">
     <numFmt numFmtId="164" formatCode="0.000"/>
   </numFmts>
-  <fonts count="11" x14ac:knownFonts="1">
+  <fonts count="15" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -296,6 +399,32 @@
       <family val="2"/>
       <scheme val="minor"/>
     </font>
+    <font>
+      <b/>
+      <sz val="9"/>
+      <color theme="1"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+    </font>
+    <font>
+      <sz val="10"/>
+      <color theme="1"/>
+      <name val="Arial"/>
+      <family val="2"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="10"/>
+      <color theme="1"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+    </font>
+    <font>
+      <sz val="10"/>
+      <color theme="1"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+    </font>
   </fonts>
   <fills count="4">
     <fill>
@@ -317,7 +446,7 @@
       </patternFill>
     </fill>
   </fills>
-  <borders count="8">
+  <borders count="11">
     <border>
       <left/>
       <right/>
@@ -400,11 +529,46 @@
       </bottom>
       <diagonal/>
     </border>
+    <border>
+      <left style="dotted">
+        <color indexed="64"/>
+      </left>
+      <right style="dotted">
+        <color indexed="64"/>
+      </right>
+      <top/>
+      <bottom style="thin">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top style="thin">
+        <color indexed="64"/>
+      </top>
+      <bottom/>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="dotted">
+        <color indexed="64"/>
+      </left>
+      <right style="dotted">
+        <color indexed="64"/>
+      </right>
+      <top style="thin">
+        <color indexed="64"/>
+      </top>
+      <bottom/>
+      <diagonal/>
+    </border>
   </borders>
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="81">
+  <cellXfs count="100">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
     <xf numFmtId="0" fontId="2" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
@@ -510,50 +674,11 @@
     <xf numFmtId="0" fontId="3" fillId="3" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="right"/>
     </xf>
-    <xf numFmtId="0" fontId="1" fillId="2" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
     <xf numFmtId="0" fontId="1" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="1" fillId="2" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="2" borderId="0" xfId="0" quotePrefix="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="2" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="2" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="2" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="2" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="1" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
@@ -576,6 +701,88 @@
     <xf numFmtId="2" fontId="3" fillId="3" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="3" fillId="3" borderId="0" xfId="0" quotePrefix="1" applyFont="1" applyFill="1" applyBorder="1"/>
     <xf numFmtId="164" fontId="5" fillId="3" borderId="5" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="12" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
+    <xf numFmtId="0" fontId="1" fillId="2" borderId="3" xfId="0" quotePrefix="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="2" fontId="1" fillId="2" borderId="3" xfId="0" quotePrefix="1" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="164" fontId="5" fillId="2" borderId="4" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="2" fontId="1" fillId="2" borderId="0" xfId="0" quotePrefix="1" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="2" borderId="8" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="1" fillId="2" borderId="9" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="2" borderId="9" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="2" borderId="9" xfId="0" quotePrefix="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="164" fontId="5" fillId="2" borderId="10" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="164" fontId="5" fillId="2" borderId="6" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="164" fontId="5" fillId="2" borderId="8" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="2" fontId="1" fillId="2" borderId="9" xfId="0" quotePrefix="1" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="2" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="2" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="2" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="2" borderId="0" xfId="0" quotePrefix="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="2" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="2" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="2" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="2" borderId="9" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
@@ -889,11 +1096,331 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{B852CC4F-2CE2-4E4F-BB13-FE41B647D1D5}">
+  <dimension ref="B2:I16"/>
+  <sheetViews>
+    <sheetView tabSelected="1" zoomScale="140" zoomScaleNormal="140" workbookViewId="0">
+      <selection activeCell="E27" sqref="E27"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
+  <cols>
+    <col min="1" max="1" width="8.7265625" style="31"/>
+    <col min="2" max="2" width="13.36328125" style="31" customWidth="1"/>
+    <col min="3" max="3" width="12.1796875" style="31" bestFit="1" customWidth="1"/>
+    <col min="4" max="16384" width="8.7265625" style="31"/>
+  </cols>
+  <sheetData>
+    <row r="2" spans="2:9" x14ac:dyDescent="0.35">
+      <c r="B2" s="84" t="s">
+        <v>2</v>
+      </c>
+      <c r="C2" s="84" t="s">
+        <v>4</v>
+      </c>
+      <c r="D2" s="86" t="s">
+        <v>69</v>
+      </c>
+      <c r="E2" s="86"/>
+      <c r="F2" s="86"/>
+      <c r="G2" s="86"/>
+      <c r="H2" s="86"/>
+      <c r="I2" s="27" t="s">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="3" spans="2:9" ht="15" thickBot="1" x14ac:dyDescent="0.4">
+      <c r="B3" s="85"/>
+      <c r="C3" s="85"/>
+      <c r="D3" s="5" t="s">
+        <v>6</v>
+      </c>
+      <c r="E3" s="5" t="s">
+        <v>52</v>
+      </c>
+      <c r="F3" s="5" t="s">
+        <v>8</v>
+      </c>
+      <c r="G3" s="5" t="s">
+        <v>9</v>
+      </c>
+      <c r="H3" s="5" t="s">
+        <v>10</v>
+      </c>
+      <c r="I3" s="28" t="s">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="4" spans="2:9" x14ac:dyDescent="0.35">
+      <c r="B4" s="91" t="s">
+        <v>74</v>
+      </c>
+      <c r="C4" s="15" t="s">
+        <v>19</v>
+      </c>
+      <c r="D4" s="70" t="s">
+        <v>66</v>
+      </c>
+      <c r="E4" s="34">
+        <v>0.02</v>
+      </c>
+      <c r="F4" s="15">
+        <v>0.03</v>
+      </c>
+      <c r="G4" s="71" t="s">
+        <v>65</v>
+      </c>
+      <c r="H4" s="15">
+        <v>-0.02</v>
+      </c>
+      <c r="I4" s="72">
+        <v>0.28799999999999998</v>
+      </c>
+    </row>
+    <row r="5" spans="2:9" x14ac:dyDescent="0.35">
+      <c r="B5" s="92"/>
+      <c r="C5" s="14" t="s">
+        <v>20</v>
+      </c>
+      <c r="D5" s="33" t="s">
+        <v>66</v>
+      </c>
+      <c r="E5" s="37"/>
+      <c r="F5" s="14"/>
+      <c r="G5" s="73" t="s">
+        <v>65</v>
+      </c>
+      <c r="H5" s="37"/>
+      <c r="I5" s="24">
+        <v>0.28699999999999998</v>
+      </c>
+    </row>
+    <row r="6" spans="2:9" x14ac:dyDescent="0.35">
+      <c r="B6" s="98"/>
+      <c r="C6" s="55" t="s">
+        <v>18</v>
+      </c>
+      <c r="D6" s="55"/>
+      <c r="E6" s="55"/>
+      <c r="F6" s="55"/>
+      <c r="G6" s="55"/>
+      <c r="H6" s="55"/>
+      <c r="I6" s="74">
+        <v>0.30199999999999999</v>
+      </c>
+    </row>
+    <row r="7" spans="2:9" x14ac:dyDescent="0.35">
+      <c r="B7" s="99" t="s">
+        <v>76</v>
+      </c>
+      <c r="C7" s="14" t="s">
+        <v>19</v>
+      </c>
+      <c r="D7" s="14">
+        <v>-0.13</v>
+      </c>
+      <c r="E7" s="14">
+        <v>-0.02</v>
+      </c>
+      <c r="F7" s="14">
+        <v>0.03</v>
+      </c>
+      <c r="G7" s="33" t="s">
+        <v>67</v>
+      </c>
+      <c r="H7" s="14">
+        <v>0.03</v>
+      </c>
+      <c r="I7" s="24">
+        <v>0.35399999999999998</v>
+      </c>
+    </row>
+    <row r="8" spans="2:9" x14ac:dyDescent="0.35">
+      <c r="B8" s="92"/>
+      <c r="C8" s="14" t="s">
+        <v>20</v>
+      </c>
+      <c r="D8" s="14"/>
+      <c r="E8" s="14"/>
+      <c r="F8" s="14"/>
+      <c r="G8" s="33" t="s">
+        <v>68</v>
+      </c>
+      <c r="H8" s="14"/>
+      <c r="I8" s="24">
+        <v>0.35499999999999998</v>
+      </c>
+    </row>
+    <row r="9" spans="2:9" x14ac:dyDescent="0.35">
+      <c r="B9" s="98"/>
+      <c r="C9" s="55" t="s">
+        <v>18</v>
+      </c>
+      <c r="D9" s="55"/>
+      <c r="E9" s="55"/>
+      <c r="F9" s="55"/>
+      <c r="G9" s="55"/>
+      <c r="H9" s="55"/>
+      <c r="I9" s="80">
+        <v>0.36</v>
+      </c>
+    </row>
+    <row r="10" spans="2:9" x14ac:dyDescent="0.35">
+      <c r="B10" s="92" t="s">
+        <v>77</v>
+      </c>
+      <c r="C10" s="53" t="s">
+        <v>19</v>
+      </c>
+      <c r="D10" s="14">
+        <v>-0.11</v>
+      </c>
+      <c r="E10" s="14">
+        <v>-0.03</v>
+      </c>
+      <c r="F10" s="14">
+        <v>0.06</v>
+      </c>
+      <c r="G10" s="33" t="s">
+        <v>67</v>
+      </c>
+      <c r="H10" s="14">
+        <v>0.01</v>
+      </c>
+      <c r="I10" s="24">
+        <v>0.313</v>
+      </c>
+    </row>
+    <row r="11" spans="2:9" x14ac:dyDescent="0.35">
+      <c r="B11" s="92"/>
+      <c r="C11" s="53" t="s">
+        <v>20</v>
+      </c>
+      <c r="D11" s="14">
+        <v>-0.39</v>
+      </c>
+      <c r="E11" s="14">
+        <v>-0.24</v>
+      </c>
+      <c r="F11" s="14"/>
+      <c r="G11" s="37">
+        <v>0.19</v>
+      </c>
+      <c r="H11" s="14"/>
+      <c r="I11" s="24">
+        <v>0.315</v>
+      </c>
+    </row>
+    <row r="12" spans="2:9" x14ac:dyDescent="0.35">
+      <c r="B12" s="92"/>
+      <c r="C12" s="14" t="s">
+        <v>18</v>
+      </c>
+      <c r="D12" s="14"/>
+      <c r="E12" s="14"/>
+      <c r="F12" s="14"/>
+      <c r="G12" s="14"/>
+      <c r="H12" s="14"/>
+      <c r="I12" s="58">
+        <v>0.32</v>
+      </c>
+    </row>
+    <row r="13" spans="2:9" x14ac:dyDescent="0.35">
+      <c r="B13" s="99" t="s">
+        <v>75</v>
+      </c>
+      <c r="C13" s="75" t="s">
+        <v>19</v>
+      </c>
+      <c r="D13" s="81" t="s">
+        <v>70</v>
+      </c>
+      <c r="E13" s="76">
+        <v>-0.01</v>
+      </c>
+      <c r="F13" s="76">
+        <v>-0.09</v>
+      </c>
+      <c r="G13" s="77" t="s">
+        <v>71</v>
+      </c>
+      <c r="H13" s="77" t="s">
+        <v>72</v>
+      </c>
+      <c r="I13" s="78">
+        <v>0.20399999999999999</v>
+      </c>
+    </row>
+    <row r="14" spans="2:9" x14ac:dyDescent="0.35">
+      <c r="B14" s="92"/>
+      <c r="C14" s="53" t="s">
+        <v>20</v>
+      </c>
+      <c r="D14" s="73" t="s">
+        <v>70</v>
+      </c>
+      <c r="E14" s="14"/>
+      <c r="F14" s="14"/>
+      <c r="G14" s="33" t="s">
+        <v>73</v>
+      </c>
+      <c r="H14" s="33"/>
+      <c r="I14" s="58">
+        <v>0.20399999999999999</v>
+      </c>
+    </row>
+    <row r="15" spans="2:9" ht="15" thickBot="1" x14ac:dyDescent="0.4">
+      <c r="B15" s="93"/>
+      <c r="C15" s="54" t="s">
+        <v>18</v>
+      </c>
+      <c r="D15" s="43"/>
+      <c r="E15" s="8"/>
+      <c r="F15" s="8"/>
+      <c r="G15" s="8"/>
+      <c r="H15" s="8"/>
+      <c r="I15" s="79">
+        <v>0.21099999999999999</v>
+      </c>
+    </row>
+    <row r="16" spans="2:9" x14ac:dyDescent="0.35">
+      <c r="B16" s="1"/>
+      <c r="C16" s="69" t="s">
+        <v>64</v>
+      </c>
+      <c r="D16" s="31" t="s">
+        <v>63</v>
+      </c>
+      <c r="E16" s="68" t="s">
+        <v>61</v>
+      </c>
+      <c r="F16" s="68" t="s">
+        <v>62</v>
+      </c>
+      <c r="H16" s="1"/>
+      <c r="I16" s="18"/>
+    </row>
+  </sheetData>
+  <mergeCells count="7">
+    <mergeCell ref="B13:B15"/>
+    <mergeCell ref="B4:B6"/>
+    <mergeCell ref="B10:B12"/>
+    <mergeCell ref="B2:B3"/>
+    <mergeCell ref="C2:C3"/>
+    <mergeCell ref="D2:H2"/>
+    <mergeCell ref="B7:B9"/>
+  </mergeCells>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageSetup orientation="portrait" r:id="rId1"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{EA6E7ADE-132E-4744-82A9-9CF107F05154}">
   <dimension ref="B2:K37"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScale="140" zoomScaleNormal="140" workbookViewId="0">
-      <selection activeCell="L16" sqref="L16"/>
+    <sheetView zoomScale="140" zoomScaleNormal="140" workbookViewId="0">
+      <selection activeCell="B2" sqref="B2:K37"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="11.5" x14ac:dyDescent="0.25"/>
@@ -911,34 +1438,34 @@
   </cols>
   <sheetData>
     <row r="2" spans="2:11" ht="14.5" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B2" s="60" t="s">
+      <c r="B2" s="84" t="s">
         <v>0</v>
       </c>
-      <c r="C2" s="60" t="s">
+      <c r="C2" s="84" t="s">
         <v>2</v>
       </c>
-      <c r="D2" s="60" t="s">
+      <c r="D2" s="84" t="s">
         <v>13</v>
       </c>
-      <c r="E2" s="60" t="s">
+      <c r="E2" s="84" t="s">
         <v>4</v>
       </c>
-      <c r="F2" s="59" t="s">
+      <c r="F2" s="86" t="s">
         <v>17</v>
       </c>
-      <c r="G2" s="59"/>
-      <c r="H2" s="59"/>
-      <c r="I2" s="59"/>
-      <c r="J2" s="59"/>
+      <c r="G2" s="86"/>
+      <c r="H2" s="86"/>
+      <c r="I2" s="86"/>
+      <c r="J2" s="86"/>
       <c r="K2" s="27" t="s">
         <v>11</v>
       </c>
     </row>
     <row r="3" spans="2:11" s="2" customFormat="1" ht="12" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="B3" s="61"/>
-      <c r="C3" s="61"/>
-      <c r="D3" s="61"/>
-      <c r="E3" s="61"/>
+      <c r="B3" s="85"/>
+      <c r="C3" s="85"/>
+      <c r="D3" s="85"/>
+      <c r="E3" s="85"/>
       <c r="F3" s="5" t="s">
         <v>6</v>
       </c>
@@ -959,7 +1486,7 @@
       </c>
     </row>
     <row r="4" spans="2:11" x14ac:dyDescent="0.25">
-      <c r="B4" s="53" t="s">
+      <c r="B4" s="82" t="s">
         <v>1</v>
       </c>
       <c r="C4" s="9" t="s">
@@ -991,7 +1518,7 @@
       </c>
     </row>
     <row r="5" spans="2:11" x14ac:dyDescent="0.25">
-      <c r="B5" s="54"/>
+      <c r="B5" s="83"/>
       <c r="C5" s="7" t="s">
         <v>16</v>
       </c>
@@ -1019,7 +1546,7 @@
       </c>
     </row>
     <row r="6" spans="2:11" x14ac:dyDescent="0.25">
-      <c r="B6" s="54"/>
+      <c r="B6" s="83"/>
       <c r="C6" s="29" t="s">
         <v>16</v>
       </c>
@@ -1039,7 +1566,7 @@
       </c>
     </row>
     <row r="7" spans="2:11" ht="12" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="B7" s="54"/>
+      <c r="B7" s="83"/>
       <c r="C7" s="3" t="s">
         <v>16</v>
       </c>
@@ -1055,7 +1582,7 @@
       <c r="G7" s="17">
         <v>-0.32</v>
       </c>
-      <c r="H7" s="69">
+      <c r="H7" s="56">
         <v>0.04</v>
       </c>
       <c r="I7" s="16">
@@ -1069,7 +1596,7 @@
       </c>
     </row>
     <row r="8" spans="2:11" x14ac:dyDescent="0.25">
-      <c r="B8" s="54"/>
+      <c r="B8" s="83"/>
       <c r="C8" s="7" t="s">
         <v>3</v>
       </c>
@@ -1099,7 +1626,7 @@
       </c>
     </row>
     <row r="9" spans="2:11" x14ac:dyDescent="0.25">
-      <c r="B9" s="54"/>
+      <c r="B9" s="83"/>
       <c r="C9" s="7" t="s">
         <v>3</v>
       </c>
@@ -1125,7 +1652,7 @@
       </c>
     </row>
     <row r="10" spans="2:11" x14ac:dyDescent="0.25">
-      <c r="B10" s="54"/>
+      <c r="B10" s="83"/>
       <c r="C10" s="7" t="s">
         <v>3</v>
       </c>
@@ -1147,7 +1674,7 @@
       </c>
     </row>
     <row r="11" spans="2:11" x14ac:dyDescent="0.25">
-      <c r="B11" s="54"/>
+      <c r="B11" s="83"/>
       <c r="C11" s="7" t="s">
         <v>3</v>
       </c>
@@ -1169,7 +1696,7 @@
       </c>
     </row>
     <row r="12" spans="2:11" ht="12" x14ac:dyDescent="0.3">
-      <c r="B12" s="54"/>
+      <c r="B12" s="83"/>
       <c r="C12" s="29" t="s">
         <v>3</v>
       </c>
@@ -1179,10 +1706,10 @@
       <c r="E12" s="30" t="s">
         <v>55</v>
       </c>
-      <c r="F12" s="70"/>
-      <c r="G12" s="70"/>
+      <c r="F12" s="57"/>
+      <c r="G12" s="57"/>
       <c r="H12" s="29"/>
-      <c r="I12" s="74" t="s">
+      <c r="I12" s="61" t="s">
         <v>57</v>
       </c>
       <c r="J12" s="29"/>
@@ -1191,7 +1718,7 @@
       </c>
     </row>
     <row r="13" spans="2:11" x14ac:dyDescent="0.25">
-      <c r="B13" s="54"/>
+      <c r="B13" s="83"/>
       <c r="C13" s="7" t="s">
         <v>3</v>
       </c>
@@ -1211,7 +1738,7 @@
       </c>
     </row>
     <row r="14" spans="2:11" ht="12" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="B14" s="54"/>
+      <c r="B14" s="83"/>
       <c r="C14" s="3" t="s">
         <v>3</v>
       </c>
@@ -1241,7 +1768,7 @@
       </c>
     </row>
     <row r="15" spans="2:11" ht="12" x14ac:dyDescent="0.3">
-      <c r="B15" s="54"/>
+      <c r="B15" s="83"/>
       <c r="C15" s="7" t="s">
         <v>58</v>
       </c>
@@ -1263,41 +1790,41 @@
       <c r="I15" s="12">
         <v>0.25</v>
       </c>
-      <c r="J15" s="75" t="s">
+      <c r="J15" s="62" t="s">
         <v>59</v>
       </c>
-      <c r="K15" s="71">
+      <c r="K15" s="58">
         <v>0.32</v>
       </c>
     </row>
     <row r="16" spans="2:11" x14ac:dyDescent="0.25">
-      <c r="B16" s="54"/>
+      <c r="B16" s="83"/>
       <c r="C16" s="29" t="s">
         <v>58</v>
       </c>
       <c r="D16" s="29" t="s">
         <v>14</v>
       </c>
-      <c r="E16" s="77" t="s">
+      <c r="E16" s="64" t="s">
         <v>60</v>
       </c>
-      <c r="F16" s="78">
+      <c r="F16" s="65">
         <v>-0.3</v>
       </c>
-      <c r="G16" s="70">
+      <c r="G16" s="57">
         <v>-0.25</v>
       </c>
-      <c r="H16" s="70"/>
-      <c r="I16" s="70">
+      <c r="H16" s="57"/>
+      <c r="I16" s="57">
         <v>0.24</v>
       </c>
-      <c r="J16" s="79"/>
-      <c r="K16" s="80">
+      <c r="J16" s="66"/>
+      <c r="K16" s="67">
         <v>0.30599999999999999</v>
       </c>
     </row>
     <row r="17" spans="2:11" x14ac:dyDescent="0.25">
-      <c r="B17" s="54"/>
+      <c r="B17" s="83"/>
       <c r="C17" s="7" t="s">
         <v>58</v>
       </c>
@@ -1314,12 +1841,12 @@
       <c r="H17" s="7"/>
       <c r="I17" s="12"/>
       <c r="J17" s="7"/>
-      <c r="K17" s="71">
+      <c r="K17" s="58">
         <v>0.311</v>
       </c>
     </row>
     <row r="18" spans="2:11" x14ac:dyDescent="0.25">
-      <c r="B18" s="54"/>
+      <c r="B18" s="83"/>
       <c r="C18" s="7"/>
       <c r="D18" s="7"/>
       <c r="E18" s="49" t="s">
@@ -1337,7 +1864,7 @@
       </c>
     </row>
     <row r="19" spans="2:11" x14ac:dyDescent="0.25">
-      <c r="B19" s="54"/>
+      <c r="B19" s="83"/>
       <c r="C19" s="7"/>
       <c r="D19" s="7"/>
       <c r="E19" s="49" t="s">
@@ -1355,7 +1882,7 @@
       </c>
     </row>
     <row r="20" spans="2:11" x14ac:dyDescent="0.25">
-      <c r="B20" s="54"/>
+      <c r="B20" s="83"/>
       <c r="C20" s="7"/>
       <c r="D20" s="7"/>
       <c r="E20" s="49" t="s">
@@ -1373,7 +1900,7 @@
       </c>
     </row>
     <row r="21" spans="2:11" x14ac:dyDescent="0.25">
-      <c r="B21" s="54"/>
+      <c r="B21" s="83"/>
       <c r="C21" s="7"/>
       <c r="D21" s="7"/>
       <c r="E21" s="49" t="s">
@@ -1391,7 +1918,7 @@
       </c>
     </row>
     <row r="22" spans="2:11" x14ac:dyDescent="0.25">
-      <c r="B22" s="54"/>
+      <c r="B22" s="83"/>
       <c r="C22" s="7"/>
       <c r="D22" s="7"/>
       <c r="E22" s="49" t="s">
@@ -1407,7 +1934,7 @@
       </c>
     </row>
     <row r="23" spans="2:11" ht="12" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="B23" s="55"/>
+      <c r="B23" s="87"/>
       <c r="C23" s="3"/>
       <c r="D23" s="3"/>
       <c r="E23" s="3"/>
@@ -1419,7 +1946,7 @@
       <c r="K23" s="25"/>
     </row>
     <row r="24" spans="2:11" x14ac:dyDescent="0.25">
-      <c r="B24" s="54" t="s">
+      <c r="B24" s="83" t="s">
         <v>12</v>
       </c>
       <c r="C24" s="20" t="s">
@@ -1451,7 +1978,7 @@
       </c>
     </row>
     <row r="25" spans="2:11" ht="14.5" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="B25" s="56"/>
+      <c r="B25" s="88"/>
       <c r="C25" s="1" t="s">
         <v>16</v>
       </c>
@@ -1461,17 +1988,17 @@
       <c r="E25" s="14" t="s">
         <v>18</v>
       </c>
-      <c r="F25" s="57" t="s">
+      <c r="F25" s="89" t="s">
         <v>22</v>
       </c>
-      <c r="G25" s="58"/>
-      <c r="H25" s="58"/>
-      <c r="I25" s="58"/>
-      <c r="J25" s="58"/>
-      <c r="K25" s="58"/>
+      <c r="G25" s="90"/>
+      <c r="H25" s="90"/>
+      <c r="I25" s="90"/>
+      <c r="J25" s="90"/>
+      <c r="K25" s="90"/>
     </row>
     <row r="26" spans="2:11" ht="14.5" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="B26" s="56"/>
+      <c r="B26" s="88"/>
       <c r="C26" s="1" t="s">
         <v>16</v>
       </c>
@@ -1481,17 +2008,17 @@
       <c r="E26" s="14" t="s">
         <v>20</v>
       </c>
-      <c r="F26" s="57" t="s">
+      <c r="F26" s="89" t="s">
         <v>22</v>
       </c>
-      <c r="G26" s="58"/>
-      <c r="H26" s="58"/>
-      <c r="I26" s="58"/>
-      <c r="J26" s="58"/>
-      <c r="K26" s="58"/>
+      <c r="G26" s="90"/>
+      <c r="H26" s="90"/>
+      <c r="I26" s="90"/>
+      <c r="J26" s="90"/>
+      <c r="K26" s="90"/>
     </row>
     <row r="27" spans="2:11" ht="14.5" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B27" s="56"/>
+      <c r="B27" s="88"/>
       <c r="C27" s="1" t="s">
         <v>16</v>
       </c>
@@ -1511,7 +2038,7 @@
       </c>
     </row>
     <row r="28" spans="2:11" ht="14.5" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="B28" s="56"/>
+      <c r="B28" s="88"/>
       <c r="C28" s="3" t="s">
         <v>16</v>
       </c>
@@ -1527,7 +2054,7 @@
       <c r="G28" s="3">
         <v>0.12</v>
       </c>
-      <c r="H28" s="76" t="s">
+      <c r="H28" s="63" t="s">
         <v>21</v>
       </c>
       <c r="I28" s="3">
@@ -1541,7 +2068,7 @@
       </c>
     </row>
     <row r="29" spans="2:11" ht="14.5" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="B29" s="56"/>
+      <c r="B29" s="88"/>
       <c r="C29" s="1" t="s">
         <v>3</v>
       </c>
@@ -1571,7 +2098,7 @@
       </c>
     </row>
     <row r="30" spans="2:11" ht="14.5" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B30" s="56"/>
+      <c r="B30" s="88"/>
       <c r="C30" s="1" t="s">
         <v>3</v>
       </c>
@@ -1589,7 +2116,7 @@
       </c>
     </row>
     <row r="31" spans="2:11" ht="14.5" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B31" s="56"/>
+      <c r="B31" s="88"/>
       <c r="C31" s="20" t="s">
         <v>3</v>
       </c>
@@ -1611,7 +2138,7 @@
       </c>
     </row>
     <row r="32" spans="2:11" ht="14.5" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B32" s="56"/>
+      <c r="B32" s="88"/>
       <c r="C32" s="1" t="s">
         <v>3</v>
       </c>
@@ -1629,7 +2156,7 @@
       </c>
     </row>
     <row r="33" spans="2:11" ht="14.5" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B33" s="56"/>
+      <c r="B33" s="88"/>
       <c r="C33" s="1" t="s">
         <v>3</v>
       </c>
@@ -1647,7 +2174,7 @@
       </c>
     </row>
     <row r="34" spans="2:11" ht="14.5" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B34" s="56"/>
+      <c r="B34" s="88"/>
       <c r="C34" s="1" t="s">
         <v>3</v>
       </c>
@@ -1665,7 +2192,7 @@
       </c>
     </row>
     <row r="35" spans="2:11" ht="14.5" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B35" s="56"/>
+      <c r="B35" s="88"/>
       <c r="C35" s="1" t="s">
         <v>3</v>
       </c>
@@ -1680,7 +2207,7 @@
       </c>
     </row>
     <row r="36" spans="2:11" ht="15" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="B36" s="55"/>
+      <c r="B36" s="87"/>
       <c r="C36" s="3" t="s">
         <v>3</v>
       </c>
@@ -1731,7 +2258,7 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{87855ADF-ED4A-441E-AB56-65EE09C67C1B}">
   <dimension ref="A1:J19"/>
   <sheetViews>
@@ -1750,30 +2277,30 @@
   <sheetData>
     <row r="1" spans="1:10" ht="20.5" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A1" s="1"/>
-      <c r="B1" s="60" t="s">
+      <c r="B1" s="84" t="s">
         <v>0</v>
       </c>
-      <c r="C1" s="60" t="s">
+      <c r="C1" s="84" t="s">
         <v>25</v>
       </c>
-      <c r="D1" s="68" t="s">
+      <c r="D1" s="97" t="s">
         <v>17</v>
       </c>
-      <c r="E1" s="68"/>
-      <c r="F1" s="68"/>
-      <c r="G1" s="68"/>
-      <c r="H1" s="68"/>
+      <c r="E1" s="97"/>
+      <c r="F1" s="97"/>
+      <c r="G1" s="97"/>
+      <c r="H1" s="97"/>
       <c r="I1" s="27" t="s">
         <v>11</v>
       </c>
-      <c r="J1" s="66" t="s">
+      <c r="J1" s="95" t="s">
         <v>50</v>
       </c>
     </row>
     <row r="2" spans="1:10" ht="19" customHeight="1" thickBot="1" x14ac:dyDescent="0.4">
       <c r="A2" s="2"/>
-      <c r="B2" s="61"/>
-      <c r="C2" s="61"/>
+      <c r="B2" s="85"/>
+      <c r="C2" s="85"/>
       <c r="D2" s="5" t="s">
         <v>6</v>
       </c>
@@ -1792,11 +2319,11 @@
       <c r="I2" s="28" t="s">
         <v>5</v>
       </c>
-      <c r="J2" s="67"/>
+      <c r="J2" s="96"/>
     </row>
     <row r="3" spans="1:10" x14ac:dyDescent="0.35">
       <c r="A3" s="1"/>
-      <c r="B3" s="62" t="s">
+      <c r="B3" s="91" t="s">
         <v>23</v>
       </c>
       <c r="C3" s="9" t="s">
@@ -1826,7 +2353,7 @@
     </row>
     <row r="4" spans="1:10" x14ac:dyDescent="0.35">
       <c r="A4" s="1"/>
-      <c r="B4" s="63"/>
+      <c r="B4" s="92"/>
       <c r="C4" s="7" t="s">
         <v>27</v>
       </c>
@@ -1854,7 +2381,7 @@
     </row>
     <row r="5" spans="1:10" x14ac:dyDescent="0.35">
       <c r="A5" s="1"/>
-      <c r="B5" s="63"/>
+      <c r="B5" s="92"/>
       <c r="C5" s="7" t="s">
         <v>29</v>
       </c>
@@ -1882,7 +2409,7 @@
     </row>
     <row r="6" spans="1:10" x14ac:dyDescent="0.35">
       <c r="A6" s="1"/>
-      <c r="B6" s="63"/>
+      <c r="B6" s="92"/>
       <c r="C6" s="7" t="s">
         <v>32</v>
       </c>
@@ -1910,7 +2437,7 @@
     </row>
     <row r="7" spans="1:10" x14ac:dyDescent="0.35">
       <c r="A7" s="1"/>
-      <c r="B7" s="63"/>
+      <c r="B7" s="92"/>
       <c r="C7" s="7" t="s">
         <v>28</v>
       </c>
@@ -1938,7 +2465,7 @@
     </row>
     <row r="8" spans="1:10" x14ac:dyDescent="0.35">
       <c r="A8" s="1"/>
-      <c r="B8" s="63"/>
+      <c r="B8" s="92"/>
       <c r="C8" s="7" t="s">
         <v>33</v>
       </c>
@@ -1966,7 +2493,7 @@
     </row>
     <row r="9" spans="1:10" x14ac:dyDescent="0.35">
       <c r="A9" s="1"/>
-      <c r="B9" s="63"/>
+      <c r="B9" s="92"/>
       <c r="C9" s="7" t="s">
         <v>34</v>
       </c>
@@ -1994,7 +2521,7 @@
     </row>
     <row r="10" spans="1:10" x14ac:dyDescent="0.35">
       <c r="A10" s="1"/>
-      <c r="B10" s="63"/>
+      <c r="B10" s="92"/>
       <c r="C10" s="7" t="s">
         <v>35</v>
       </c>
@@ -2022,7 +2549,7 @@
     </row>
     <row r="11" spans="1:10" x14ac:dyDescent="0.35">
       <c r="A11" s="1"/>
-      <c r="B11" s="63"/>
+      <c r="B11" s="92"/>
       <c r="C11" s="7" t="s">
         <v>36</v>
       </c>
@@ -2050,7 +2577,7 @@
     </row>
     <row r="12" spans="1:10" x14ac:dyDescent="0.35">
       <c r="A12" s="1"/>
-      <c r="B12" s="63"/>
+      <c r="B12" s="92"/>
       <c r="C12" s="7" t="s">
         <v>37</v>
       </c>
@@ -2078,7 +2605,7 @@
     </row>
     <row r="13" spans="1:10" x14ac:dyDescent="0.35">
       <c r="A13" s="1"/>
-      <c r="B13" s="63"/>
+      <c r="B13" s="92"/>
       <c r="C13" s="7" t="s">
         <v>38</v>
       </c>
@@ -2106,7 +2633,7 @@
     </row>
     <row r="14" spans="1:10" x14ac:dyDescent="0.35">
       <c r="A14" s="1"/>
-      <c r="B14" s="63"/>
+      <c r="B14" s="92"/>
       <c r="C14" s="7" t="s">
         <v>39</v>
       </c>
@@ -2134,7 +2661,7 @@
     </row>
     <row r="15" spans="1:10" ht="15" thickBot="1" x14ac:dyDescent="0.4">
       <c r="A15" s="1"/>
-      <c r="B15" s="64"/>
+      <c r="B15" s="93"/>
       <c r="C15" s="3" t="s">
         <v>40</v>
       </c>
@@ -2162,7 +2689,7 @@
     </row>
     <row r="16" spans="1:10" x14ac:dyDescent="0.35">
       <c r="A16" s="1"/>
-      <c r="B16" s="63" t="s">
+      <c r="B16" s="92" t="s">
         <v>24</v>
       </c>
       <c r="C16" s="1" t="s">
@@ -2192,7 +2719,7 @@
     </row>
     <row r="17" spans="1:10" x14ac:dyDescent="0.35">
       <c r="A17" s="1"/>
-      <c r="B17" s="65"/>
+      <c r="B17" s="94"/>
       <c r="C17" s="1" t="s">
         <v>48</v>
       </c>
@@ -2220,7 +2747,7 @@
     </row>
     <row r="18" spans="1:10" ht="15" thickBot="1" x14ac:dyDescent="0.4">
       <c r="A18" s="1"/>
-      <c r="B18" s="64"/>
+      <c r="B18" s="93"/>
       <c r="C18" s="3" t="s">
         <v>49</v>
       </c>
@@ -2273,7 +2800,7 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{F2250B7D-9F75-4DA5-AA11-D7AC86DFF8BF}">
   <dimension ref="C3:I3"/>
   <sheetViews>
@@ -2291,13 +2818,13 @@
   </cols>
   <sheetData>
     <row r="3" spans="3:9" x14ac:dyDescent="0.35">
-      <c r="C3" s="72"/>
-      <c r="D3" s="72"/>
-      <c r="E3" s="72"/>
-      <c r="F3" s="73"/>
-      <c r="G3" s="72"/>
-      <c r="H3" s="72"/>
-      <c r="I3" s="72"/>
+      <c r="C3" s="59"/>
+      <c r="D3" s="59"/>
+      <c r="E3" s="59"/>
+      <c r="F3" s="60"/>
+      <c r="G3" s="59"/>
+      <c r="H3" s="59"/>
+      <c r="I3" s="59"/>
     </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>

--- a/persistenceModelSummaries.xlsx
+++ b/persistenceModelSummaries.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\nclancy1\Desktop\persistence\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{F3B03B3E-B7D9-4EC5-8205-8592BFB7DEED}" xr6:coauthVersionLast="36" xr6:coauthVersionMax="36" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{F6648D89-77F3-4721-877A-B0F7D3F97B41}" xr6:coauthVersionLast="36" xr6:coauthVersionMax="36" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="0" yWindow="0" windowWidth="28780" windowHeight="11880" xr2:uid="{5449A4E9-FD86-4181-A72B-A8CD9429038C}"/>
   </bookViews>
@@ -28,7 +28,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="186" uniqueCount="78">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="179" uniqueCount="81">
   <si>
     <t>Basin</t>
   </si>
@@ -216,36 +216,6 @@
     <t>* p&lt;0.05</t>
   </si>
   <si>
-    <r>
-      <rPr>
-        <b/>
-        <sz val="10"/>
-        <color theme="1"/>
-        <rFont val="Calibri"/>
-        <family val="2"/>
-      </rPr>
-      <t>·</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="10"/>
-        <color theme="1"/>
-        <rFont val="Calibri"/>
-        <family val="2"/>
-      </rPr>
-      <t xml:space="preserve"> </t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="10"/>
-        <color theme="1"/>
-        <rFont val="Arial"/>
-        <family val="2"/>
-      </rPr>
-      <t>p&lt;0.10</t>
-    </r>
-  </si>
-  <si>
     <t>** p&lt;0.01</t>
   </si>
   <si>
@@ -258,51 +228,12 @@
     <t>-0.30***</t>
   </si>
   <si>
-    <t>0.22**</t>
-  </si>
-  <si>
-    <t>0.18*</t>
-  </si>
-  <si>
     <t>Scaled Variable Estimates</t>
   </si>
   <si>
-    <t>0.45***</t>
-  </si>
-  <si>
-    <r>
-      <t xml:space="preserve">-0.15 </t>
-    </r>
-    <r>
-      <rPr>
-        <b/>
-        <sz val="9"/>
-        <color theme="1"/>
-        <rFont val="Calibri"/>
-        <family val="2"/>
-      </rPr>
-      <t>·</t>
-    </r>
-  </si>
-  <si>
     <t>NA</t>
   </si>
   <si>
-    <r>
-      <t xml:space="preserve">-0.14 </t>
-    </r>
-    <r>
-      <rPr>
-        <b/>
-        <sz val="9"/>
-        <color theme="1"/>
-        <rFont val="Calibri"/>
-        <family val="2"/>
-      </rPr>
-      <t>·</t>
-    </r>
-  </si>
-  <si>
     <t>Native persistence</t>
   </si>
   <si>
@@ -312,7 +243,34 @@
     <t>Glacial Relict Persistence</t>
   </si>
   <si>
-    <t>Glacial Relict Persistence + Colonization</t>
+    <t>WaterPerm</t>
+  </si>
+  <si>
+    <t>-0.27*</t>
+  </si>
+  <si>
+    <t>-0.20</t>
+  </si>
+  <si>
+    <t>-0.11</t>
+  </si>
+  <si>
+    <t>-0.04</t>
+  </si>
+  <si>
+    <t>-0.14</t>
+  </si>
+  <si>
+    <t>0.46***</t>
+  </si>
+  <si>
+    <t>-0.15**</t>
+  </si>
+  <si>
+    <t>-0.05</t>
+  </si>
+  <si>
+    <t>-0.18*</t>
   </si>
 </sst>
 </file>
@@ -322,7 +280,7 @@
   <numFmts count="1">
     <numFmt numFmtId="164" formatCode="0.000"/>
   </numFmts>
-  <fonts count="15" x14ac:knownFonts="1">
+  <fonts count="12" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -400,29 +358,9 @@
       <scheme val="minor"/>
     </font>
     <font>
-      <b/>
-      <sz val="9"/>
-      <color theme="1"/>
-      <name val="Calibri"/>
-      <family val="2"/>
-    </font>
-    <font>
       <sz val="10"/>
       <color theme="1"/>
       <name val="Arial"/>
-      <family val="2"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="10"/>
-      <color theme="1"/>
-      <name val="Calibri"/>
-      <family val="2"/>
-    </font>
-    <font>
-      <sz val="10"/>
-      <color theme="1"/>
-      <name val="Calibri"/>
       <family val="2"/>
     </font>
   </fonts>
@@ -568,7 +506,7 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="100">
+  <cellXfs count="99">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
     <xf numFmtId="0" fontId="2" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
@@ -673,9 +611,6 @@
     <xf numFmtId="0" fontId="4" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
     <xf numFmtId="0" fontId="3" fillId="3" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="right"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="1" fillId="2" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
@@ -701,7 +636,7 @@
     <xf numFmtId="2" fontId="3" fillId="3" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="3" fillId="3" borderId="0" xfId="0" quotePrefix="1" applyFont="1" applyFill="1" applyBorder="1"/>
     <xf numFmtId="164" fontId="5" fillId="3" borderId="5" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="12" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
+    <xf numFmtId="0" fontId="11" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
     <xf numFmtId="0" fontId="0" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
     <xf numFmtId="0" fontId="1" fillId="2" borderId="3" xfId="0" quotePrefix="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
@@ -710,9 +645,6 @@
       <alignment horizontal="center"/>
     </xf>
     <xf numFmtId="164" fontId="5" fillId="2" borderId="4" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="2" fontId="1" fillId="2" borderId="0" xfId="0" quotePrefix="1" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
     <xf numFmtId="0" fontId="5" fillId="2" borderId="8" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="1" fillId="2" borderId="9" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
@@ -729,21 +661,39 @@
     <xf numFmtId="2" fontId="1" fillId="2" borderId="9" xfId="0" quotePrefix="1" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
+    <xf numFmtId="0" fontId="1" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="2" borderId="9" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="2" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="2" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="2" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
     <xf numFmtId="0" fontId="1" fillId="2" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="1" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="2" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
     <xf numFmtId="0" fontId="1" fillId="2" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
@@ -756,15 +706,6 @@
     <xf numFmtId="0" fontId="4" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="1" fillId="2" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="2" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
     <xf numFmtId="0" fontId="1" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
@@ -776,12 +717,6 @@
     </xf>
     <xf numFmtId="0" fontId="1" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="2" borderId="9" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
   </cellXfs>
   <cellStyles count="1">
@@ -1097,10 +1032,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{B852CC4F-2CE2-4E4F-BB13-FE41B647D1D5}">
-  <dimension ref="B2:I16"/>
+  <dimension ref="B2:J10"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScale="140" zoomScaleNormal="140" workbookViewId="0">
-      <selection activeCell="E27" sqref="E27"/>
+      <selection activeCell="B20" sqref="B20"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
@@ -1108,30 +1043,33 @@
     <col min="1" max="1" width="8.7265625" style="31"/>
     <col min="2" max="2" width="13.36328125" style="31" customWidth="1"/>
     <col min="3" max="3" width="12.1796875" style="31" bestFit="1" customWidth="1"/>
-    <col min="4" max="16384" width="8.7265625" style="31"/>
+    <col min="4" max="5" width="8.7265625" style="31"/>
+    <col min="6" max="6" width="9.7265625" style="31" bestFit="1" customWidth="1"/>
+    <col min="7" max="16384" width="8.7265625" style="31"/>
   </cols>
   <sheetData>
-    <row r="2" spans="2:9" x14ac:dyDescent="0.35">
-      <c r="B2" s="84" t="s">
+    <row r="2" spans="2:10" x14ac:dyDescent="0.35">
+      <c r="B2" s="86" t="s">
         <v>2</v>
       </c>
-      <c r="C2" s="84" t="s">
+      <c r="C2" s="86" t="s">
         <v>4</v>
       </c>
-      <c r="D2" s="86" t="s">
-        <v>69</v>
-      </c>
-      <c r="E2" s="86"/>
-      <c r="F2" s="86"/>
-      <c r="G2" s="86"/>
-      <c r="H2" s="86"/>
-      <c r="I2" s="27" t="s">
+      <c r="D2" s="88" t="s">
+        <v>66</v>
+      </c>
+      <c r="E2" s="88"/>
+      <c r="F2" s="88"/>
+      <c r="G2" s="88"/>
+      <c r="H2" s="88"/>
+      <c r="I2" s="88"/>
+      <c r="J2" s="27" t="s">
         <v>11</v>
       </c>
     </row>
-    <row r="3" spans="2:9" ht="15" thickBot="1" x14ac:dyDescent="0.4">
-      <c r="B3" s="85"/>
-      <c r="C3" s="85"/>
+    <row r="3" spans="2:10" ht="15" thickBot="1" x14ac:dyDescent="0.4">
+      <c r="B3" s="87"/>
+      <c r="C3" s="87"/>
       <c r="D3" s="5" t="s">
         <v>6</v>
       </c>
@@ -1139,276 +1077,177 @@
         <v>52</v>
       </c>
       <c r="F3" s="5" t="s">
+        <v>71</v>
+      </c>
+      <c r="G3" s="5" t="s">
         <v>8</v>
       </c>
-      <c r="G3" s="5" t="s">
+      <c r="H3" s="5" t="s">
         <v>9</v>
       </c>
-      <c r="H3" s="5" t="s">
+      <c r="I3" s="5" t="s">
         <v>10</v>
       </c>
-      <c r="I3" s="28" t="s">
+      <c r="J3" s="28" t="s">
         <v>5</v>
       </c>
     </row>
-    <row r="4" spans="2:9" x14ac:dyDescent="0.35">
-      <c r="B4" s="91" t="s">
-        <v>74</v>
+    <row r="4" spans="2:10" x14ac:dyDescent="0.35">
+      <c r="B4" s="84" t="s">
+        <v>68</v>
       </c>
       <c r="C4" s="15" t="s">
         <v>19</v>
       </c>
-      <c r="D4" s="70" t="s">
-        <v>66</v>
+      <c r="D4" s="69" t="s">
+        <v>65</v>
       </c>
       <c r="E4" s="34">
+        <v>0.03</v>
+      </c>
+      <c r="F4" s="34">
+        <v>7.0000000000000007E-2</v>
+      </c>
+      <c r="G4" s="15">
         <v>0.02</v>
       </c>
-      <c r="F4" s="15">
-        <v>0.03</v>
-      </c>
-      <c r="G4" s="71" t="s">
-        <v>65</v>
-      </c>
-      <c r="H4" s="15">
-        <v>-0.02</v>
-      </c>
-      <c r="I4" s="72">
-        <v>0.28799999999999998</v>
-      </c>
-    </row>
-    <row r="5" spans="2:9" x14ac:dyDescent="0.35">
-      <c r="B5" s="92"/>
-      <c r="C5" s="14" t="s">
-        <v>20</v>
-      </c>
-      <c r="D5" s="33" t="s">
-        <v>66</v>
-      </c>
-      <c r="E5" s="37"/>
-      <c r="F5" s="14"/>
-      <c r="G5" s="73" t="s">
-        <v>65</v>
-      </c>
-      <c r="H5" s="37"/>
-      <c r="I5" s="24">
+      <c r="H4" s="70" t="s">
+        <v>64</v>
+      </c>
+      <c r="I4" s="15">
+        <v>-0.04</v>
+      </c>
+      <c r="J4" s="71">
         <v>0.28699999999999998</v>
       </c>
     </row>
-    <row r="6" spans="2:9" x14ac:dyDescent="0.35">
-      <c r="B6" s="98"/>
-      <c r="C6" s="55" t="s">
+    <row r="5" spans="2:10" x14ac:dyDescent="0.35">
+      <c r="B5" s="85"/>
+      <c r="C5" s="54" t="s">
         <v>18</v>
       </c>
-      <c r="D6" s="55"/>
-      <c r="E6" s="55"/>
-      <c r="F6" s="55"/>
-      <c r="G6" s="55"/>
-      <c r="H6" s="55"/>
-      <c r="I6" s="74">
+      <c r="D5" s="54"/>
+      <c r="E5" s="54"/>
+      <c r="F5" s="80"/>
+      <c r="G5" s="54"/>
+      <c r="H5" s="54"/>
+      <c r="I5" s="54"/>
+      <c r="J5" s="72">
         <v>0.30199999999999999</v>
       </c>
     </row>
-    <row r="7" spans="2:9" x14ac:dyDescent="0.35">
-      <c r="B7" s="99" t="s">
+    <row r="6" spans="2:10" x14ac:dyDescent="0.35">
+      <c r="B6" s="81" t="s">
+        <v>70</v>
+      </c>
+      <c r="C6" s="14" t="s">
+        <v>19</v>
+      </c>
+      <c r="D6" s="33" t="s">
+        <v>72</v>
+      </c>
+      <c r="E6" s="14">
+        <v>0.06</v>
+      </c>
+      <c r="F6" s="33" t="s">
+        <v>74</v>
+      </c>
+      <c r="G6" s="33" t="s">
+        <v>73</v>
+      </c>
+      <c r="H6" s="33" t="s">
+        <v>75</v>
+      </c>
+      <c r="I6" s="33" t="s">
         <v>76</v>
       </c>
-      <c r="C7" s="14" t="s">
+      <c r="J6" s="24">
+        <v>0.439</v>
+      </c>
+    </row>
+    <row r="7" spans="2:10" x14ac:dyDescent="0.35">
+      <c r="B7" s="85"/>
+      <c r="C7" s="54" t="s">
+        <v>18</v>
+      </c>
+      <c r="D7" s="54"/>
+      <c r="E7" s="54"/>
+      <c r="F7" s="80"/>
+      <c r="G7" s="54"/>
+      <c r="H7" s="54"/>
+      <c r="I7" s="54"/>
+      <c r="J7" s="78">
+        <v>0.46</v>
+      </c>
+    </row>
+    <row r="8" spans="2:10" x14ac:dyDescent="0.35">
+      <c r="B8" s="81" t="s">
+        <v>69</v>
+      </c>
+      <c r="C8" s="73" t="s">
         <v>19</v>
       </c>
-      <c r="D7" s="14">
-        <v>-0.13</v>
-      </c>
-      <c r="E7" s="14">
-        <v>-0.02</v>
-      </c>
-      <c r="F7" s="14">
-        <v>0.03</v>
-      </c>
-      <c r="G7" s="33" t="s">
+      <c r="D8" s="79" t="s">
+        <v>77</v>
+      </c>
+      <c r="E8" s="74">
+        <v>3.0000000000000001E-3</v>
+      </c>
+      <c r="F8" s="75" t="s">
+        <v>78</v>
+      </c>
+      <c r="G8" s="75" t="s">
+        <v>79</v>
+      </c>
+      <c r="H8" s="75" t="s">
+        <v>80</v>
+      </c>
+      <c r="I8" s="75" t="s">
         <v>67</v>
       </c>
-      <c r="H7" s="14">
-        <v>0.03</v>
-      </c>
-      <c r="I7" s="24">
-        <v>0.35399999999999998</v>
-      </c>
-    </row>
-    <row r="8" spans="2:9" x14ac:dyDescent="0.35">
-      <c r="B8" s="92"/>
-      <c r="C8" s="14" t="s">
-        <v>20</v>
-      </c>
-      <c r="D8" s="14"/>
-      <c r="E8" s="14"/>
-      <c r="F8" s="14"/>
-      <c r="G8" s="33" t="s">
-        <v>68</v>
-      </c>
-      <c r="H8" s="14"/>
-      <c r="I8" s="24">
-        <v>0.35499999999999998</v>
-      </c>
-    </row>
-    <row r="9" spans="2:9" x14ac:dyDescent="0.35">
-      <c r="B9" s="98"/>
-      <c r="C9" s="55" t="s">
+      <c r="J8" s="76">
+        <v>0.20699999999999999</v>
+      </c>
+    </row>
+    <row r="9" spans="2:10" ht="15" thickBot="1" x14ac:dyDescent="0.4">
+      <c r="B9" s="83"/>
+      <c r="C9" s="53" t="s">
         <v>18</v>
       </c>
-      <c r="D9" s="55"/>
-      <c r="E9" s="55"/>
-      <c r="F9" s="55"/>
-      <c r="G9" s="55"/>
-      <c r="H9" s="55"/>
-      <c r="I9" s="80">
-        <v>0.36</v>
-      </c>
-    </row>
-    <row r="10" spans="2:9" x14ac:dyDescent="0.35">
-      <c r="B10" s="92" t="s">
-        <v>77</v>
-      </c>
-      <c r="C10" s="53" t="s">
-        <v>19</v>
-      </c>
-      <c r="D10" s="14">
-        <v>-0.11</v>
-      </c>
-      <c r="E10" s="14">
-        <v>-0.03</v>
-      </c>
-      <c r="F10" s="14">
-        <v>0.06</v>
-      </c>
-      <c r="G10" s="33" t="s">
-        <v>67</v>
-      </c>
-      <c r="H10" s="14">
-        <v>0.01</v>
-      </c>
-      <c r="I10" s="24">
-        <v>0.313</v>
-      </c>
-    </row>
-    <row r="11" spans="2:9" x14ac:dyDescent="0.35">
-      <c r="B11" s="92"/>
-      <c r="C11" s="53" t="s">
-        <v>20</v>
-      </c>
-      <c r="D11" s="14">
-        <v>-0.39</v>
-      </c>
-      <c r="E11" s="14">
-        <v>-0.24</v>
-      </c>
-      <c r="F11" s="14"/>
-      <c r="G11" s="37">
-        <v>0.19</v>
-      </c>
-      <c r="H11" s="14"/>
-      <c r="I11" s="24">
-        <v>0.315</v>
-      </c>
-    </row>
-    <row r="12" spans="2:9" x14ac:dyDescent="0.35">
-      <c r="B12" s="92"/>
-      <c r="C12" s="14" t="s">
-        <v>18</v>
-      </c>
-      <c r="D12" s="14"/>
-      <c r="E12" s="14"/>
-      <c r="F12" s="14"/>
-      <c r="G12" s="14"/>
-      <c r="H12" s="14"/>
-      <c r="I12" s="58">
-        <v>0.32</v>
-      </c>
-    </row>
-    <row r="13" spans="2:9" x14ac:dyDescent="0.35">
-      <c r="B13" s="99" t="s">
-        <v>75</v>
-      </c>
-      <c r="C13" s="75" t="s">
-        <v>19</v>
-      </c>
-      <c r="D13" s="81" t="s">
-        <v>70</v>
-      </c>
-      <c r="E13" s="76">
-        <v>-0.01</v>
-      </c>
-      <c r="F13" s="76">
-        <v>-0.09</v>
-      </c>
-      <c r="G13" s="77" t="s">
-        <v>71</v>
-      </c>
-      <c r="H13" s="77" t="s">
-        <v>72</v>
-      </c>
-      <c r="I13" s="78">
-        <v>0.20399999999999999</v>
-      </c>
-    </row>
-    <row r="14" spans="2:9" x14ac:dyDescent="0.35">
-      <c r="B14" s="92"/>
-      <c r="C14" s="53" t="s">
-        <v>20</v>
-      </c>
-      <c r="D14" s="73" t="s">
-        <v>70</v>
-      </c>
-      <c r="E14" s="14"/>
-      <c r="F14" s="14"/>
-      <c r="G14" s="33" t="s">
-        <v>73</v>
-      </c>
-      <c r="H14" s="33"/>
-      <c r="I14" s="58">
-        <v>0.20399999999999999</v>
-      </c>
-    </row>
-    <row r="15" spans="2:9" ht="15" thickBot="1" x14ac:dyDescent="0.4">
-      <c r="B15" s="93"/>
-      <c r="C15" s="54" t="s">
-        <v>18</v>
-      </c>
-      <c r="D15" s="43"/>
-      <c r="E15" s="8"/>
-      <c r="F15" s="8"/>
-      <c r="G15" s="8"/>
-      <c r="H15" s="8"/>
-      <c r="I15" s="79">
+      <c r="D9" s="43"/>
+      <c r="E9" s="8"/>
+      <c r="F9" s="8"/>
+      <c r="G9" s="8"/>
+      <c r="H9" s="8"/>
+      <c r="I9" s="8"/>
+      <c r="J9" s="77">
         <v>0.21099999999999999</v>
       </c>
     </row>
-    <row r="16" spans="2:9" x14ac:dyDescent="0.35">
-      <c r="B16" s="1"/>
-      <c r="C16" s="69" t="s">
-        <v>64</v>
-      </c>
-      <c r="D16" s="31" t="s">
+    <row r="10" spans="2:10" x14ac:dyDescent="0.35">
+      <c r="B10" s="1"/>
+      <c r="C10" s="68" t="s">
         <v>63</v>
       </c>
-      <c r="E16" s="68" t="s">
+      <c r="D10" s="31" t="s">
+        <v>62</v>
+      </c>
+      <c r="E10" s="67" t="s">
         <v>61</v>
       </c>
-      <c r="F16" s="68" t="s">
-        <v>62</v>
-      </c>
-      <c r="H16" s="1"/>
-      <c r="I16" s="18"/>
+      <c r="F10" s="67"/>
+      <c r="G10" s="67"/>
+      <c r="I10" s="1"/>
+      <c r="J10" s="18"/>
     </row>
   </sheetData>
-  <mergeCells count="7">
-    <mergeCell ref="B13:B15"/>
-    <mergeCell ref="B4:B6"/>
-    <mergeCell ref="B10:B12"/>
+  <mergeCells count="6">
+    <mergeCell ref="D2:I2"/>
+    <mergeCell ref="B6:B7"/>
+    <mergeCell ref="B8:B9"/>
+    <mergeCell ref="B4:B5"/>
     <mergeCell ref="B2:B3"/>
     <mergeCell ref="C2:C3"/>
-    <mergeCell ref="D2:H2"/>
-    <mergeCell ref="B7:B9"/>
   </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup orientation="portrait" r:id="rId1"/>
@@ -1438,34 +1277,34 @@
   </cols>
   <sheetData>
     <row r="2" spans="2:11" ht="14.5" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B2" s="84" t="s">
+      <c r="B2" s="86" t="s">
         <v>0</v>
       </c>
-      <c r="C2" s="84" t="s">
+      <c r="C2" s="86" t="s">
         <v>2</v>
       </c>
-      <c r="D2" s="84" t="s">
+      <c r="D2" s="86" t="s">
         <v>13</v>
       </c>
-      <c r="E2" s="84" t="s">
+      <c r="E2" s="86" t="s">
         <v>4</v>
       </c>
-      <c r="F2" s="86" t="s">
+      <c r="F2" s="88" t="s">
         <v>17</v>
       </c>
-      <c r="G2" s="86"/>
-      <c r="H2" s="86"/>
-      <c r="I2" s="86"/>
-      <c r="J2" s="86"/>
+      <c r="G2" s="88"/>
+      <c r="H2" s="88"/>
+      <c r="I2" s="88"/>
+      <c r="J2" s="88"/>
       <c r="K2" s="27" t="s">
         <v>11</v>
       </c>
     </row>
     <row r="3" spans="2:11" s="2" customFormat="1" ht="12" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="B3" s="85"/>
-      <c r="C3" s="85"/>
-      <c r="D3" s="85"/>
-      <c r="E3" s="85"/>
+      <c r="B3" s="87"/>
+      <c r="C3" s="87"/>
+      <c r="D3" s="87"/>
+      <c r="E3" s="87"/>
       <c r="F3" s="5" t="s">
         <v>6</v>
       </c>
@@ -1486,7 +1325,7 @@
       </c>
     </row>
     <row r="4" spans="2:11" x14ac:dyDescent="0.25">
-      <c r="B4" s="82" t="s">
+      <c r="B4" s="89" t="s">
         <v>1</v>
       </c>
       <c r="C4" s="9" t="s">
@@ -1518,7 +1357,7 @@
       </c>
     </row>
     <row r="5" spans="2:11" x14ac:dyDescent="0.25">
-      <c r="B5" s="83"/>
+      <c r="B5" s="90"/>
       <c r="C5" s="7" t="s">
         <v>16</v>
       </c>
@@ -1546,7 +1385,7 @@
       </c>
     </row>
     <row r="6" spans="2:11" x14ac:dyDescent="0.25">
-      <c r="B6" s="83"/>
+      <c r="B6" s="90"/>
       <c r="C6" s="29" t="s">
         <v>16</v>
       </c>
@@ -1566,7 +1405,7 @@
       </c>
     </row>
     <row r="7" spans="2:11" ht="12" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="B7" s="83"/>
+      <c r="B7" s="90"/>
       <c r="C7" s="3" t="s">
         <v>16</v>
       </c>
@@ -1582,7 +1421,7 @@
       <c r="G7" s="17">
         <v>-0.32</v>
       </c>
-      <c r="H7" s="56">
+      <c r="H7" s="55">
         <v>0.04</v>
       </c>
       <c r="I7" s="16">
@@ -1596,7 +1435,7 @@
       </c>
     </row>
     <row r="8" spans="2:11" x14ac:dyDescent="0.25">
-      <c r="B8" s="83"/>
+      <c r="B8" s="90"/>
       <c r="C8" s="7" t="s">
         <v>3</v>
       </c>
@@ -1626,7 +1465,7 @@
       </c>
     </row>
     <row r="9" spans="2:11" x14ac:dyDescent="0.25">
-      <c r="B9" s="83"/>
+      <c r="B9" s="90"/>
       <c r="C9" s="7" t="s">
         <v>3</v>
       </c>
@@ -1652,7 +1491,7 @@
       </c>
     </row>
     <row r="10" spans="2:11" x14ac:dyDescent="0.25">
-      <c r="B10" s="83"/>
+      <c r="B10" s="90"/>
       <c r="C10" s="7" t="s">
         <v>3</v>
       </c>
@@ -1674,7 +1513,7 @@
       </c>
     </row>
     <row r="11" spans="2:11" x14ac:dyDescent="0.25">
-      <c r="B11" s="83"/>
+      <c r="B11" s="90"/>
       <c r="C11" s="7" t="s">
         <v>3</v>
       </c>
@@ -1696,7 +1535,7 @@
       </c>
     </row>
     <row r="12" spans="2:11" ht="12" x14ac:dyDescent="0.3">
-      <c r="B12" s="83"/>
+      <c r="B12" s="90"/>
       <c r="C12" s="29" t="s">
         <v>3</v>
       </c>
@@ -1706,10 +1545,10 @@
       <c r="E12" s="30" t="s">
         <v>55</v>
       </c>
-      <c r="F12" s="57"/>
-      <c r="G12" s="57"/>
+      <c r="F12" s="56"/>
+      <c r="G12" s="56"/>
       <c r="H12" s="29"/>
-      <c r="I12" s="61" t="s">
+      <c r="I12" s="60" t="s">
         <v>57</v>
       </c>
       <c r="J12" s="29"/>
@@ -1718,7 +1557,7 @@
       </c>
     </row>
     <row r="13" spans="2:11" x14ac:dyDescent="0.25">
-      <c r="B13" s="83"/>
+      <c r="B13" s="90"/>
       <c r="C13" s="7" t="s">
         <v>3</v>
       </c>
@@ -1738,7 +1577,7 @@
       </c>
     </row>
     <row r="14" spans="2:11" ht="12" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="B14" s="83"/>
+      <c r="B14" s="90"/>
       <c r="C14" s="3" t="s">
         <v>3</v>
       </c>
@@ -1768,7 +1607,7 @@
       </c>
     </row>
     <row r="15" spans="2:11" ht="12" x14ac:dyDescent="0.3">
-      <c r="B15" s="83"/>
+      <c r="B15" s="90"/>
       <c r="C15" s="7" t="s">
         <v>58</v>
       </c>
@@ -1790,41 +1629,41 @@
       <c r="I15" s="12">
         <v>0.25</v>
       </c>
-      <c r="J15" s="62" t="s">
+      <c r="J15" s="61" t="s">
         <v>59</v>
       </c>
-      <c r="K15" s="58">
+      <c r="K15" s="57">
         <v>0.32</v>
       </c>
     </row>
     <row r="16" spans="2:11" x14ac:dyDescent="0.25">
-      <c r="B16" s="83"/>
+      <c r="B16" s="90"/>
       <c r="C16" s="29" t="s">
         <v>58</v>
       </c>
       <c r="D16" s="29" t="s">
         <v>14</v>
       </c>
-      <c r="E16" s="64" t="s">
+      <c r="E16" s="63" t="s">
         <v>60</v>
       </c>
-      <c r="F16" s="65">
+      <c r="F16" s="64">
         <v>-0.3</v>
       </c>
-      <c r="G16" s="57">
+      <c r="G16" s="56">
         <v>-0.25</v>
       </c>
-      <c r="H16" s="57"/>
-      <c r="I16" s="57">
+      <c r="H16" s="56"/>
+      <c r="I16" s="56">
         <v>0.24</v>
       </c>
-      <c r="J16" s="66"/>
-      <c r="K16" s="67">
+      <c r="J16" s="65"/>
+      <c r="K16" s="66">
         <v>0.30599999999999999</v>
       </c>
     </row>
     <row r="17" spans="2:11" x14ac:dyDescent="0.25">
-      <c r="B17" s="83"/>
+      <c r="B17" s="90"/>
       <c r="C17" s="7" t="s">
         <v>58</v>
       </c>
@@ -1841,12 +1680,12 @@
       <c r="H17" s="7"/>
       <c r="I17" s="12"/>
       <c r="J17" s="7"/>
-      <c r="K17" s="58">
+      <c r="K17" s="57">
         <v>0.311</v>
       </c>
     </row>
     <row r="18" spans="2:11" x14ac:dyDescent="0.25">
-      <c r="B18" s="83"/>
+      <c r="B18" s="90"/>
       <c r="C18" s="7"/>
       <c r="D18" s="7"/>
       <c r="E18" s="49" t="s">
@@ -1864,7 +1703,7 @@
       </c>
     </row>
     <row r="19" spans="2:11" x14ac:dyDescent="0.25">
-      <c r="B19" s="83"/>
+      <c r="B19" s="90"/>
       <c r="C19" s="7"/>
       <c r="D19" s="7"/>
       <c r="E19" s="49" t="s">
@@ -1882,7 +1721,7 @@
       </c>
     </row>
     <row r="20" spans="2:11" x14ac:dyDescent="0.25">
-      <c r="B20" s="83"/>
+      <c r="B20" s="90"/>
       <c r="C20" s="7"/>
       <c r="D20" s="7"/>
       <c r="E20" s="49" t="s">
@@ -1900,7 +1739,7 @@
       </c>
     </row>
     <row r="21" spans="2:11" x14ac:dyDescent="0.25">
-      <c r="B21" s="83"/>
+      <c r="B21" s="90"/>
       <c r="C21" s="7"/>
       <c r="D21" s="7"/>
       <c r="E21" s="49" t="s">
@@ -1918,7 +1757,7 @@
       </c>
     </row>
     <row r="22" spans="2:11" x14ac:dyDescent="0.25">
-      <c r="B22" s="83"/>
+      <c r="B22" s="90"/>
       <c r="C22" s="7"/>
       <c r="D22" s="7"/>
       <c r="E22" s="49" t="s">
@@ -1934,7 +1773,7 @@
       </c>
     </row>
     <row r="23" spans="2:11" ht="12" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="B23" s="87"/>
+      <c r="B23" s="91"/>
       <c r="C23" s="3"/>
       <c r="D23" s="3"/>
       <c r="E23" s="3"/>
@@ -1946,7 +1785,7 @@
       <c r="K23" s="25"/>
     </row>
     <row r="24" spans="2:11" x14ac:dyDescent="0.25">
-      <c r="B24" s="83" t="s">
+      <c r="B24" s="90" t="s">
         <v>12</v>
       </c>
       <c r="C24" s="20" t="s">
@@ -1978,7 +1817,7 @@
       </c>
     </row>
     <row r="25" spans="2:11" ht="14.5" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="B25" s="88"/>
+      <c r="B25" s="92"/>
       <c r="C25" s="1" t="s">
         <v>16</v>
       </c>
@@ -1988,17 +1827,17 @@
       <c r="E25" s="14" t="s">
         <v>18</v>
       </c>
-      <c r="F25" s="89" t="s">
+      <c r="F25" s="93" t="s">
         <v>22</v>
       </c>
-      <c r="G25" s="90"/>
-      <c r="H25" s="90"/>
-      <c r="I25" s="90"/>
-      <c r="J25" s="90"/>
-      <c r="K25" s="90"/>
+      <c r="G25" s="94"/>
+      <c r="H25" s="94"/>
+      <c r="I25" s="94"/>
+      <c r="J25" s="94"/>
+      <c r="K25" s="94"/>
     </row>
     <row r="26" spans="2:11" ht="14.5" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="B26" s="88"/>
+      <c r="B26" s="92"/>
       <c r="C26" s="1" t="s">
         <v>16</v>
       </c>
@@ -2008,17 +1847,17 @@
       <c r="E26" s="14" t="s">
         <v>20</v>
       </c>
-      <c r="F26" s="89" t="s">
+      <c r="F26" s="93" t="s">
         <v>22</v>
       </c>
-      <c r="G26" s="90"/>
-      <c r="H26" s="90"/>
-      <c r="I26" s="90"/>
-      <c r="J26" s="90"/>
-      <c r="K26" s="90"/>
+      <c r="G26" s="94"/>
+      <c r="H26" s="94"/>
+      <c r="I26" s="94"/>
+      <c r="J26" s="94"/>
+      <c r="K26" s="94"/>
     </row>
     <row r="27" spans="2:11" ht="14.5" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B27" s="88"/>
+      <c r="B27" s="92"/>
       <c r="C27" s="1" t="s">
         <v>16</v>
       </c>
@@ -2038,7 +1877,7 @@
       </c>
     </row>
     <row r="28" spans="2:11" ht="14.5" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="B28" s="88"/>
+      <c r="B28" s="92"/>
       <c r="C28" s="3" t="s">
         <v>16</v>
       </c>
@@ -2054,7 +1893,7 @@
       <c r="G28" s="3">
         <v>0.12</v>
       </c>
-      <c r="H28" s="63" t="s">
+      <c r="H28" s="62" t="s">
         <v>21</v>
       </c>
       <c r="I28" s="3">
@@ -2068,7 +1907,7 @@
       </c>
     </row>
     <row r="29" spans="2:11" ht="14.5" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="B29" s="88"/>
+      <c r="B29" s="92"/>
       <c r="C29" s="1" t="s">
         <v>3</v>
       </c>
@@ -2098,7 +1937,7 @@
       </c>
     </row>
     <row r="30" spans="2:11" ht="14.5" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B30" s="88"/>
+      <c r="B30" s="92"/>
       <c r="C30" s="1" t="s">
         <v>3</v>
       </c>
@@ -2116,7 +1955,7 @@
       </c>
     </row>
     <row r="31" spans="2:11" ht="14.5" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B31" s="88"/>
+      <c r="B31" s="92"/>
       <c r="C31" s="20" t="s">
         <v>3</v>
       </c>
@@ -2138,7 +1977,7 @@
       </c>
     </row>
     <row r="32" spans="2:11" ht="14.5" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B32" s="88"/>
+      <c r="B32" s="92"/>
       <c r="C32" s="1" t="s">
         <v>3</v>
       </c>
@@ -2156,7 +1995,7 @@
       </c>
     </row>
     <row r="33" spans="2:11" ht="14.5" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B33" s="88"/>
+      <c r="B33" s="92"/>
       <c r="C33" s="1" t="s">
         <v>3</v>
       </c>
@@ -2174,7 +2013,7 @@
       </c>
     </row>
     <row r="34" spans="2:11" ht="14.5" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B34" s="88"/>
+      <c r="B34" s="92"/>
       <c r="C34" s="1" t="s">
         <v>3</v>
       </c>
@@ -2192,7 +2031,7 @@
       </c>
     </row>
     <row r="35" spans="2:11" ht="14.5" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B35" s="88"/>
+      <c r="B35" s="92"/>
       <c r="C35" s="1" t="s">
         <v>3</v>
       </c>
@@ -2207,7 +2046,7 @@
       </c>
     </row>
     <row r="36" spans="2:11" ht="15" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="B36" s="87"/>
+      <c r="B36" s="91"/>
       <c r="C36" s="3" t="s">
         <v>3</v>
       </c>
@@ -2277,30 +2116,30 @@
   <sheetData>
     <row r="1" spans="1:10" ht="20.5" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A1" s="1"/>
-      <c r="B1" s="84" t="s">
+      <c r="B1" s="86" t="s">
         <v>0</v>
       </c>
-      <c r="C1" s="84" t="s">
+      <c r="C1" s="86" t="s">
         <v>25</v>
       </c>
-      <c r="D1" s="97" t="s">
+      <c r="D1" s="98" t="s">
         <v>17</v>
       </c>
-      <c r="E1" s="97"/>
-      <c r="F1" s="97"/>
-      <c r="G1" s="97"/>
-      <c r="H1" s="97"/>
+      <c r="E1" s="98"/>
+      <c r="F1" s="98"/>
+      <c r="G1" s="98"/>
+      <c r="H1" s="98"/>
       <c r="I1" s="27" t="s">
         <v>11</v>
       </c>
-      <c r="J1" s="95" t="s">
+      <c r="J1" s="96" t="s">
         <v>50</v>
       </c>
     </row>
     <row r="2" spans="1:10" ht="19" customHeight="1" thickBot="1" x14ac:dyDescent="0.4">
       <c r="A2" s="2"/>
-      <c r="B2" s="85"/>
-      <c r="C2" s="85"/>
+      <c r="B2" s="87"/>
+      <c r="C2" s="87"/>
       <c r="D2" s="5" t="s">
         <v>6</v>
       </c>
@@ -2319,11 +2158,11 @@
       <c r="I2" s="28" t="s">
         <v>5</v>
       </c>
-      <c r="J2" s="96"/>
+      <c r="J2" s="97"/>
     </row>
     <row r="3" spans="1:10" x14ac:dyDescent="0.35">
       <c r="A3" s="1"/>
-      <c r="B3" s="91" t="s">
+      <c r="B3" s="84" t="s">
         <v>23</v>
       </c>
       <c r="C3" s="9" t="s">
@@ -2353,7 +2192,7 @@
     </row>
     <row r="4" spans="1:10" x14ac:dyDescent="0.35">
       <c r="A4" s="1"/>
-      <c r="B4" s="92"/>
+      <c r="B4" s="82"/>
       <c r="C4" s="7" t="s">
         <v>27</v>
       </c>
@@ -2381,7 +2220,7 @@
     </row>
     <row r="5" spans="1:10" x14ac:dyDescent="0.35">
       <c r="A5" s="1"/>
-      <c r="B5" s="92"/>
+      <c r="B5" s="82"/>
       <c r="C5" s="7" t="s">
         <v>29</v>
       </c>
@@ -2409,7 +2248,7 @@
     </row>
     <row r="6" spans="1:10" x14ac:dyDescent="0.35">
       <c r="A6" s="1"/>
-      <c r="B6" s="92"/>
+      <c r="B6" s="82"/>
       <c r="C6" s="7" t="s">
         <v>32</v>
       </c>
@@ -2437,7 +2276,7 @@
     </row>
     <row r="7" spans="1:10" x14ac:dyDescent="0.35">
       <c r="A7" s="1"/>
-      <c r="B7" s="92"/>
+      <c r="B7" s="82"/>
       <c r="C7" s="7" t="s">
         <v>28</v>
       </c>
@@ -2465,7 +2304,7 @@
     </row>
     <row r="8" spans="1:10" x14ac:dyDescent="0.35">
       <c r="A8" s="1"/>
-      <c r="B8" s="92"/>
+      <c r="B8" s="82"/>
       <c r="C8" s="7" t="s">
         <v>33</v>
       </c>
@@ -2493,7 +2332,7 @@
     </row>
     <row r="9" spans="1:10" x14ac:dyDescent="0.35">
       <c r="A9" s="1"/>
-      <c r="B9" s="92"/>
+      <c r="B9" s="82"/>
       <c r="C9" s="7" t="s">
         <v>34</v>
       </c>
@@ -2521,7 +2360,7 @@
     </row>
     <row r="10" spans="1:10" x14ac:dyDescent="0.35">
       <c r="A10" s="1"/>
-      <c r="B10" s="92"/>
+      <c r="B10" s="82"/>
       <c r="C10" s="7" t="s">
         <v>35</v>
       </c>
@@ -2549,7 +2388,7 @@
     </row>
     <row r="11" spans="1:10" x14ac:dyDescent="0.35">
       <c r="A11" s="1"/>
-      <c r="B11" s="92"/>
+      <c r="B11" s="82"/>
       <c r="C11" s="7" t="s">
         <v>36</v>
       </c>
@@ -2577,7 +2416,7 @@
     </row>
     <row r="12" spans="1:10" x14ac:dyDescent="0.35">
       <c r="A12" s="1"/>
-      <c r="B12" s="92"/>
+      <c r="B12" s="82"/>
       <c r="C12" s="7" t="s">
         <v>37</v>
       </c>
@@ -2605,7 +2444,7 @@
     </row>
     <row r="13" spans="1:10" x14ac:dyDescent="0.35">
       <c r="A13" s="1"/>
-      <c r="B13" s="92"/>
+      <c r="B13" s="82"/>
       <c r="C13" s="7" t="s">
         <v>38</v>
       </c>
@@ -2633,7 +2472,7 @@
     </row>
     <row r="14" spans="1:10" x14ac:dyDescent="0.35">
       <c r="A14" s="1"/>
-      <c r="B14" s="92"/>
+      <c r="B14" s="82"/>
       <c r="C14" s="7" t="s">
         <v>39</v>
       </c>
@@ -2661,7 +2500,7 @@
     </row>
     <row r="15" spans="1:10" ht="15" thickBot="1" x14ac:dyDescent="0.4">
       <c r="A15" s="1"/>
-      <c r="B15" s="93"/>
+      <c r="B15" s="83"/>
       <c r="C15" s="3" t="s">
         <v>40</v>
       </c>
@@ -2689,7 +2528,7 @@
     </row>
     <row r="16" spans="1:10" x14ac:dyDescent="0.35">
       <c r="A16" s="1"/>
-      <c r="B16" s="92" t="s">
+      <c r="B16" s="82" t="s">
         <v>24</v>
       </c>
       <c r="C16" s="1" t="s">
@@ -2719,7 +2558,7 @@
     </row>
     <row r="17" spans="1:10" x14ac:dyDescent="0.35">
       <c r="A17" s="1"/>
-      <c r="B17" s="94"/>
+      <c r="B17" s="95"/>
       <c r="C17" s="1" t="s">
         <v>48</v>
       </c>
@@ -2747,7 +2586,7 @@
     </row>
     <row r="18" spans="1:10" ht="15" thickBot="1" x14ac:dyDescent="0.4">
       <c r="A18" s="1"/>
-      <c r="B18" s="93"/>
+      <c r="B18" s="83"/>
       <c r="C18" s="3" t="s">
         <v>49</v>
       </c>
@@ -2818,13 +2657,13 @@
   </cols>
   <sheetData>
     <row r="3" spans="3:9" x14ac:dyDescent="0.35">
-      <c r="C3" s="59"/>
-      <c r="D3" s="59"/>
-      <c r="E3" s="59"/>
-      <c r="F3" s="60"/>
-      <c r="G3" s="59"/>
-      <c r="H3" s="59"/>
-      <c r="I3" s="59"/>
+      <c r="C3" s="58"/>
+      <c r="D3" s="58"/>
+      <c r="E3" s="58"/>
+      <c r="F3" s="59"/>
+      <c r="G3" s="58"/>
+      <c r="H3" s="58"/>
+      <c r="I3" s="58"/>
     </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>

--- a/persistenceModelSummaries.xlsx
+++ b/persistenceModelSummaries.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="20416"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="10824"/>
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\nclancy1\Desktop\persistence\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/niallclancy/Desktop/persistence/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{F6648D89-77F3-4721-877A-B0F7D3F97B41}" xr6:coauthVersionLast="36" xr6:coauthVersionMax="36" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{81882B3F-091B-8941-AF82-008D6588DA89}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="28780" windowHeight="11880" xr2:uid="{5449A4E9-FD86-4181-A72B-A8CD9429038C}"/>
+    <workbookView xWindow="0" yWindow="720" windowWidth="29400" windowHeight="18400" xr2:uid="{5449A4E9-FD86-4181-A72B-A8CD9429038C}"/>
   </bookViews>
   <sheets>
     <sheet name="12-15-24" sheetId="4" r:id="rId1"/>
@@ -28,7 +28,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="179" uniqueCount="81">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="171" uniqueCount="75">
   <si>
     <t>Basin</t>
   </si>
@@ -240,25 +240,7 @@
     <t>Community Turnover</t>
   </si>
   <si>
-    <t>Glacial Relict Persistence</t>
-  </si>
-  <si>
     <t>WaterPerm</t>
-  </si>
-  <si>
-    <t>-0.27*</t>
-  </si>
-  <si>
-    <t>-0.20</t>
-  </si>
-  <si>
-    <t>-0.11</t>
-  </si>
-  <si>
-    <t>-0.04</t>
-  </si>
-  <si>
-    <t>-0.14</t>
   </si>
   <si>
     <t>0.46***</t>
@@ -506,7 +488,7 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="99">
+  <cellXfs count="85">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
     <xf numFmtId="0" fontId="2" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
@@ -516,25 +498,21 @@
     </xf>
     <xf numFmtId="0" fontId="2" fillId="2" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
     <xf numFmtId="2" fontId="1" fillId="2" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1"/>
-    <xf numFmtId="0" fontId="1" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="1" fillId="2" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
     <xf numFmtId="0" fontId="1" fillId="2" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="3" fillId="2" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
     <xf numFmtId="2" fontId="3" fillId="2" borderId="3" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="3" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="2" fontId="3" fillId="2" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="1" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
+    <xf numFmtId="0" fontId="3" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
+    <xf numFmtId="2" fontId="3" fillId="2" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1"/>
     <xf numFmtId="0" fontId="1" fillId="2" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
     <xf numFmtId="0" fontId="3" fillId="2" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
     <xf numFmtId="2" fontId="3" fillId="2" borderId="2" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="5" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
-    <xf numFmtId="0" fontId="3" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="3" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
     <xf numFmtId="0" fontId="1" fillId="3" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
@@ -552,15 +530,11 @@
     <xf numFmtId="0" fontId="6" fillId="2" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="1" fillId="3" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="1" fillId="3" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
     <xf numFmtId="0" fontId="0" fillId="2" borderId="0" xfId="0" applyFill="1"/>
     <xf numFmtId="0" fontId="3" fillId="2" borderId="0" xfId="0" quotePrefix="1" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="1" fillId="2" borderId="0" xfId="0" quotePrefix="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="1" fillId="2" borderId="0" xfId="0" quotePrefix="1" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
     <xf numFmtId="2" fontId="1" fillId="2" borderId="3" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
@@ -572,22 +546,13 @@
     <xf numFmtId="2" fontId="3" fillId="2" borderId="3" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="2" fontId="1" fillId="2" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
     <xf numFmtId="2" fontId="1" fillId="2" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="3" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="2" fontId="3" fillId="2" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="2" borderId="0" xfId="0" quotePrefix="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="2" fontId="3" fillId="2" borderId="0" xfId="0" quotePrefix="1" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="2" fontId="3" fillId="2" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="2" fontId="3" fillId="2" borderId="0" xfId="0" quotePrefix="1" applyNumberFormat="1" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
     <xf numFmtId="2" fontId="1" fillId="2" borderId="2" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
@@ -602,42 +567,37 @@
     <xf numFmtId="2" fontId="0" fillId="2" borderId="0" xfId="0" applyNumberFormat="1" applyFill="1"/>
     <xf numFmtId="0" fontId="1" fillId="2" borderId="7" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="2" borderId="7" xfId="0" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="1" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="1" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="1" fillId="2" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="4" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
-    <xf numFmtId="0" fontId="3" fillId="3" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="3" fillId="3" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment horizontal="right"/>
     </xf>
-    <xf numFmtId="0" fontId="1" fillId="2" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
     <xf numFmtId="0" fontId="1" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
     <xf numFmtId="2" fontId="1" fillId="2" borderId="2" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="3" fillId="3" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
     <xf numFmtId="164" fontId="5" fillId="2" borderId="5" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="9" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="0" fontId="10" fillId="0" borderId="0" xfId="0" applyFont="1"/>
-    <xf numFmtId="0" fontId="4" fillId="3" borderId="0" xfId="0" quotePrefix="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="4" fillId="3" borderId="0" xfId="0" quotePrefix="1" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment horizontal="right"/>
     </xf>
-    <xf numFmtId="0" fontId="4" fillId="2" borderId="0" xfId="0" quotePrefix="1" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="4" fillId="2" borderId="0" xfId="0" quotePrefix="1" applyFont="1" applyFill="1"/>
     <xf numFmtId="0" fontId="4" fillId="2" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="right"/>
     </xf>
-    <xf numFmtId="0" fontId="1" fillId="3" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="1" fillId="3" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="2" fontId="3" fillId="3" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="3" fillId="3" borderId="0" xfId="0" quotePrefix="1" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="2" fontId="3" fillId="3" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1"/>
+    <xf numFmtId="0" fontId="3" fillId="3" borderId="0" xfId="0" quotePrefix="1" applyFont="1" applyFill="1"/>
     <xf numFmtId="164" fontId="5" fillId="3" borderId="5" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="11" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
-    <xf numFmtId="0" fontId="0" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
     <xf numFmtId="0" fontId="1" fillId="2" borderId="3" xfId="0" quotePrefix="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
@@ -657,19 +617,15 @@
     </xf>
     <xf numFmtId="164" fontId="5" fillId="2" borderId="10" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1"/>
     <xf numFmtId="164" fontId="5" fillId="2" borderId="6" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="164" fontId="5" fillId="2" borderId="8" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1"/>
     <xf numFmtId="2" fontId="1" fillId="2" borderId="9" xfId="0" quotePrefix="1" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="1" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="8" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
     <xf numFmtId="0" fontId="1" fillId="2" borderId="9" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="1" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
     <xf numFmtId="0" fontId="1" fillId="2" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
@@ -679,37 +635,31 @@
     <xf numFmtId="0" fontId="1" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="2" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="2" fillId="2" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="8" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
     <xf numFmtId="0" fontId="1" fillId="2" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="1" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="1" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="1" fillId="2" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="1" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="2" borderId="0" xfId="0" quotePrefix="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="4" fillId="2" borderId="0" xfId="0" quotePrefix="1" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
     <xf numFmtId="0" fontId="1" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="7" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="7" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment horizontal="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="7" fillId="2" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
@@ -736,9 +686,9 @@
 </file>
 
 <file path=xl/theme/theme1.xml><?xml version="1.0" encoding="utf-8"?>
-<a:theme xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" name="Office Theme">
+<a:theme xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" name="Office 2013 - 2022 Theme">
   <a:themeElements>
-    <a:clrScheme name="Office">
+    <a:clrScheme name="Office 2013 - 2022">
       <a:dk1>
         <a:sysClr val="windowText" lastClr="000000"/>
       </a:dk1>
@@ -776,7 +726,7 @@
         <a:srgbClr val="954F72"/>
       </a:folHlink>
     </a:clrScheme>
-    <a:fontScheme name="Office">
+    <a:fontScheme name="Office 2013 - 2022">
       <a:majorFont>
         <a:latin typeface="Calibri Light" panose="020F0302020204030204"/>
         <a:ea typeface=""/>
@@ -882,7 +832,7 @@
         <a:font script="Tfng" typeface="Ebrima"/>
       </a:minorFont>
     </a:fontScheme>
-    <a:fmtScheme name="Office">
+    <a:fmtScheme name="Office 2013 - 2022">
       <a:fillStyleLst>
         <a:solidFill>
           <a:schemeClr val="phClr"/>
@@ -1024,7 +974,7 @@
   <a:extraClrSchemeLst/>
   <a:extLst>
     <a:ext uri="{05A4C25C-085E-4340-85A3-A5531E510DB2}">
-      <thm15:themeFamily xmlns:thm15="http://schemas.microsoft.com/office/thememl/2012/main" name="Office Theme" id="{62F939B6-93AF-4DB8-9C6B-D6C7DFDC589F}" vid="{4A3C46E8-61CC-4603-A589-7422A47A8E4A}"/>
+      <thm15:themeFamily xmlns:thm15="http://schemas.microsoft.com/office/thememl/2012/main" name="Office 2013 - 2022 Theme" id="{62F939B6-93AF-4DB8-9C6B-D6C7DFDC589F}" vid="{4A3C46E8-61CC-4603-A589-7422A47A8E4A}"/>
     </a:ext>
   </a:extLst>
 </a:theme>
@@ -1032,44 +982,44 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{B852CC4F-2CE2-4E4F-BB13-FE41B647D1D5}">
-  <dimension ref="B2:J10"/>
+  <dimension ref="B2:J8"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScale="140" zoomScaleNormal="140" workbookViewId="0">
-      <selection activeCell="B20" sqref="B20"/>
+    <sheetView tabSelected="1" topLeftCell="F1" zoomScale="315" zoomScaleNormal="315" workbookViewId="0">
+      <selection activeCell="K10" sqref="K10"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
+  <sheetFormatPr baseColWidth="10" defaultColWidth="8.6640625" defaultRowHeight="15" x14ac:dyDescent="0.2"/>
   <cols>
-    <col min="1" max="1" width="8.7265625" style="31"/>
-    <col min="2" max="2" width="13.36328125" style="31" customWidth="1"/>
-    <col min="3" max="3" width="12.1796875" style="31" bestFit="1" customWidth="1"/>
-    <col min="4" max="5" width="8.7265625" style="31"/>
-    <col min="6" max="6" width="9.7265625" style="31" bestFit="1" customWidth="1"/>
-    <col min="7" max="16384" width="8.7265625" style="31"/>
+    <col min="1" max="1" width="8.6640625" style="27"/>
+    <col min="2" max="2" width="13.33203125" style="27" customWidth="1"/>
+    <col min="3" max="3" width="12.1640625" style="27" bestFit="1" customWidth="1"/>
+    <col min="4" max="5" width="8.6640625" style="27"/>
+    <col min="6" max="6" width="9.6640625" style="27" bestFit="1" customWidth="1"/>
+    <col min="7" max="16384" width="8.6640625" style="27"/>
   </cols>
   <sheetData>
-    <row r="2" spans="2:10" x14ac:dyDescent="0.35">
-      <c r="B2" s="86" t="s">
+    <row r="2" spans="2:10" x14ac:dyDescent="0.2">
+      <c r="B2" s="74" t="s">
         <v>2</v>
       </c>
-      <c r="C2" s="86" t="s">
+      <c r="C2" s="74" t="s">
         <v>4</v>
       </c>
-      <c r="D2" s="88" t="s">
+      <c r="D2" s="69" t="s">
         <v>66</v>
       </c>
-      <c r="E2" s="88"/>
-      <c r="F2" s="88"/>
-      <c r="G2" s="88"/>
-      <c r="H2" s="88"/>
-      <c r="I2" s="88"/>
-      <c r="J2" s="27" t="s">
+      <c r="E2" s="69"/>
+      <c r="F2" s="69"/>
+      <c r="G2" s="69"/>
+      <c r="H2" s="69"/>
+      <c r="I2" s="69"/>
+      <c r="J2" s="25" t="s">
         <v>11</v>
       </c>
     </row>
-    <row r="3" spans="2:10" ht="15" thickBot="1" x14ac:dyDescent="0.4">
-      <c r="B3" s="87"/>
-      <c r="C3" s="87"/>
+    <row r="3" spans="2:10" ht="16" thickBot="1" x14ac:dyDescent="0.25">
+      <c r="B3" s="75"/>
+      <c r="C3" s="75"/>
       <c r="D3" s="5" t="s">
         <v>6</v>
       </c>
@@ -1077,7 +1027,7 @@
         <v>52</v>
       </c>
       <c r="F3" s="5" t="s">
-        <v>71</v>
+        <v>70</v>
       </c>
       <c r="G3" s="5" t="s">
         <v>8</v>
@@ -1088,163 +1038,118 @@
       <c r="I3" s="5" t="s">
         <v>10</v>
       </c>
-      <c r="J3" s="28" t="s">
+      <c r="J3" s="26" t="s">
         <v>5</v>
       </c>
     </row>
-    <row r="4" spans="2:10" x14ac:dyDescent="0.35">
-      <c r="B4" s="84" t="s">
+    <row r="4" spans="2:10" x14ac:dyDescent="0.2">
+      <c r="B4" s="72" t="s">
         <v>68</v>
       </c>
-      <c r="C4" s="15" t="s">
+      <c r="C4" s="13" t="s">
         <v>19</v>
       </c>
-      <c r="D4" s="69" t="s">
+      <c r="D4" s="59" t="s">
         <v>65</v>
       </c>
-      <c r="E4" s="34">
+      <c r="E4" s="30">
         <v>0.03</v>
       </c>
-      <c r="F4" s="34">
+      <c r="F4" s="30">
         <v>7.0000000000000007E-2</v>
       </c>
-      <c r="G4" s="15">
+      <c r="G4" s="13">
         <v>0.02</v>
       </c>
-      <c r="H4" s="70" t="s">
+      <c r="H4" s="60" t="s">
         <v>64</v>
       </c>
-      <c r="I4" s="15">
+      <c r="I4" s="13">
         <v>-0.04</v>
       </c>
-      <c r="J4" s="71">
+      <c r="J4" s="61">
         <v>0.28699999999999998</v>
       </c>
     </row>
-    <row r="5" spans="2:10" x14ac:dyDescent="0.35">
-      <c r="B5" s="85"/>
-      <c r="C5" s="54" t="s">
+    <row r="5" spans="2:10" x14ac:dyDescent="0.2">
+      <c r="B5" s="73"/>
+      <c r="C5" s="46" t="s">
         <v>18</v>
       </c>
-      <c r="D5" s="54"/>
-      <c r="E5" s="54"/>
-      <c r="F5" s="80"/>
-      <c r="G5" s="54"/>
-      <c r="H5" s="54"/>
-      <c r="I5" s="54"/>
-      <c r="J5" s="72">
+      <c r="D5" s="46"/>
+      <c r="E5" s="46"/>
+      <c r="F5" s="46"/>
+      <c r="G5" s="46"/>
+      <c r="H5" s="46"/>
+      <c r="I5" s="46"/>
+      <c r="J5" s="62">
         <v>0.30199999999999999</v>
       </c>
     </row>
-    <row r="6" spans="2:10" x14ac:dyDescent="0.35">
-      <c r="B6" s="81" t="s">
-        <v>70</v>
-      </c>
-      <c r="C6" s="14" t="s">
+    <row r="6" spans="2:10" x14ac:dyDescent="0.2">
+      <c r="B6" s="70" t="s">
+        <v>69</v>
+      </c>
+      <c r="C6" s="63" t="s">
         <v>19</v>
       </c>
-      <c r="D6" s="33" t="s">
+      <c r="D6" s="68" t="s">
+        <v>71</v>
+      </c>
+      <c r="E6" s="64">
+        <v>3.0000000000000001E-3</v>
+      </c>
+      <c r="F6" s="65" t="s">
         <v>72</v>
       </c>
-      <c r="E6" s="14">
-        <v>0.06</v>
-      </c>
-      <c r="F6" s="33" t="s">
+      <c r="G6" s="65" t="s">
+        <v>73</v>
+      </c>
+      <c r="H6" s="65" t="s">
         <v>74</v>
       </c>
-      <c r="G6" s="33" t="s">
-        <v>73</v>
-      </c>
-      <c r="H6" s="33" t="s">
-        <v>75</v>
-      </c>
-      <c r="I6" s="33" t="s">
-        <v>76</v>
-      </c>
-      <c r="J6" s="24">
-        <v>0.439</v>
-      </c>
-    </row>
-    <row r="7" spans="2:10" x14ac:dyDescent="0.35">
-      <c r="B7" s="85"/>
-      <c r="C7" s="54" t="s">
+      <c r="I6" s="65" t="s">
+        <v>67</v>
+      </c>
+      <c r="J6" s="66">
+        <v>0.20699999999999999</v>
+      </c>
+    </row>
+    <row r="7" spans="2:10" ht="16" thickBot="1" x14ac:dyDescent="0.25">
+      <c r="B7" s="71"/>
+      <c r="C7" s="43" t="s">
         <v>18</v>
       </c>
-      <c r="D7" s="54"/>
-      <c r="E7" s="54"/>
-      <c r="F7" s="80"/>
-      <c r="G7" s="54"/>
-      <c r="H7" s="54"/>
-      <c r="I7" s="54"/>
-      <c r="J7" s="78">
-        <v>0.46</v>
-      </c>
-    </row>
-    <row r="8" spans="2:10" x14ac:dyDescent="0.35">
-      <c r="B8" s="81" t="s">
-        <v>69</v>
-      </c>
-      <c r="C8" s="73" t="s">
-        <v>19</v>
-      </c>
-      <c r="D8" s="79" t="s">
-        <v>77</v>
-      </c>
-      <c r="E8" s="74">
-        <v>3.0000000000000001E-3</v>
-      </c>
-      <c r="F8" s="75" t="s">
-        <v>78</v>
-      </c>
-      <c r="G8" s="75" t="s">
-        <v>79</v>
-      </c>
-      <c r="H8" s="75" t="s">
-        <v>80</v>
-      </c>
-      <c r="I8" s="75" t="s">
-        <v>67</v>
-      </c>
-      <c r="J8" s="76">
-        <v>0.20699999999999999</v>
-      </c>
-    </row>
-    <row r="9" spans="2:10" ht="15" thickBot="1" x14ac:dyDescent="0.4">
-      <c r="B9" s="83"/>
-      <c r="C9" s="53" t="s">
-        <v>18</v>
-      </c>
-      <c r="D9" s="43"/>
-      <c r="E9" s="8"/>
-      <c r="F9" s="8"/>
-      <c r="G9" s="8"/>
-      <c r="H9" s="8"/>
-      <c r="I9" s="8"/>
-      <c r="J9" s="77">
+      <c r="D7" s="36"/>
+      <c r="E7" s="7"/>
+      <c r="F7" s="7"/>
+      <c r="G7" s="7"/>
+      <c r="H7" s="7"/>
+      <c r="I7" s="7"/>
+      <c r="J7" s="67">
         <v>0.21099999999999999</v>
       </c>
     </row>
-    <row r="10" spans="2:10" x14ac:dyDescent="0.35">
-      <c r="B10" s="1"/>
-      <c r="C10" s="68" t="s">
+    <row r="8" spans="2:10" x14ac:dyDescent="0.2">
+      <c r="B8" s="1"/>
+      <c r="C8" s="27" t="s">
         <v>63</v>
       </c>
-      <c r="D10" s="31" t="s">
+      <c r="D8" s="27" t="s">
         <v>62</v>
       </c>
-      <c r="E10" s="67" t="s">
+      <c r="E8" s="58" t="s">
         <v>61</v>
       </c>
-      <c r="F10" s="67"/>
-      <c r="G10" s="67"/>
-      <c r="I10" s="1"/>
-      <c r="J10" s="18"/>
+      <c r="F8" s="58"/>
+      <c r="G8" s="58"/>
+      <c r="I8" s="1"/>
+      <c r="J8" s="16"/>
     </row>
   </sheetData>
-  <mergeCells count="6">
+  <mergeCells count="5">
     <mergeCell ref="D2:I2"/>
     <mergeCell ref="B6:B7"/>
-    <mergeCell ref="B8:B9"/>
     <mergeCell ref="B4:B5"/>
     <mergeCell ref="B2:B3"/>
     <mergeCell ref="C2:C3"/>
@@ -1259,52 +1164,52 @@
   <dimension ref="B2:K37"/>
   <sheetViews>
     <sheetView zoomScale="140" zoomScaleNormal="140" workbookViewId="0">
-      <selection activeCell="B2" sqref="B2:K37"/>
+      <selection activeCell="C17" sqref="C17"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="11.5" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr baseColWidth="10" defaultColWidth="8.6640625" defaultRowHeight="12" x14ac:dyDescent="0.15"/>
   <cols>
-    <col min="1" max="3" width="8.7265625" style="1"/>
-    <col min="4" max="4" width="10.453125" style="1" bestFit="1" customWidth="1"/>
-    <col min="5" max="5" width="13.81640625" style="1" bestFit="1" customWidth="1"/>
-    <col min="6" max="6" width="6.1796875" style="1" customWidth="1"/>
-    <col min="7" max="7" width="5.08984375" style="1" bestFit="1" customWidth="1"/>
-    <col min="8" max="8" width="6.26953125" style="1" bestFit="1" customWidth="1"/>
-    <col min="9" max="9" width="6.81640625" style="1" bestFit="1" customWidth="1"/>
-    <col min="10" max="10" width="5.6328125" style="1" bestFit="1" customWidth="1"/>
-    <col min="11" max="11" width="6.08984375" style="18" bestFit="1" customWidth="1"/>
-    <col min="12" max="16384" width="8.7265625" style="1"/>
+    <col min="1" max="3" width="8.6640625" style="1"/>
+    <col min="4" max="4" width="10.5" style="1" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="13.83203125" style="1" bestFit="1" customWidth="1"/>
+    <col min="6" max="6" width="6.1640625" style="1" customWidth="1"/>
+    <col min="7" max="7" width="5.1640625" style="1" bestFit="1" customWidth="1"/>
+    <col min="8" max="8" width="6.33203125" style="1" bestFit="1" customWidth="1"/>
+    <col min="9" max="9" width="6.83203125" style="1" bestFit="1" customWidth="1"/>
+    <col min="10" max="10" width="5.6640625" style="1" bestFit="1" customWidth="1"/>
+    <col min="11" max="11" width="6.1640625" style="16" bestFit="1" customWidth="1"/>
+    <col min="12" max="16384" width="8.6640625" style="1"/>
   </cols>
   <sheetData>
-    <row r="2" spans="2:11" ht="14.5" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B2" s="86" t="s">
+    <row r="2" spans="2:11" ht="14.5" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="B2" s="74" t="s">
         <v>0</v>
       </c>
-      <c r="C2" s="86" t="s">
+      <c r="C2" s="74" t="s">
         <v>2</v>
       </c>
-      <c r="D2" s="86" t="s">
+      <c r="D2" s="74" t="s">
         <v>13</v>
       </c>
-      <c r="E2" s="86" t="s">
+      <c r="E2" s="74" t="s">
         <v>4</v>
       </c>
-      <c r="F2" s="88" t="s">
+      <c r="F2" s="69" t="s">
         <v>17</v>
       </c>
-      <c r="G2" s="88"/>
-      <c r="H2" s="88"/>
-      <c r="I2" s="88"/>
-      <c r="J2" s="88"/>
-      <c r="K2" s="27" t="s">
+      <c r="G2" s="69"/>
+      <c r="H2" s="69"/>
+      <c r="I2" s="69"/>
+      <c r="J2" s="69"/>
+      <c r="K2" s="25" t="s">
         <v>11</v>
       </c>
     </row>
-    <row r="3" spans="2:11" s="2" customFormat="1" ht="12" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="B3" s="87"/>
-      <c r="C3" s="87"/>
-      <c r="D3" s="87"/>
-      <c r="E3" s="87"/>
+    <row r="3" spans="2:11" s="2" customFormat="1" ht="13" thickBot="1" x14ac:dyDescent="0.2">
+      <c r="B3" s="75"/>
+      <c r="C3" s="75"/>
+      <c r="D3" s="75"/>
+      <c r="E3" s="75"/>
       <c r="F3" s="5" t="s">
         <v>6</v>
       </c>
@@ -1320,460 +1225,428 @@
       <c r="J3" s="5" t="s">
         <v>10</v>
       </c>
-      <c r="K3" s="28" t="s">
+      <c r="K3" s="26" t="s">
         <v>5</v>
       </c>
     </row>
-    <row r="4" spans="2:11" x14ac:dyDescent="0.25">
-      <c r="B4" s="89" t="s">
+    <row r="4" spans="2:11" x14ac:dyDescent="0.15">
+      <c r="B4" s="76" t="s">
         <v>1</v>
       </c>
-      <c r="C4" s="9" t="s">
+      <c r="C4" s="8" t="s">
         <v>16</v>
       </c>
-      <c r="D4" s="9" t="s">
+      <c r="D4" s="8" t="s">
         <v>14</v>
       </c>
-      <c r="E4" s="15" t="s">
+      <c r="E4" s="13" t="s">
         <v>19</v>
       </c>
-      <c r="F4" s="10">
+      <c r="F4" s="9">
         <v>-0.47</v>
       </c>
-      <c r="G4" s="11">
+      <c r="G4" s="10">
         <v>-0.31</v>
       </c>
-      <c r="H4" s="9">
+      <c r="H4" s="8">
         <v>0.04</v>
       </c>
-      <c r="I4" s="11">
+      <c r="I4" s="10">
         <v>0.2</v>
       </c>
-      <c r="J4" s="10">
+      <c r="J4" s="9">
         <v>0.31</v>
       </c>
-      <c r="K4" s="23">
+      <c r="K4" s="21">
         <v>0.27300000000000002</v>
       </c>
     </row>
-    <row r="5" spans="2:11" x14ac:dyDescent="0.25">
-      <c r="B5" s="90"/>
-      <c r="C5" s="7" t="s">
+    <row r="5" spans="2:11" x14ac:dyDescent="0.15">
+      <c r="B5" s="77"/>
+      <c r="C5" s="1" t="s">
         <v>16</v>
       </c>
-      <c r="D5" s="7" t="s">
+      <c r="D5" s="1" t="s">
         <v>14</v>
       </c>
-      <c r="E5" s="14" t="s">
+      <c r="E5" s="4" t="s">
         <v>20</v>
       </c>
-      <c r="F5" s="12">
+      <c r="F5" s="11">
         <v>-0.47</v>
       </c>
-      <c r="G5" s="13">
+      <c r="G5" s="12">
         <v>-0.3</v>
       </c>
-      <c r="H5" s="7"/>
-      <c r="I5" s="13">
+      <c r="I5" s="12">
         <v>0.2</v>
       </c>
-      <c r="J5" s="13">
+      <c r="J5" s="12">
         <v>0.31</v>
       </c>
-      <c r="K5" s="24">
+      <c r="K5" s="22">
         <v>0.27500000000000002</v>
       </c>
     </row>
-    <row r="6" spans="2:11" x14ac:dyDescent="0.25">
-      <c r="B6" s="90"/>
-      <c r="C6" s="29" t="s">
+    <row r="6" spans="2:11" x14ac:dyDescent="0.15">
+      <c r="B6" s="77"/>
+      <c r="C6" s="18" t="s">
         <v>16</v>
       </c>
-      <c r="D6" s="29" t="s">
+      <c r="D6" s="18" t="s">
         <v>14</v>
       </c>
-      <c r="E6" s="30" t="s">
+      <c r="E6" s="19" t="s">
         <v>18</v>
       </c>
-      <c r="F6" s="29"/>
-      <c r="G6" s="29"/>
-      <c r="H6" s="29"/>
-      <c r="I6" s="29"/>
-      <c r="J6" s="29"/>
-      <c r="K6" s="26">
+      <c r="F6" s="18"/>
+      <c r="G6" s="18"/>
+      <c r="H6" s="18"/>
+      <c r="I6" s="18"/>
+      <c r="J6" s="18"/>
+      <c r="K6" s="24">
         <v>0.25600000000000001</v>
       </c>
     </row>
-    <row r="7" spans="2:11" ht="12" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="B7" s="90"/>
+    <row r="7" spans="2:11" ht="13" thickBot="1" x14ac:dyDescent="0.2">
+      <c r="B7" s="77"/>
       <c r="C7" s="3" t="s">
         <v>16</v>
       </c>
       <c r="D7" s="3" t="s">
         <v>15</v>
       </c>
-      <c r="E7" s="8" t="s">
+      <c r="E7" s="7" t="s">
         <v>19</v>
       </c>
-      <c r="F7" s="16">
+      <c r="F7" s="14">
         <v>-0.47</v>
       </c>
-      <c r="G7" s="17">
+      <c r="G7" s="15">
         <v>-0.32</v>
       </c>
-      <c r="H7" s="55">
+      <c r="H7" s="47">
         <v>0.04</v>
       </c>
-      <c r="I7" s="16">
+      <c r="I7" s="14">
         <v>0.21</v>
       </c>
-      <c r="J7" s="16">
+      <c r="J7" s="14">
         <v>0.31</v>
       </c>
-      <c r="K7" s="25">
+      <c r="K7" s="23">
         <v>0.28699999999999998</v>
       </c>
     </row>
-    <row r="8" spans="2:11" x14ac:dyDescent="0.25">
-      <c r="B8" s="90"/>
-      <c r="C8" s="7" t="s">
+    <row r="8" spans="2:11" x14ac:dyDescent="0.15">
+      <c r="B8" s="77"/>
+      <c r="C8" s="1" t="s">
         <v>3</v>
       </c>
-      <c r="D8" s="7" t="s">
+      <c r="D8" s="1" t="s">
         <v>14</v>
       </c>
-      <c r="E8" s="49" t="s">
+      <c r="E8" s="42" t="s">
         <v>19</v>
       </c>
-      <c r="F8" s="12">
+      <c r="F8" s="11">
         <v>-0.39</v>
       </c>
-      <c r="G8" s="12">
+      <c r="G8" s="11">
         <v>-0.32</v>
       </c>
-      <c r="H8" s="7">
+      <c r="H8" s="1">
         <v>7.0000000000000007E-2</v>
       </c>
-      <c r="I8" s="12">
+      <c r="I8" s="11">
         <v>0.19</v>
       </c>
-      <c r="J8" s="7">
+      <c r="J8" s="1">
         <v>0.09</v>
       </c>
-      <c r="K8" s="24">
+      <c r="K8" s="22">
         <v>0.30499999999999999</v>
       </c>
     </row>
-    <row r="9" spans="2:11" x14ac:dyDescent="0.25">
-      <c r="B9" s="90"/>
-      <c r="C9" s="7" t="s">
+    <row r="9" spans="2:11" x14ac:dyDescent="0.15">
+      <c r="B9" s="77"/>
+      <c r="C9" s="1" t="s">
         <v>3</v>
       </c>
-      <c r="D9" s="7" t="s">
+      <c r="D9" s="1" t="s">
         <v>14</v>
       </c>
-      <c r="E9" s="49" t="s">
+      <c r="E9" s="42" t="s">
         <v>20</v>
       </c>
-      <c r="F9" s="12">
+      <c r="F9" s="11">
         <v>-0.39</v>
       </c>
-      <c r="G9" s="12">
+      <c r="G9" s="11">
         <v>-0.24</v>
       </c>
-      <c r="H9" s="7"/>
-      <c r="I9" s="13">
+      <c r="I9" s="12">
         <v>0.19</v>
       </c>
-      <c r="J9" s="7"/>
-      <c r="K9" s="24">
+      <c r="K9" s="22">
         <v>0.28699999999999998</v>
       </c>
     </row>
-    <row r="10" spans="2:11" x14ac:dyDescent="0.25">
-      <c r="B10" s="90"/>
-      <c r="C10" s="7" t="s">
+    <row r="10" spans="2:11" x14ac:dyDescent="0.15">
+      <c r="B10" s="77"/>
+      <c r="C10" s="1" t="s">
         <v>3</v>
       </c>
-      <c r="D10" s="7" t="s">
+      <c r="D10" s="1" t="s">
         <v>14</v>
       </c>
-      <c r="E10" s="14" t="s">
+      <c r="E10" s="4" t="s">
         <v>51</v>
       </c>
-      <c r="F10" s="12">
+      <c r="F10" s="11">
         <v>-0.38</v>
       </c>
-      <c r="G10" s="12"/>
-      <c r="H10" s="7"/>
-      <c r="I10" s="12"/>
-      <c r="J10" s="7"/>
-      <c r="K10" s="24">
+      <c r="G10" s="11"/>
+      <c r="I10" s="11"/>
+      <c r="K10" s="22">
         <v>0.28899999999999998</v>
       </c>
     </row>
-    <row r="11" spans="2:11" x14ac:dyDescent="0.25">
-      <c r="B11" s="90"/>
-      <c r="C11" s="7" t="s">
+    <row r="11" spans="2:11" x14ac:dyDescent="0.15">
+      <c r="B11" s="77"/>
+      <c r="C11" s="1" t="s">
         <v>3</v>
       </c>
-      <c r="D11" s="7" t="s">
+      <c r="D11" s="1" t="s">
         <v>14</v>
       </c>
-      <c r="E11" s="14" t="s">
+      <c r="E11" s="4" t="s">
         <v>53</v>
       </c>
-      <c r="F11" s="12"/>
-      <c r="G11" s="12">
+      <c r="F11" s="11"/>
+      <c r="G11" s="11">
         <v>-0.24</v>
       </c>
-      <c r="H11" s="7"/>
-      <c r="I11" s="12"/>
-      <c r="J11" s="7"/>
-      <c r="K11" s="24">
+      <c r="I11" s="11"/>
+      <c r="K11" s="22">
         <v>0.28899999999999998</v>
       </c>
     </row>
-    <row r="12" spans="2:11" ht="12" x14ac:dyDescent="0.3">
-      <c r="B12" s="90"/>
-      <c r="C12" s="29" t="s">
+    <row r="12" spans="2:11" x14ac:dyDescent="0.15">
+      <c r="B12" s="77"/>
+      <c r="C12" s="18" t="s">
         <v>3</v>
       </c>
-      <c r="D12" s="29" t="s">
+      <c r="D12" s="18" t="s">
         <v>14</v>
       </c>
-      <c r="E12" s="30" t="s">
+      <c r="E12" s="19" t="s">
         <v>55</v>
       </c>
-      <c r="F12" s="56"/>
-      <c r="G12" s="56"/>
-      <c r="H12" s="29"/>
-      <c r="I12" s="60" t="s">
+      <c r="F12" s="20"/>
+      <c r="G12" s="20"/>
+      <c r="H12" s="18"/>
+      <c r="I12" s="51" t="s">
         <v>57</v>
       </c>
-      <c r="J12" s="29"/>
-      <c r="K12" s="26">
+      <c r="J12" s="18"/>
+      <c r="K12" s="24">
         <v>0.28100000000000003</v>
       </c>
     </row>
-    <row r="13" spans="2:11" x14ac:dyDescent="0.25">
-      <c r="B13" s="90"/>
-      <c r="C13" s="7" t="s">
+    <row r="13" spans="2:11" x14ac:dyDescent="0.15">
+      <c r="B13" s="77"/>
+      <c r="C13" s="1" t="s">
         <v>3</v>
       </c>
-      <c r="D13" s="7" t="s">
+      <c r="D13" s="1" t="s">
         <v>14</v>
       </c>
-      <c r="E13" s="14" t="s">
+      <c r="E13" s="4" t="s">
         <v>18</v>
       </c>
-      <c r="F13" s="7"/>
-      <c r="G13" s="7"/>
-      <c r="H13" s="7"/>
-      <c r="I13" s="7"/>
-      <c r="J13" s="7"/>
-      <c r="K13" s="24">
+      <c r="K13" s="22">
         <v>0.28399999999999997</v>
       </c>
     </row>
-    <row r="14" spans="2:11" ht="12" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="B14" s="90"/>
+    <row r="14" spans="2:11" ht="13" thickBot="1" x14ac:dyDescent="0.2">
+      <c r="B14" s="77"/>
       <c r="C14" s="3" t="s">
         <v>3</v>
       </c>
       <c r="D14" s="3" t="s">
         <v>15</v>
       </c>
-      <c r="E14" s="50" t="s">
+      <c r="E14" s="43" t="s">
         <v>19</v>
       </c>
-      <c r="F14" s="17">
+      <c r="F14" s="15">
         <v>-0.4</v>
       </c>
-      <c r="G14" s="16">
+      <c r="G14" s="14">
         <v>-0.33</v>
       </c>
       <c r="H14" s="3">
         <v>7.0000000000000007E-2</v>
       </c>
-      <c r="I14" s="16">
+      <c r="I14" s="14">
         <v>0.19</v>
       </c>
       <c r="J14" s="3">
         <v>0.11</v>
       </c>
-      <c r="K14" s="25">
+      <c r="K14" s="23">
         <v>0.29799999999999999</v>
       </c>
     </row>
-    <row r="15" spans="2:11" ht="12" x14ac:dyDescent="0.3">
-      <c r="B15" s="90"/>
-      <c r="C15" s="7" t="s">
+    <row r="15" spans="2:11" x14ac:dyDescent="0.15">
+      <c r="B15" s="77"/>
+      <c r="C15" s="1" t="s">
         <v>58</v>
       </c>
-      <c r="D15" s="7" t="s">
+      <c r="D15" s="1" t="s">
         <v>14</v>
       </c>
-      <c r="E15" s="49" t="s">
+      <c r="E15" s="42" t="s">
         <v>19</v>
       </c>
-      <c r="F15" s="13">
+      <c r="F15" s="12">
         <v>-0.31</v>
       </c>
-      <c r="G15" s="12">
+      <c r="G15" s="11">
         <v>-0.38</v>
       </c>
-      <c r="H15" s="12">
+      <c r="H15" s="11">
         <v>0.17</v>
       </c>
-      <c r="I15" s="12">
+      <c r="I15" s="11">
         <v>0.25</v>
       </c>
-      <c r="J15" s="61" t="s">
+      <c r="J15" s="52" t="s">
         <v>59</v>
       </c>
-      <c r="K15" s="57">
+      <c r="K15" s="48">
         <v>0.32</v>
       </c>
     </row>
-    <row r="16" spans="2:11" x14ac:dyDescent="0.25">
-      <c r="B16" s="90"/>
-      <c r="C16" s="29" t="s">
+    <row r="16" spans="2:11" x14ac:dyDescent="0.15">
+      <c r="B16" s="77"/>
+      <c r="C16" s="18" t="s">
         <v>58</v>
       </c>
-      <c r="D16" s="29" t="s">
+      <c r="D16" s="18" t="s">
         <v>14</v>
       </c>
-      <c r="E16" s="63" t="s">
+      <c r="E16" s="54" t="s">
         <v>60</v>
       </c>
-      <c r="F16" s="64">
+      <c r="F16" s="55">
         <v>-0.3</v>
       </c>
-      <c r="G16" s="56">
+      <c r="G16" s="20">
         <v>-0.25</v>
       </c>
-      <c r="H16" s="56"/>
-      <c r="I16" s="56">
+      <c r="H16" s="20"/>
+      <c r="I16" s="20">
         <v>0.24</v>
       </c>
-      <c r="J16" s="65"/>
-      <c r="K16" s="66">
+      <c r="J16" s="56"/>
+      <c r="K16" s="57">
         <v>0.30599999999999999</v>
       </c>
     </row>
-    <row r="17" spans="2:11" x14ac:dyDescent="0.25">
-      <c r="B17" s="90"/>
-      <c r="C17" s="7" t="s">
+    <row r="17" spans="2:11" x14ac:dyDescent="0.15">
+      <c r="B17" s="77"/>
+      <c r="C17" s="1" t="s">
         <v>58</v>
       </c>
-      <c r="D17" s="7" t="s">
+      <c r="D17" s="1" t="s">
         <v>14</v>
       </c>
-      <c r="E17" s="49" t="s">
+      <c r="E17" s="42" t="s">
         <v>51</v>
       </c>
-      <c r="F17" s="13">
+      <c r="F17" s="12">
         <v>-0.28999999999999998</v>
       </c>
-      <c r="G17" s="12"/>
-      <c r="H17" s="7"/>
-      <c r="I17" s="12"/>
-      <c r="J17" s="7"/>
-      <c r="K17" s="57">
+      <c r="G17" s="11"/>
+      <c r="I17" s="11"/>
+      <c r="K17" s="48">
         <v>0.311</v>
       </c>
     </row>
-    <row r="18" spans="2:11" x14ac:dyDescent="0.25">
-      <c r="B18" s="90"/>
-      <c r="C18" s="7"/>
-      <c r="D18" s="7"/>
-      <c r="E18" s="49" t="s">
+    <row r="18" spans="2:11" x14ac:dyDescent="0.15">
+      <c r="B18" s="77"/>
+      <c r="E18" s="42" t="s">
         <v>53</v>
       </c>
-      <c r="F18" s="13"/>
-      <c r="G18" s="12">
+      <c r="F18" s="12"/>
+      <c r="G18" s="11">
         <v>-0.24</v>
       </c>
-      <c r="H18" s="7"/>
-      <c r="I18" s="12"/>
-      <c r="J18" s="7"/>
-      <c r="K18" s="24">
+      <c r="I18" s="11"/>
+      <c r="K18" s="22">
         <v>0.314</v>
       </c>
     </row>
-    <row r="19" spans="2:11" x14ac:dyDescent="0.25">
-      <c r="B19" s="90"/>
-      <c r="C19" s="7"/>
-      <c r="D19" s="7"/>
-      <c r="E19" s="49" t="s">
+    <row r="19" spans="2:11" x14ac:dyDescent="0.15">
+      <c r="B19" s="77"/>
+      <c r="E19" s="42" t="s">
         <v>54</v>
       </c>
-      <c r="F19" s="13"/>
-      <c r="G19" s="12"/>
-      <c r="H19" s="7">
+      <c r="F19" s="12"/>
+      <c r="G19" s="11"/>
+      <c r="H19" s="1">
         <v>-7.0000000000000007E-2</v>
       </c>
-      <c r="I19" s="12"/>
-      <c r="J19" s="7"/>
-      <c r="K19" s="24">
+      <c r="I19" s="11"/>
+      <c r="K19" s="22">
         <v>0.313</v>
       </c>
     </row>
-    <row r="20" spans="2:11" x14ac:dyDescent="0.25">
-      <c r="B20" s="90"/>
-      <c r="C20" s="7"/>
-      <c r="D20" s="7"/>
-      <c r="E20" s="49" t="s">
+    <row r="20" spans="2:11" x14ac:dyDescent="0.15">
+      <c r="B20" s="77"/>
+      <c r="E20" s="42" t="s">
         <v>55</v>
       </c>
-      <c r="F20" s="13"/>
-      <c r="G20" s="12"/>
-      <c r="H20" s="7"/>
-      <c r="I20" s="12">
+      <c r="F20" s="12"/>
+      <c r="G20" s="11"/>
+      <c r="I20" s="11">
         <v>0.16</v>
       </c>
-      <c r="J20" s="7"/>
-      <c r="K20" s="24">
+      <c r="K20" s="22">
         <v>0.307</v>
       </c>
     </row>
-    <row r="21" spans="2:11" x14ac:dyDescent="0.25">
-      <c r="B21" s="90"/>
-      <c r="C21" s="7"/>
-      <c r="D21" s="7"/>
-      <c r="E21" s="49" t="s">
+    <row r="21" spans="2:11" x14ac:dyDescent="0.15">
+      <c r="B21" s="77"/>
+      <c r="E21" s="42" t="s">
         <v>56</v>
       </c>
-      <c r="F21" s="13"/>
-      <c r="G21" s="12"/>
-      <c r="H21" s="7"/>
-      <c r="I21" s="12"/>
-      <c r="J21" s="7">
+      <c r="F21" s="12"/>
+      <c r="G21" s="11"/>
+      <c r="I21" s="11"/>
+      <c r="J21" s="1">
         <v>-0.01</v>
       </c>
-      <c r="K21" s="24">
+      <c r="K21" s="22">
         <v>0.313</v>
       </c>
     </row>
-    <row r="22" spans="2:11" x14ac:dyDescent="0.25">
-      <c r="B22" s="90"/>
-      <c r="C22" s="7"/>
-      <c r="D22" s="7"/>
-      <c r="E22" s="49" t="s">
+    <row r="22" spans="2:11" x14ac:dyDescent="0.15">
+      <c r="B22" s="77"/>
+      <c r="E22" s="42" t="s">
         <v>18</v>
       </c>
-      <c r="F22" s="13"/>
-      <c r="G22" s="12"/>
-      <c r="H22" s="7"/>
-      <c r="I22" s="12"/>
-      <c r="J22" s="7"/>
-      <c r="K22" s="24">
+      <c r="F22" s="12"/>
+      <c r="G22" s="11"/>
+      <c r="I22" s="11"/>
+      <c r="K22" s="22">
         <v>0.313</v>
       </c>
     </row>
-    <row r="23" spans="2:11" ht="12" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="B23" s="91"/>
+    <row r="23" spans="2:11" ht="13" thickBot="1" x14ac:dyDescent="0.2">
+      <c r="B23" s="78"/>
       <c r="C23" s="3"/>
       <c r="D23" s="3"/>
       <c r="E23" s="3"/>
@@ -1782,82 +1655,82 @@
       <c r="H23" s="3"/>
       <c r="I23" s="3"/>
       <c r="J23" s="3"/>
-      <c r="K23" s="25"/>
-    </row>
-    <row r="24" spans="2:11" x14ac:dyDescent="0.25">
-      <c r="B24" s="90" t="s">
+      <c r="K23" s="23"/>
+    </row>
+    <row r="24" spans="2:11" x14ac:dyDescent="0.15">
+      <c r="B24" s="77" t="s">
         <v>12</v>
       </c>
-      <c r="C24" s="20" t="s">
+      <c r="C24" s="18" t="s">
         <v>16</v>
       </c>
-      <c r="D24" s="29" t="s">
+      <c r="D24" s="18" t="s">
         <v>14</v>
       </c>
-      <c r="E24" s="30" t="s">
+      <c r="E24" s="19" t="s">
         <v>19</v>
       </c>
-      <c r="F24" s="29">
+      <c r="F24" s="18">
         <v>-0.19</v>
       </c>
-      <c r="G24" s="29">
+      <c r="G24" s="18">
         <v>0.12</v>
       </c>
-      <c r="H24" s="52" t="s">
+      <c r="H24" s="45" t="s">
         <v>21</v>
       </c>
-      <c r="I24" s="29">
+      <c r="I24" s="18">
         <v>-0.14000000000000001</v>
       </c>
-      <c r="J24" s="29">
+      <c r="J24" s="18">
         <v>0.05</v>
       </c>
-      <c r="K24" s="26">
+      <c r="K24" s="24">
         <v>0.248</v>
       </c>
     </row>
-    <row r="25" spans="2:11" ht="14.5" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="B25" s="92"/>
+    <row r="25" spans="2:11" ht="14.5" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="B25" s="77"/>
       <c r="C25" s="1" t="s">
         <v>16</v>
       </c>
-      <c r="D25" s="7" t="s">
+      <c r="D25" s="1" t="s">
         <v>14</v>
       </c>
-      <c r="E25" s="14" t="s">
+      <c r="E25" s="4" t="s">
         <v>18</v>
       </c>
-      <c r="F25" s="93" t="s">
+      <c r="F25" s="79" t="s">
         <v>22</v>
       </c>
-      <c r="G25" s="94"/>
-      <c r="H25" s="94"/>
-      <c r="I25" s="94"/>
-      <c r="J25" s="94"/>
-      <c r="K25" s="94"/>
-    </row>
-    <row r="26" spans="2:11" ht="14.5" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="B26" s="92"/>
+      <c r="G25" s="80"/>
+      <c r="H25" s="80"/>
+      <c r="I25" s="80"/>
+      <c r="J25" s="80"/>
+      <c r="K25" s="80"/>
+    </row>
+    <row r="26" spans="2:11" ht="14.5" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="B26" s="77"/>
       <c r="C26" s="1" t="s">
         <v>16</v>
       </c>
-      <c r="D26" s="7" t="s">
+      <c r="D26" s="1" t="s">
         <v>14</v>
       </c>
-      <c r="E26" s="14" t="s">
+      <c r="E26" s="4" t="s">
         <v>20</v>
       </c>
-      <c r="F26" s="93" t="s">
+      <c r="F26" s="79" t="s">
         <v>22</v>
       </c>
-      <c r="G26" s="94"/>
-      <c r="H26" s="94"/>
-      <c r="I26" s="94"/>
-      <c r="J26" s="94"/>
-      <c r="K26" s="94"/>
-    </row>
-    <row r="27" spans="2:11" ht="14.5" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B27" s="92"/>
+      <c r="G26" s="80"/>
+      <c r="H26" s="80"/>
+      <c r="I26" s="80"/>
+      <c r="J26" s="80"/>
+      <c r="K26" s="80"/>
+    </row>
+    <row r="27" spans="2:11" ht="14.5" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="B27" s="77"/>
       <c r="C27" s="1" t="s">
         <v>16</v>
       </c>
@@ -1867,24 +1740,19 @@
       <c r="E27" s="1" t="s">
         <v>18</v>
       </c>
-      <c r="F27" s="7"/>
-      <c r="G27" s="7"/>
-      <c r="H27" s="7"/>
-      <c r="I27" s="7"/>
-      <c r="J27" s="7"/>
-      <c r="K27" s="24">
+      <c r="K27" s="22">
         <v>0.247</v>
       </c>
     </row>
-    <row r="28" spans="2:11" ht="14.5" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="B28" s="92"/>
+    <row r="28" spans="2:11" ht="14.5" customHeight="1" thickBot="1" x14ac:dyDescent="0.2">
+      <c r="B28" s="77"/>
       <c r="C28" s="3" t="s">
         <v>16</v>
       </c>
       <c r="D28" s="3" t="s">
         <v>15</v>
       </c>
-      <c r="E28" s="8" t="s">
+      <c r="E28" s="7" t="s">
         <v>19</v>
       </c>
       <c r="F28" s="3">
@@ -1893,7 +1761,7 @@
       <c r="G28" s="3">
         <v>0.12</v>
       </c>
-      <c r="H28" s="62" t="s">
+      <c r="H28" s="53" t="s">
         <v>21</v>
       </c>
       <c r="I28" s="3">
@@ -1902,12 +1770,12 @@
       <c r="J28" s="3">
         <v>0.05</v>
       </c>
-      <c r="K28" s="25">
+      <c r="K28" s="23">
         <v>0.248</v>
       </c>
     </row>
-    <row r="29" spans="2:11" ht="14.5" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="B29" s="92"/>
+    <row r="29" spans="2:11" ht="14.5" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="B29" s="77"/>
       <c r="C29" s="1" t="s">
         <v>3</v>
       </c>
@@ -1920,7 +1788,7 @@
       <c r="F29" s="6">
         <v>-0.09</v>
       </c>
-      <c r="G29" s="51">
+      <c r="G29" s="44">
         <v>-0.28999999999999998</v>
       </c>
       <c r="H29" s="1">
@@ -1932,12 +1800,12 @@
       <c r="J29" s="1">
         <v>-0.05</v>
       </c>
-      <c r="K29" s="24">
+      <c r="K29" s="22">
         <v>0.316</v>
       </c>
     </row>
-    <row r="30" spans="2:11" ht="14.5" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B30" s="92"/>
+    <row r="30" spans="2:11" ht="14.5" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="B30" s="77"/>
       <c r="C30" s="1" t="s">
         <v>3</v>
       </c>
@@ -1950,34 +1818,34 @@
       <c r="F30" s="1">
         <v>-0.15</v>
       </c>
-      <c r="K30" s="24">
+      <c r="K30" s="22">
         <v>0.32500000000000001</v>
       </c>
     </row>
-    <row r="31" spans="2:11" ht="14.5" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B31" s="92"/>
-      <c r="C31" s="20" t="s">
+    <row r="31" spans="2:11" ht="14.5" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="B31" s="77"/>
+      <c r="C31" s="18" t="s">
         <v>3</v>
       </c>
-      <c r="D31" s="20" t="s">
+      <c r="D31" s="18" t="s">
         <v>14</v>
       </c>
-      <c r="E31" s="21" t="s">
+      <c r="E31" s="19" t="s">
         <v>53</v>
       </c>
-      <c r="F31" s="20"/>
-      <c r="G31" s="22">
+      <c r="F31" s="18"/>
+      <c r="G31" s="20">
         <v>-0.28999999999999998</v>
       </c>
-      <c r="H31" s="20"/>
-      <c r="I31" s="20"/>
-      <c r="J31" s="20"/>
-      <c r="K31" s="26">
+      <c r="H31" s="18"/>
+      <c r="I31" s="18"/>
+      <c r="J31" s="18"/>
+      <c r="K31" s="24">
         <v>0.30299999999999999</v>
       </c>
     </row>
-    <row r="32" spans="2:11" ht="14.5" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B32" s="92"/>
+    <row r="32" spans="2:11" ht="14.5" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="B32" s="77"/>
       <c r="C32" s="1" t="s">
         <v>3</v>
       </c>
@@ -1990,12 +1858,12 @@
       <c r="H32" s="1">
         <v>-0.02</v>
       </c>
-      <c r="K32" s="24">
+      <c r="K32" s="22">
         <v>0.32800000000000001</v>
       </c>
     </row>
-    <row r="33" spans="2:11" ht="14.5" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B33" s="92"/>
+    <row r="33" spans="2:11" ht="14.5" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="B33" s="77"/>
       <c r="C33" s="1" t="s">
         <v>3</v>
       </c>
@@ -2008,12 +1876,12 @@
       <c r="I33" s="1">
         <v>-0.02</v>
       </c>
-      <c r="K33" s="24">
+      <c r="K33" s="22">
         <v>0.32800000000000001</v>
       </c>
     </row>
-    <row r="34" spans="2:11" ht="14.5" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B34" s="92"/>
+    <row r="34" spans="2:11" ht="14.5" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="B34" s="77"/>
       <c r="C34" s="1" t="s">
         <v>3</v>
       </c>
@@ -2026,12 +1894,12 @@
       <c r="J34" s="1">
         <v>-0.18</v>
       </c>
-      <c r="K34" s="24">
+      <c r="K34" s="22">
         <v>0.32400000000000001</v>
       </c>
     </row>
-    <row r="35" spans="2:11" ht="14.5" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B35" s="92"/>
+    <row r="35" spans="2:11" ht="14.5" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="B35" s="77"/>
       <c r="C35" s="1" t="s">
         <v>3</v>
       </c>
@@ -2041,19 +1909,19 @@
       <c r="E35" s="4" t="s">
         <v>18</v>
       </c>
-      <c r="K35" s="24">
+      <c r="K35" s="22">
         <v>0.316</v>
       </c>
     </row>
-    <row r="36" spans="2:11" ht="15" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="B36" s="91"/>
+    <row r="36" spans="2:11" ht="15" customHeight="1" thickBot="1" x14ac:dyDescent="0.2">
+      <c r="B36" s="78"/>
       <c r="C36" s="3" t="s">
         <v>3</v>
       </c>
       <c r="D36" s="3" t="s">
         <v>15</v>
       </c>
-      <c r="E36" s="8" t="s">
+      <c r="E36" s="7" t="s">
         <v>19</v>
       </c>
       <c r="F36" s="3">
@@ -2071,11 +1939,11 @@
       <c r="J36" s="3">
         <v>-0.04</v>
       </c>
-      <c r="K36" s="25">
+      <c r="K36" s="23">
         <v>0.29599999999999999</v>
       </c>
     </row>
-    <row r="37" spans="2:11" x14ac:dyDescent="0.25">
+    <row r="37" spans="2:11" x14ac:dyDescent="0.15">
       <c r="E37" s="1" t="s">
         <v>31</v>
       </c>
@@ -2102,44 +1970,44 @@
   <dimension ref="A1:J19"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="J19" sqref="J19"/>
+      <selection activeCell="M16" sqref="M16"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
+  <sheetFormatPr baseColWidth="10" defaultColWidth="8.6640625" defaultRowHeight="15" x14ac:dyDescent="0.2"/>
   <cols>
-    <col min="1" max="2" width="8.7265625" style="31"/>
-    <col min="3" max="3" width="16.26953125" style="31" bestFit="1" customWidth="1"/>
-    <col min="4" max="8" width="8.7265625" style="31"/>
-    <col min="9" max="9" width="6.6328125" style="31" customWidth="1"/>
-    <col min="10" max="16384" width="8.7265625" style="31"/>
+    <col min="1" max="2" width="8.6640625" style="27"/>
+    <col min="3" max="3" width="16.33203125" style="27" bestFit="1" customWidth="1"/>
+    <col min="4" max="8" width="8.6640625" style="27"/>
+    <col min="9" max="9" width="6.6640625" style="27" customWidth="1"/>
+    <col min="10" max="16384" width="8.6640625" style="27"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:10" ht="20.5" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="1" spans="1:10" ht="20.5" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A1" s="1"/>
-      <c r="B1" s="86" t="s">
+      <c r="B1" s="74" t="s">
         <v>0</v>
       </c>
-      <c r="C1" s="86" t="s">
+      <c r="C1" s="74" t="s">
         <v>25</v>
       </c>
-      <c r="D1" s="98" t="s">
+      <c r="D1" s="84" t="s">
         <v>17</v>
       </c>
-      <c r="E1" s="98"/>
-      <c r="F1" s="98"/>
-      <c r="G1" s="98"/>
-      <c r="H1" s="98"/>
-      <c r="I1" s="27" t="s">
+      <c r="E1" s="84"/>
+      <c r="F1" s="84"/>
+      <c r="G1" s="84"/>
+      <c r="H1" s="84"/>
+      <c r="I1" s="25" t="s">
         <v>11</v>
       </c>
-      <c r="J1" s="96" t="s">
+      <c r="J1" s="82" t="s">
         <v>50</v>
       </c>
     </row>
-    <row r="2" spans="1:10" ht="19" customHeight="1" thickBot="1" x14ac:dyDescent="0.4">
+    <row r="2" spans="1:10" ht="19" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
       <c r="A2" s="2"/>
-      <c r="B2" s="87"/>
-      <c r="C2" s="87"/>
+      <c r="B2" s="75"/>
+      <c r="C2" s="75"/>
       <c r="D2" s="5" t="s">
         <v>6</v>
       </c>
@@ -2155,464 +2023,464 @@
       <c r="H2" s="5" t="s">
         <v>10</v>
       </c>
-      <c r="I2" s="28" t="s">
+      <c r="I2" s="26" t="s">
         <v>5</v>
       </c>
-      <c r="J2" s="97"/>
-    </row>
-    <row r="3" spans="1:10" x14ac:dyDescent="0.35">
+      <c r="J2" s="83"/>
+    </row>
+    <row r="3" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A3" s="1"/>
-      <c r="B3" s="84" t="s">
+      <c r="B3" s="72" t="s">
         <v>23</v>
       </c>
-      <c r="C3" s="9" t="s">
+      <c r="C3" s="8" t="s">
         <v>26</v>
       </c>
-      <c r="D3" s="15">
+      <c r="D3" s="13">
         <v>-0.12</v>
       </c>
-      <c r="E3" s="34">
+      <c r="E3" s="30">
         <v>-0.1</v>
       </c>
-      <c r="F3" s="35">
+      <c r="F3" s="31">
         <v>0.92</v>
       </c>
-      <c r="G3" s="36">
+      <c r="G3" s="32">
         <v>1.1000000000000001</v>
       </c>
-      <c r="H3" s="15">
+      <c r="H3" s="13">
         <v>0.12</v>
       </c>
-      <c r="I3" s="23">
+      <c r="I3" s="21">
         <v>0.42</v>
       </c>
-      <c r="J3" s="31">
+      <c r="J3" s="27">
         <v>0.34</v>
       </c>
     </row>
-    <row r="4" spans="1:10" x14ac:dyDescent="0.35">
+    <row r="4" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A4" s="1"/>
-      <c r="B4" s="82"/>
-      <c r="C4" s="7" t="s">
+      <c r="B4" s="81"/>
+      <c r="C4" s="1" t="s">
         <v>27</v>
       </c>
-      <c r="D4" s="14">
+      <c r="D4" s="4">
         <v>-9.67</v>
       </c>
-      <c r="E4" s="37">
+      <c r="E4" s="33">
         <v>31.8</v>
       </c>
-      <c r="F4" s="14">
+      <c r="F4" s="4">
         <v>-4.1100000000000003</v>
       </c>
-      <c r="G4" s="14">
+      <c r="G4" s="4">
         <v>-4.71</v>
       </c>
-      <c r="H4" s="14">
+      <c r="H4" s="4">
         <v>3.59</v>
       </c>
-      <c r="I4" s="24">
+      <c r="I4" s="22">
         <v>0.28000000000000003</v>
       </c>
-      <c r="J4" s="31">
+      <c r="J4" s="27">
         <v>0.33</v>
       </c>
     </row>
-    <row r="5" spans="1:10" x14ac:dyDescent="0.35">
+    <row r="5" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A5" s="1"/>
-      <c r="B5" s="82"/>
-      <c r="C5" s="7" t="s">
+      <c r="B5" s="81"/>
+      <c r="C5" s="1" t="s">
         <v>29</v>
       </c>
-      <c r="D5" s="38">
+      <c r="D5" s="33">
         <v>0.1</v>
       </c>
-      <c r="E5" s="32" t="s">
+      <c r="E5" s="28" t="s">
         <v>30</v>
       </c>
       <c r="F5" s="4">
         <v>0.06</v>
       </c>
-      <c r="G5" s="39">
+      <c r="G5" s="17">
         <v>0.57999999999999996</v>
       </c>
       <c r="H5" s="4">
         <v>0.02</v>
       </c>
-      <c r="I5" s="24">
+      <c r="I5" s="22">
         <v>0.47</v>
       </c>
-      <c r="J5" s="31">
+      <c r="J5" s="27">
         <v>0.42</v>
       </c>
     </row>
-    <row r="6" spans="1:10" x14ac:dyDescent="0.35">
+    <row r="6" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A6" s="1"/>
-      <c r="B6" s="82"/>
-      <c r="C6" s="7" t="s">
+      <c r="B6" s="81"/>
+      <c r="C6" s="1" t="s">
         <v>32</v>
       </c>
       <c r="D6" s="4">
         <v>0.51</v>
       </c>
-      <c r="E6" s="38">
+      <c r="E6" s="33">
         <v>-0.6</v>
       </c>
       <c r="F6" s="4">
         <v>-0.3</v>
       </c>
-      <c r="G6" s="39">
+      <c r="G6" s="17">
         <v>0.92</v>
       </c>
       <c r="H6" s="4">
         <v>-0.33</v>
       </c>
-      <c r="I6" s="24">
+      <c r="I6" s="22">
         <v>0.45</v>
       </c>
-      <c r="J6" s="31">
+      <c r="J6" s="27">
         <v>0.42</v>
       </c>
     </row>
-    <row r="7" spans="1:10" x14ac:dyDescent="0.35">
+    <row r="7" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A7" s="1"/>
-      <c r="B7" s="82"/>
-      <c r="C7" s="7" t="s">
+      <c r="B7" s="81"/>
+      <c r="C7" s="1" t="s">
         <v>28</v>
       </c>
-      <c r="D7" s="19">
+      <c r="D7" s="17">
         <v>0.65</v>
       </c>
-      <c r="E7" s="37">
+      <c r="E7" s="33">
         <v>0.62</v>
       </c>
-      <c r="F7" s="19">
+      <c r="F7" s="17">
         <v>-0.97</v>
       </c>
-      <c r="G7" s="37">
+      <c r="G7" s="33">
         <v>0.33</v>
       </c>
-      <c r="H7" s="37">
+      <c r="H7" s="33">
         <v>-0.4</v>
       </c>
-      <c r="I7" s="24">
+      <c r="I7" s="22">
         <v>0.33</v>
       </c>
-      <c r="J7" s="31">
+      <c r="J7" s="27">
         <v>0.35</v>
       </c>
     </row>
-    <row r="8" spans="1:10" x14ac:dyDescent="0.35">
+    <row r="8" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A8" s="1"/>
-      <c r="B8" s="82"/>
-      <c r="C8" s="7" t="s">
+      <c r="B8" s="81"/>
+      <c r="C8" s="1" t="s">
         <v>33</v>
       </c>
-      <c r="D8" s="14">
+      <c r="D8" s="4">
         <v>0.42</v>
       </c>
-      <c r="E8" s="37">
+      <c r="E8" s="33">
         <v>-3.7</v>
       </c>
-      <c r="F8" s="37">
+      <c r="F8" s="33">
         <v>0.2</v>
       </c>
-      <c r="G8" s="37">
+      <c r="G8" s="33">
         <v>-0.33</v>
       </c>
-      <c r="H8" s="40">
+      <c r="H8" s="34">
         <v>0.04</v>
       </c>
-      <c r="I8" s="24">
+      <c r="I8" s="22">
         <v>0.46</v>
       </c>
-      <c r="J8" s="46">
+      <c r="J8" s="39">
         <v>0.5</v>
       </c>
     </row>
-    <row r="9" spans="1:10" x14ac:dyDescent="0.35">
+    <row r="9" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A9" s="1"/>
-      <c r="B9" s="82"/>
-      <c r="C9" s="7" t="s">
+      <c r="B9" s="81"/>
+      <c r="C9" s="1" t="s">
         <v>34</v>
       </c>
-      <c r="D9" s="19">
+      <c r="D9" s="17">
         <v>-0.3</v>
       </c>
-      <c r="E9" s="40">
+      <c r="E9" s="34">
         <v>-0.5</v>
       </c>
-      <c r="F9" s="14">
+      <c r="F9" s="4">
         <v>0.19</v>
       </c>
-      <c r="G9" s="37">
+      <c r="G9" s="33">
         <v>0.05</v>
       </c>
-      <c r="H9" s="37">
+      <c r="H9" s="33">
         <v>-0.13</v>
       </c>
-      <c r="I9" s="24">
+      <c r="I9" s="22">
         <v>0.44</v>
       </c>
-      <c r="J9" s="46">
+      <c r="J9" s="39">
         <v>0.4</v>
       </c>
     </row>
-    <row r="10" spans="1:10" x14ac:dyDescent="0.35">
+    <row r="10" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A10" s="1"/>
-      <c r="B10" s="82"/>
-      <c r="C10" s="7" t="s">
+      <c r="B10" s="81"/>
+      <c r="C10" s="1" t="s">
         <v>35</v>
       </c>
-      <c r="D10" s="41" t="s">
+      <c r="D10" s="28" t="s">
         <v>41</v>
       </c>
-      <c r="E10" s="37">
+      <c r="E10" s="33">
         <v>0.26</v>
       </c>
-      <c r="F10" s="14">
+      <c r="F10" s="4">
         <v>0.23</v>
       </c>
-      <c r="G10" s="37">
+      <c r="G10" s="33">
         <v>-0.12</v>
       </c>
-      <c r="H10" s="42" t="s">
+      <c r="H10" s="35" t="s">
         <v>42</v>
       </c>
-      <c r="I10" s="24">
+      <c r="I10" s="22">
         <v>0.47</v>
       </c>
-      <c r="J10" s="31">
+      <c r="J10" s="27">
         <v>0.42</v>
       </c>
     </row>
-    <row r="11" spans="1:10" x14ac:dyDescent="0.35">
+    <row r="11" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A11" s="1"/>
-      <c r="B11" s="82"/>
-      <c r="C11" s="7" t="s">
+      <c r="B11" s="81"/>
+      <c r="C11" s="1" t="s">
         <v>36</v>
       </c>
-      <c r="D11" s="14">
+      <c r="D11" s="4">
         <v>0.38</v>
       </c>
-      <c r="E11" s="42" t="s">
+      <c r="E11" s="35" t="s">
         <v>43</v>
       </c>
-      <c r="F11" s="41" t="s">
+      <c r="F11" s="28" t="s">
         <v>44</v>
       </c>
-      <c r="G11" s="37">
+      <c r="G11" s="33">
         <v>0.69</v>
       </c>
-      <c r="H11" s="37">
+      <c r="H11" s="33">
         <v>0.26</v>
       </c>
-      <c r="I11" s="24">
+      <c r="I11" s="22">
         <v>0.43</v>
       </c>
-      <c r="J11" s="31">
+      <c r="J11" s="27">
         <v>0.39</v>
       </c>
     </row>
-    <row r="12" spans="1:10" x14ac:dyDescent="0.35">
+    <row r="12" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A12" s="1"/>
-      <c r="B12" s="82"/>
-      <c r="C12" s="7" t="s">
+      <c r="B12" s="81"/>
+      <c r="C12" s="1" t="s">
         <v>37</v>
       </c>
-      <c r="D12" s="14">
+      <c r="D12" s="4">
         <v>-0.38</v>
       </c>
-      <c r="E12" s="37">
+      <c r="E12" s="33">
         <v>-1.26</v>
       </c>
-      <c r="F12" s="33" t="s">
+      <c r="F12" s="29" t="s">
         <v>46</v>
       </c>
-      <c r="G12" s="37">
+      <c r="G12" s="33">
         <v>-0.09</v>
       </c>
-      <c r="H12" s="37">
+      <c r="H12" s="33">
         <v>0.14000000000000001</v>
       </c>
-      <c r="I12" s="24">
+      <c r="I12" s="22">
         <v>0.37</v>
       </c>
-      <c r="J12" s="31">
+      <c r="J12" s="27">
         <v>0.41</v>
       </c>
     </row>
-    <row r="13" spans="1:10" x14ac:dyDescent="0.35">
+    <row r="13" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A13" s="1"/>
-      <c r="B13" s="82"/>
-      <c r="C13" s="7" t="s">
+      <c r="B13" s="81"/>
+      <c r="C13" s="1" t="s">
         <v>38</v>
       </c>
-      <c r="D13" s="14">
+      <c r="D13" s="4">
         <v>-0.37</v>
       </c>
-      <c r="E13" s="37">
+      <c r="E13" s="33">
         <v>-0.34</v>
       </c>
-      <c r="F13" s="14">
+      <c r="F13" s="4">
         <v>-0.79</v>
       </c>
-      <c r="G13" s="37">
+      <c r="G13" s="33">
         <v>0.01</v>
       </c>
-      <c r="H13" s="37">
+      <c r="H13" s="33">
         <v>-1.57</v>
       </c>
-      <c r="I13" s="24">
+      <c r="I13" s="22">
         <v>0.48</v>
       </c>
       <c r="J13" s="6">
         <v>0.5</v>
       </c>
     </row>
-    <row r="14" spans="1:10" x14ac:dyDescent="0.35">
+    <row r="14" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A14" s="1"/>
-      <c r="B14" s="82"/>
-      <c r="C14" s="7" t="s">
+      <c r="B14" s="81"/>
+      <c r="C14" s="1" t="s">
         <v>39</v>
       </c>
-      <c r="D14" s="14">
+      <c r="D14" s="4">
         <v>0.42</v>
       </c>
-      <c r="E14" s="42" t="s">
+      <c r="E14" s="35" t="s">
         <v>45</v>
       </c>
-      <c r="F14" s="14">
+      <c r="F14" s="4">
         <v>0.37</v>
       </c>
-      <c r="G14" s="37">
+      <c r="G14" s="33">
         <v>0.08</v>
       </c>
-      <c r="H14" s="37">
+      <c r="H14" s="33">
         <v>-0.1</v>
       </c>
-      <c r="I14" s="24">
+      <c r="I14" s="22">
         <v>0.44</v>
       </c>
       <c r="J14" s="1">
         <v>0.47</v>
       </c>
     </row>
-    <row r="15" spans="1:10" ht="15" thickBot="1" x14ac:dyDescent="0.4">
+    <row r="15" spans="1:10" ht="16" thickBot="1" x14ac:dyDescent="0.25">
       <c r="A15" s="1"/>
-      <c r="B15" s="83"/>
+      <c r="B15" s="71"/>
       <c r="C15" s="3" t="s">
         <v>40</v>
       </c>
-      <c r="D15" s="43">
+      <c r="D15" s="36">
         <v>-0.1</v>
       </c>
-      <c r="E15" s="44">
+      <c r="E15" s="37">
         <v>-0.35</v>
       </c>
-      <c r="F15" s="45">
+      <c r="F15" s="38">
         <v>0.5</v>
       </c>
-      <c r="G15" s="8">
+      <c r="G15" s="7">
         <v>0.12</v>
       </c>
-      <c r="H15" s="8">
+      <c r="H15" s="7">
         <v>0.22</v>
       </c>
-      <c r="I15" s="25">
+      <c r="I15" s="23">
         <v>0.38</v>
       </c>
-      <c r="J15" s="47">
+      <c r="J15" s="40">
         <v>0.38</v>
       </c>
     </row>
-    <row r="16" spans="1:10" x14ac:dyDescent="0.35">
+    <row r="16" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A16" s="1"/>
-      <c r="B16" s="82" t="s">
+      <c r="B16" s="81" t="s">
         <v>24</v>
       </c>
       <c r="C16" s="1" t="s">
         <v>47</v>
       </c>
-      <c r="D16" s="19">
+      <c r="D16" s="17">
         <v>-0.76</v>
       </c>
-      <c r="E16" s="14">
+      <c r="E16" s="4">
         <v>1.86</v>
       </c>
-      <c r="F16" s="19">
+      <c r="F16" s="17">
         <v>-0.79</v>
       </c>
-      <c r="G16" s="19">
+      <c r="G16" s="17">
         <v>-0.96</v>
       </c>
-      <c r="H16" s="37">
+      <c r="H16" s="33">
         <v>0.5</v>
       </c>
-      <c r="I16" s="24">
+      <c r="I16" s="22">
         <v>0.43</v>
       </c>
-      <c r="J16" s="46">
+      <c r="J16" s="39">
         <v>0.5</v>
       </c>
     </row>
-    <row r="17" spans="1:10" x14ac:dyDescent="0.35">
+    <row r="17" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A17" s="1"/>
-      <c r="B17" s="95"/>
+      <c r="B17" s="81"/>
       <c r="C17" s="1" t="s">
         <v>48</v>
       </c>
-      <c r="D17" s="19">
+      <c r="D17" s="17">
         <v>-1.22</v>
       </c>
-      <c r="E17" s="14">
+      <c r="E17" s="4">
         <v>0.72</v>
       </c>
-      <c r="F17" s="14">
+      <c r="F17" s="4">
         <v>0.5</v>
       </c>
-      <c r="G17" s="14">
+      <c r="G17" s="4">
         <v>0.21</v>
       </c>
-      <c r="H17" s="14">
+      <c r="H17" s="4">
         <v>-0.26</v>
       </c>
-      <c r="I17" s="24">
+      <c r="I17" s="22">
         <v>0.41</v>
       </c>
-      <c r="J17" s="31">
+      <c r="J17" s="27">
         <v>0.45</v>
       </c>
     </row>
-    <row r="18" spans="1:10" ht="15" thickBot="1" x14ac:dyDescent="0.4">
+    <row r="18" spans="1:10" ht="16" thickBot="1" x14ac:dyDescent="0.25">
       <c r="A18" s="1"/>
-      <c r="B18" s="83"/>
+      <c r="B18" s="71"/>
       <c r="C18" s="3" t="s">
         <v>49</v>
       </c>
-      <c r="D18" s="8">
+      <c r="D18" s="7">
         <v>-7.0000000000000007E-2</v>
       </c>
-      <c r="E18" s="8">
+      <c r="E18" s="7">
         <v>-1.35</v>
       </c>
-      <c r="F18" s="8">
+      <c r="F18" s="7">
         <v>-0.28999999999999998</v>
       </c>
-      <c r="G18" s="8">
+      <c r="G18" s="7">
         <v>0.28000000000000003</v>
       </c>
-      <c r="H18" s="8">
+      <c r="H18" s="7">
         <v>0.92</v>
       </c>
-      <c r="I18" s="25">
+      <c r="I18" s="23">
         <v>0.36</v>
       </c>
-      <c r="J18" s="48">
+      <c r="J18" s="41">
         <v>0.39</v>
       </c>
     </row>
-    <row r="19" spans="1:10" x14ac:dyDescent="0.35">
+    <row r="19" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A19" s="1"/>
       <c r="B19" s="1"/>
       <c r="C19" s="1" t="s">
@@ -2623,7 +2491,7 @@
       <c r="F19" s="1"/>
       <c r="G19" s="1"/>
       <c r="H19" s="1"/>
-      <c r="I19" s="18"/>
+      <c r="I19" s="16"/>
     </row>
   </sheetData>
   <mergeCells count="6">
@@ -2647,23 +2515,23 @@
       <selection activeCell="B2" sqref="B2:J4"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
+  <sheetFormatPr baseColWidth="10" defaultColWidth="8.83203125" defaultRowHeight="15" x14ac:dyDescent="0.2"/>
   <cols>
-    <col min="2" max="2" width="9.90625" bestFit="1" customWidth="1"/>
-    <col min="6" max="6" width="9.26953125" bestFit="1" customWidth="1"/>
-    <col min="7" max="7" width="11.90625" bestFit="1" customWidth="1"/>
-    <col min="8" max="8" width="10.36328125" bestFit="1" customWidth="1"/>
-    <col min="9" max="9" width="15.7265625" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="9.83203125" bestFit="1" customWidth="1"/>
+    <col min="6" max="6" width="9.33203125" bestFit="1" customWidth="1"/>
+    <col min="7" max="7" width="11.83203125" bestFit="1" customWidth="1"/>
+    <col min="8" max="8" width="10.33203125" bestFit="1" customWidth="1"/>
+    <col min="9" max="9" width="15.6640625" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="3" spans="3:9" x14ac:dyDescent="0.35">
-      <c r="C3" s="58"/>
-      <c r="D3" s="58"/>
-      <c r="E3" s="58"/>
-      <c r="F3" s="59"/>
-      <c r="G3" s="58"/>
-      <c r="H3" s="58"/>
-      <c r="I3" s="58"/>
+    <row r="3" spans="3:9" x14ac:dyDescent="0.2">
+      <c r="C3" s="49"/>
+      <c r="D3" s="49"/>
+      <c r="E3" s="49"/>
+      <c r="F3" s="50"/>
+      <c r="G3" s="49"/>
+      <c r="H3" s="49"/>
+      <c r="I3" s="49"/>
     </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
